--- a/output/figures/compare_toTG_figure.xlsx
+++ b/output/figures/compare_toTG_figure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wen-Juan/Dropbox (Amherst College)/Amherst_postdoc/github/Haploidselection_and_dosagecompensation_in_Microbotryum/output/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D867BA7-3378-F046-883B-7BB6B2A80839}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF10D5E-41E7-314E-A204-DD1CC5EF0859}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1660" yWindow="460" windowWidth="36580" windowHeight="22060" xr2:uid="{B92DAFF7-4BCD-7E45-93A6-B01617244326}"/>
   </bookViews>
@@ -4846,7 +4846,7 @@
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/output/figures/compare_toTG_figure.xlsx
+++ b/output/figures/compare_toTG_figure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wen-Juan/Dropbox (Amherst College)/Amherst_postdoc/github/Haploidselection_and_dosagecompensation_in_Microbotryum/output/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF10D5E-41E7-314E-A204-DD1CC5EF0859}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E363C8D-FBE4-1A47-848B-481E339AC612}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="460" windowWidth="36580" windowHeight="22060" xr2:uid="{B92DAFF7-4BCD-7E45-93A6-B01617244326}"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="39560" windowHeight="22060" xr2:uid="{B92DAFF7-4BCD-7E45-93A6-B01617244326}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="12">
   <si>
     <t>category</t>
   </si>
@@ -33,47 +33,41 @@
     <t>PAR</t>
   </si>
   <si>
-    <t>Black stratum</t>
-  </si>
-  <si>
-    <t>Color stratum</t>
-  </si>
-  <si>
-    <t>Autosome</t>
-  </si>
-  <si>
-    <t>up-regulated towards N</t>
-  </si>
-  <si>
-    <t>up-regulated towards N+N</t>
-  </si>
-  <si>
-    <t>non-DE</t>
-  </si>
-  <si>
     <t>Proportion</t>
   </si>
   <si>
-    <t>upregulated in N</t>
+    <t>Autosomal</t>
   </si>
   <si>
-    <t>upregulated in N+N</t>
+    <t>NRR Black stratum</t>
   </si>
   <si>
-    <t>Color strata</t>
+    <t>NRR Color strata</t>
   </si>
   <si>
-    <t>up-regulated in A1</t>
+    <t>1 N upregulated</t>
   </si>
   <si>
-    <t>up-regulated in A2</t>
+    <t>N+N upregulated</t>
+  </si>
+  <si>
+    <t>no difference</t>
+  </si>
+  <si>
+    <t>A1 upregulated</t>
+  </si>
+  <si>
+    <t>A2 upregulated</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,12 +79,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Light"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -123,18 +111,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7E79"/>
+      <color rgb="FFFF006B"/>
+      <color rgb="FFFF2C79"/>
+      <color rgb="FFFF80A9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -160,85 +167,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>A1 water</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> agar: N/N+N</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.34202745921029865"/>
-          <c:y val="3.0159311729902837E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.7122703412073491E-2"/>
-          <c:y val="0.14393518518518519"/>
-          <c:w val="0.67995559930008753"/>
-          <c:h val="0.7486654272382619"/>
+          <c:x val="0.15602559055118109"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.62545581802274719"/>
+          <c:h val="0.74357247010790317"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -250,18 +189,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>Sheet1!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>upregulated in N</c:v>
+                  <c:v>no difference</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="00B0F0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -271,20 +210,20 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:f>Sheet1!$B$6:$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>PAR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Black stratum</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Color strata</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Autosome</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -296,23 +235,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.6086956521739129E-2</c:v>
+                  <c:v>0.89398451459201911</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.296043656207367</c:v>
+                  <c:v>0.6221009549795361</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1724137931034482E-2</c:v>
+                  <c:v>0.87931034482758619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9070875521143536E-2</c:v>
+                  <c:v>0.87826086956521743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9B5D-3545-A605-39A0A3355136}"/>
+              <c16:uniqueId val="{00000000-0407-9F48-ACE5-B931C9FF9E62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -321,18 +260,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>Sheet1!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>upregulated in N+N</c:v>
+                  <c:v>N+N upregulated</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -342,20 +281,20 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:f>Sheet1!$B$6:$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>PAR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Black stratum</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Color strata</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Autosome</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -367,7 +306,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.5652173913043481E-2</c:v>
+                  <c:v>6.6944609886837397E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.1855388813096869E-2</c:v>
@@ -376,14 +315,14 @@
                   <c:v>6.8965517241379309E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6944609886837397E-2</c:v>
+                  <c:v>9.5652173913043481E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9B5D-3545-A605-39A0A3355136}"/>
+              <c16:uniqueId val="{00000001-0407-9F48-ACE5-B931C9FF9E62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -392,18 +331,18 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>Sheet1!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>non-DE</c:v>
+                  <c:v>1 N upregulated</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="FF7E79"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -413,20 +352,20 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:f>Sheet1!$B$6:$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>PAR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Black stratum</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Color strata</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Autosome</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -438,23 +377,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.87826086956521743</c:v>
+                  <c:v>3.9070875521143536E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6221009549795361</c:v>
+                  <c:v>0.296043656207367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87931034482758619</c:v>
+                  <c:v>5.1724137931034482E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89398451459201911</c:v>
+                  <c:v>2.6086956521739129E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9B5D-3545-A605-39A0A3355136}"/>
+              <c16:uniqueId val="{00000002-0407-9F48-ACE5-B931C9FF9E62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -466,18 +405,73 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="1653100079"/>
-        <c:axId val="1653059311"/>
+        <c:axId val="1697518447"/>
+        <c:axId val="1655231215"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1653100079"/>
+        <c:axId val="1697518447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Chromosome compartment </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -515,7 +509,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1653059311"/>
+        <c:crossAx val="1655231215"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -523,7 +517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1653059311"/>
+        <c:axId val="1655231215"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -543,8 +537,77 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Proportion</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -560,6 +623,9 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -574,7 +640,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1653100079"/>
+        <c:crossAx val="1697518447"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -588,16 +654,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.76884094769326583"/>
-          <c:y val="0.44320516473972743"/>
-          <c:w val="0.2241026588379266"/>
-          <c:h val="0.2181179775280899"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -685,77 +741,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>A2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> water agar: N/N+N</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.7122703412073491E-2"/>
-          <c:y val="0.16245370370370371"/>
-          <c:w val="0.67927515310586173"/>
-          <c:h val="0.7301469087197433"/>
+          <c:x val="0.14281290864973087"/>
+          <c:y val="5.7071588028171451E-2"/>
+          <c:w val="0.66664791281710412"/>
+          <c:h val="0.80163976247710744"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -767,18 +763,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>Sheet1!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>upregulated in N</c:v>
+                  <c:v>no difference</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="00B0F0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -788,48 +784,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:f>Sheet1!$B$26:$E$26</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>PAR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Black stratum</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Color strata</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Autosome</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$38:$E$38</c:f>
+              <c:f>Sheet1!$B$27:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.5862068965517241E-2</c:v>
+                  <c:v>0.89801734820322177</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41176470588235292</c:v>
+                  <c:v>0.50610432852386233</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5087719298245612E-2</c:v>
+                  <c:v>0.85964912280701755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.770755885997522E-2</c:v>
+                  <c:v>0.88793103448275867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A836-BE44-9A49-1B41CF916F49}"/>
+              <c16:uniqueId val="{00000000-3FA8-034C-A065-5A3220B1C454}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -838,18 +834,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>Sheet1!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>upregulated in N+N</c:v>
+                  <c:v>N+N upregulated</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -859,32 +855,32 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:f>Sheet1!$B$26:$E$26</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>PAR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Black stratum</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Color strata</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Autosome</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$39:$E$39</c:f>
+              <c:f>Sheet1!$B$28:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.6206896551724144E-2</c:v>
+                  <c:v>5.4275092936802972E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.2130965593784688E-2</c:v>
@@ -893,14 +889,14 @@
                   <c:v>0.10526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4275092936802972E-2</c:v>
+                  <c:v>8.6206896551724144E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A836-BE44-9A49-1B41CF916F49}"/>
+              <c16:uniqueId val="{00000001-3FA8-034C-A065-5A3220B1C454}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -909,18 +905,18 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>Sheet1!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>non-DE</c:v>
+                  <c:v>1 N upregulated</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="FF7E79"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -930,48 +926,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:f>Sheet1!$B$26:$E$26</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>PAR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Black stratum</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Color strata</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Autosome</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$40:$E$40</c:f>
+              <c:f>Sheet1!$B$29:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.88793103448275867</c:v>
+                  <c:v>4.770755885997522E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50610432852386233</c:v>
+                  <c:v>0.41176470588235292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85964912280701755</c:v>
+                  <c:v>3.5087719298245612E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89801734820322177</c:v>
+                  <c:v>2.5862068965517241E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A836-BE44-9A49-1B41CF916F49}"/>
+              <c16:uniqueId val="{00000002-3FA8-034C-A065-5A3220B1C454}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -985,11 +981,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1607823471"/>
-        <c:axId val="1459454271"/>
+        <c:axId val="1697676015"/>
+        <c:axId val="1654523663"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1607823471"/>
+        <c:axId val="1697676015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,7 +1028,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1459454271"/>
+        <c:crossAx val="1654523663"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1040,7 +1036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1459454271"/>
+        <c:axId val="1654523663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,6 +1056,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Proportion</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1091,7 +1147,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1607823471"/>
+        <c:crossAx val="1697676015"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1109,10 +1165,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.75695341207349076"/>
-          <c:y val="0.45246427529892097"/>
-          <c:w val="0.21254897175103205"/>
-          <c:h val="0.23564808519575034"/>
+          <c:x val="0.79925336906209599"/>
+          <c:y val="0.38887425514836882"/>
+          <c:w val="0.20074663093790412"/>
+          <c:h val="0.22225148970326231"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1202,77 +1258,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Water</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> agar: A1/A2</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.4199929537110391E-2"/>
-          <c:y val="0.15308232224360757"/>
-          <c:w val="0.71851782183962754"/>
-          <c:h val="0.74571378222843132"/>
+          <c:x val="0.13014000239135118"/>
+          <c:y val="8.4462845921506158E-2"/>
+          <c:w val="0.69949054158687429"/>
+          <c:h val="0.81800645662764349"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1284,18 +1280,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$49</c:f>
+              <c:f>Sheet1!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>up-regulated in A1</c:v>
+                  <c:v>no difference</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="00B0F0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1305,48 +1301,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$48:$E$48</c:f>
+              <c:f>Sheet1!$B$42:$E$42</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>PAR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Black stratum</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Color stratum</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Autosome</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$54:$E$54</c:f>
+              <c:f>Sheet1!$B$43:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.2258064516129031E-2</c:v>
+                  <c:v>0.97704685281590153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29201101928374656</c:v>
+                  <c:v>0.36914600550964188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10526315789473684</c:v>
+                  <c:v>0.78947368421052633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9919545669663991E-3</c:v>
+                  <c:v>0.95161290322580649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A484-0549-A7F5-B02E69C2D752}"/>
+              <c16:uniqueId val="{00000000-0E5D-E24C-8149-2088070377EC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1355,18 +1351,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$50</c:f>
+              <c:f>Sheet1!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>up-regulated in A2</c:v>
+                  <c:v>A2 upregulated</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1376,32 +1372,32 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$48:$E$48</c:f>
+              <c:f>Sheet1!$B$42:$E$42</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>PAR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Black stratum</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Color stratum</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Autosome</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$55:$E$55</c:f>
+              <c:f>Sheet1!$B$44:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.6129032258064516E-2</c:v>
+                  <c:v>1.3961192617132039E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.33884297520661155</c:v>
@@ -1410,14 +1406,14 @@
                   <c:v>0.10526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3961192617132039E-2</c:v>
+                  <c:v>1.6129032258064516E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A484-0549-A7F5-B02E69C2D752}"/>
+              <c16:uniqueId val="{00000001-0E5D-E24C-8149-2088070377EC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1426,18 +1422,18 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$51</c:f>
+              <c:f>Sheet1!$A$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>non-DE</c:v>
+                  <c:v>A1 upregulated</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="FF7E79"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1447,48 +1443,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$48:$E$48</c:f>
+              <c:f>Sheet1!$B$42:$E$42</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>PAR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Black stratum</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Color stratum</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Autosome</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$56:$E$56</c:f>
+              <c:f>Sheet1!$B$45:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.95161290322580649</c:v>
+                  <c:v>8.9919545669663991E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36914600550964188</c:v>
+                  <c:v>0.29201101928374656</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78947368421052633</c:v>
+                  <c:v>0.10526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97704685281590153</c:v>
+                  <c:v>3.2258064516129031E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A484-0549-A7F5-B02E69C2D752}"/>
+              <c16:uniqueId val="{00000002-0E5D-E24C-8149-2088070377EC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1502,11 +1498,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1653888735"/>
-        <c:axId val="1652671503"/>
+        <c:axId val="1660223567"/>
+        <c:axId val="1660150575"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1653888735"/>
+        <c:axId val="1660223567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1549,7 +1545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1652671503"/>
+        <c:crossAx val="1660150575"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1557,7 +1553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1652671503"/>
+        <c:axId val="1660150575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1577,6 +1573,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Proportion</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1608,7 +1659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1653888735"/>
+        <c:crossAx val="1660223567"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1626,10 +1677,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.79790139670493054"/>
-          <c:y val="0.44648149019642869"/>
-          <c:w val="0.20209860329506923"/>
-          <c:h val="0.22085627829439602"/>
+          <c:x val="0.82225914585423665"/>
+          <c:y val="0.44842378041110015"/>
+          <c:w val="0.17774085414576332"/>
+          <c:h val="0.21284029380568942"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1719,72 +1770,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>rich medium: A1/A2</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.2206015537583971E-2"/>
-          <c:y val="0.15944661248611106"/>
-          <c:w val="0.72753466928020738"/>
-          <c:h val="0.73806280278273118"/>
+          <c:x val="0.13625859198511478"/>
+          <c:y val="5.4987528721907986E-2"/>
+          <c:w val="0.69185271044397723"/>
+          <c:h val="0.85534782859211611"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1796,18 +1792,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$70</c:f>
+              <c:f>Sheet1!$A$64</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>up-regulated in A1</c:v>
+                  <c:v>no difference</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="00B0F0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1817,48 +1813,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$69:$E$69</c:f>
+              <c:f>Sheet1!$B$63:$E$63</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>PAR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Black stratum</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Color stratum</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Autosome</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$75:$E$75</c:f>
+              <c:f>Sheet1!$B$64:$E$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.12844036697247707</c:v>
+                  <c:v>0.92441401106136423</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27120223671947807</c:v>
+                  <c:v>0.4147250698974837</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4545454545454543E-2</c:v>
+                  <c:v>0.87272727272727268</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3447458519884121E-2</c:v>
+                  <c:v>0.8165137614678899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F559-0840-B494-706F57B39963}"/>
+              <c16:uniqueId val="{00000000-287C-394A-BFBD-45B652FBFE52}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1867,18 +1863,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$71</c:f>
+              <c:f>Sheet1!$A$65</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>up-regulated in A2</c:v>
+                  <c:v>A2 upregulated</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1888,32 +1884,32 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$69:$E$69</c:f>
+              <c:f>Sheet1!$B$63:$E$63</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>PAR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Black stratum</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Color stratum</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Autosome</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$76:$E$76</c:f>
+              <c:f>Sheet1!$B$65:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.5045871559633031E-2</c:v>
+                  <c:v>4.2138530418751645E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.31407269338303823</c:v>
@@ -1922,14 +1918,14 @@
                   <c:v>7.2727272727272724E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2138530418751645E-2</c:v>
+                  <c:v>5.5045871559633031E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F559-0840-B494-706F57B39963}"/>
+              <c16:uniqueId val="{00000001-287C-394A-BFBD-45B652FBFE52}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1938,18 +1934,18 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$72</c:f>
+              <c:f>Sheet1!$A$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>non-DE</c:v>
+                  <c:v>A1 upregulated</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="FF7E79"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1959,48 +1955,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$69:$E$69</c:f>
+              <c:f>Sheet1!$B$63:$E$63</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>PAR</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Black stratum</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Color stratum</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Autosome</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$77:$E$77</c:f>
+              <c:f>Sheet1!$B$66:$E$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.8165137614678899</c:v>
+                  <c:v>3.3447458519884121E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4147250698974837</c:v>
+                  <c:v>0.27120223671947807</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87272727272727268</c:v>
+                  <c:v>5.4545454545454543E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92441401106136423</c:v>
+                  <c:v>0.12844036697247707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F559-0840-B494-706F57B39963}"/>
+              <c16:uniqueId val="{00000002-287C-394A-BFBD-45B652FBFE52}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2014,11 +2010,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1580511551"/>
-        <c:axId val="1608335327"/>
+        <c:axId val="1696902399"/>
+        <c:axId val="1702322159"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1580511551"/>
+        <c:axId val="1696902399"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,7 +2057,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1608335327"/>
+        <c:crossAx val="1702322159"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2069,7 +2065,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1608335327"/>
+        <c:axId val="1702322159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,6 +2085,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Proportion</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2120,7 +2171,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1580511551"/>
+        <c:crossAx val="1696902399"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2138,10 +2189,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80268723484767135"/>
-          <c:y val="0.4458008909804751"/>
-          <c:w val="0.1973127651523286"/>
-          <c:h val="0.223664207645901"/>
+          <c:x val="0.82067417107705476"/>
+          <c:y val="0.44811005765530648"/>
+          <c:w val="0.1793258289229453"/>
+          <c:h val="0.21413562502435471"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4401,23 +4452,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>249432</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>3471</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>432166</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>149659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>274101</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>137051</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>472367</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>78758</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3F11E6-F7F0-F24C-BD00-C30BB4068DAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6D3635-3D0C-2F44-ACAD-8FE1189CA69E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4437,23 +4488,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>116950</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>127912</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>377345</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>411151</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>42210</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142715</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{326F52F9-5C6F-8345-A062-20F3E19C8AE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F0C48D-3778-1046-A44F-E9C7010E83F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4473,23 +4524,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>43856</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>12607</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304251</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>383741</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>109640</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>118776</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>82230</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0870F8E0-27B0-4A4C-BF8C-FE46336BFA63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{304CA330-C72B-EF45-AA62-ECE3E3A1965B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4510,22 +4561,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>774791</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>30882</xdr:rowOff>
+      <xdr:colOff>550941</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85702</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>420288</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>91367</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>319783</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>73093</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31618DED-7748-7246-81C2-2C69B36F966C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5464EDE-D19B-B143-A5D2-9A9008907B59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4843,572 +4894,670 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1271BB-1DDE-844A-AE1D-E6F19A1F32CF}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="O62" sqref="O62"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>217</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>328</v>
+      <c r="B2" s="5">
+        <v>7505</v>
+      </c>
+      <c r="C2" s="5">
+        <v>456</v>
+      </c>
+      <c r="D2" s="5">
+        <v>51</v>
+      </c>
+      <c r="E2" s="5">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
+        <v>562</v>
+      </c>
+      <c r="C3" s="5">
+        <v>60</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
         <v>11</v>
-      </c>
-      <c r="C3" s="1">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>101</v>
-      </c>
-      <c r="C4" s="1">
-        <v>456</v>
-      </c>
-      <c r="D4" s="1">
-        <v>51</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7505</v>
+      <c r="B4" s="5">
+        <v>328</v>
+      </c>
+      <c r="C4" s="5">
+        <v>217</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(B2:B4)</f>
+        <v>8395</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" ref="C5:E5" si="0">SUM(C2:C4)</f>
+        <v>733</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <f>B2/SUM(B2:B4)</f>
-        <v>2.6086956521739129E-2</v>
-      </c>
-      <c r="C7" s="1">
-        <f>C2/SUM(C2:C4)</f>
-        <v>0.296043656207367</v>
-      </c>
-      <c r="D7" s="1">
-        <f>D2/SUM(D2:D4)</f>
-        <v>5.1724137931034482E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <f>E2/SUM(E2:E4)</f>
-        <v>3.9070875521143536E-2</v>
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5">
+        <f>B2/B5</f>
+        <v>0.89398451459201911</v>
+      </c>
+      <c r="C7" s="5">
+        <f>C2/C5</f>
+        <v>0.6221009549795361</v>
+      </c>
+      <c r="D7" s="5">
+        <f>D2/D5</f>
+        <v>0.87931034482758619</v>
+      </c>
+      <c r="E7" s="5">
+        <f>E2/E5</f>
+        <v>0.87826086956521743</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="1">
-        <f>B3/SUM(B2:B4)</f>
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <f>B3/B5</f>
+        <v>6.6944609886837397E-2</v>
+      </c>
+      <c r="C8" s="5">
+        <f>C3/C5</f>
+        <v>8.1855388813096869E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <f>D3/D5</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="E8" s="5">
+        <f>E3/E5</f>
         <v>9.5652173913043481E-2</v>
-      </c>
-      <c r="C8" s="1">
-        <f>C3/SUM(C2:C4)</f>
-        <v>8.1855388813096869E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <f>D3/SUM(D2:D4)</f>
-        <v>6.8965517241379309E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <f>E3/SUM(E2:E4)</f>
-        <v>6.6944609886837397E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <f>B4/SUM(B2:B4)</f>
-        <v>0.87826086956521743</v>
-      </c>
-      <c r="C9" s="1">
-        <f>C4/SUM(C2:C4)</f>
-        <v>0.6221009549795361</v>
-      </c>
-      <c r="D9" s="1">
-        <f>D4/SUM(D2:D4)</f>
-        <v>0.87931034482758619</v>
-      </c>
-      <c r="E9" s="1">
-        <f>E4/SUM(E2:E4)</f>
-        <v>0.89398451459201911</v>
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <f>B4/B5</f>
+        <v>3.9070875521143536E-2</v>
+      </c>
+      <c r="C9" s="5">
+        <f>C4/C5</f>
+        <v>0.296043656207367</v>
+      </c>
+      <c r="D9" s="5">
+        <f>D4/D5</f>
+        <v>5.1724137931034482E-2</v>
+      </c>
+      <c r="E9" s="5">
+        <f>E4/E5</f>
+        <v>2.6086956521739129E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="3" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="7">
+        <v>7247</v>
+      </c>
+      <c r="C22" s="7">
+        <v>456</v>
+      </c>
+      <c r="D22" s="7">
+        <v>49</v>
+      </c>
+      <c r="E22" s="7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="7">
+        <v>438</v>
+      </c>
+      <c r="C23" s="7">
+        <v>74</v>
+      </c>
+      <c r="D23" s="7">
+        <v>6</v>
+      </c>
+      <c r="E23" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="7">
+        <v>385</v>
+      </c>
+      <c r="C24" s="7">
+        <v>371</v>
+      </c>
+      <c r="D24" s="7">
         <v>2</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E24" s="7">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="7">
+        <f>SUM(B22:B24)</f>
+        <v>8070</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" ref="C25:E25" si="1">SUM(C22:C24)</f>
+        <v>901</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="3">
-        <v>3</v>
-      </c>
-      <c r="C33" s="3">
-        <v>371</v>
-      </c>
-      <c r="D33" s="3">
-        <v>2</v>
-      </c>
-      <c r="E33" s="3">
-        <v>385</v>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <f>B22/B25</f>
+        <v>0.89801734820322177</v>
+      </c>
+      <c r="C27">
+        <f>C22/C25</f>
+        <v>0.50610432852386233</v>
+      </c>
+      <c r="D27">
+        <f>D22/D25</f>
+        <v>0.85964912280701755</v>
+      </c>
+      <c r="E27">
+        <f>E22/E25</f>
+        <v>0.88793103448275867</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <f>B23/B25</f>
+        <v>5.4275092936802972E-2</v>
+      </c>
+      <c r="C28">
+        <f>C23/C25</f>
+        <v>8.2130965593784688E-2</v>
+      </c>
+      <c r="D28">
+        <f>D23/D25</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="E28">
+        <f>E23/E25</f>
+        <v>8.6206896551724144E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="3">
-        <v>10</v>
-      </c>
-      <c r="C34" s="3">
-        <v>74</v>
-      </c>
-      <c r="D34" s="3">
-        <v>6</v>
-      </c>
-      <c r="E34" s="3">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="3">
-        <v>103</v>
-      </c>
-      <c r="C35" s="3">
-        <v>456</v>
-      </c>
-      <c r="D35" s="3">
-        <v>49</v>
-      </c>
-      <c r="E35" s="3">
-        <v>7247</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3">
-        <f>SUM(C33:C35)</f>
-        <v>901</v>
-      </c>
-      <c r="D36" s="3">
-        <f t="shared" ref="D36:E36" si="0">SUM(D33:D35)</f>
-        <v>57</v>
-      </c>
-      <c r="E36" s="3">
-        <f t="shared" si="0"/>
-        <v>8070</v>
+      <c r="B29">
+        <f>B24/B25</f>
+        <v>4.770755885997522E-2</v>
+      </c>
+      <c r="C29">
+        <f>C24/C25</f>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="D29">
+        <f>D24/D25</f>
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29" si="2">E24/E25</f>
+        <v>2.5862068965517241E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="A37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <f>B33/SUM(B33:B35)</f>
-        <v>2.5862068965517241E-2</v>
-      </c>
-      <c r="C38">
-        <f>C33/SUM(C33:C35)</f>
-        <v>0.41176470588235292</v>
-      </c>
-      <c r="D38">
-        <f>D33/D36</f>
-        <v>3.5087719298245612E-2</v>
-      </c>
-      <c r="E38">
-        <f>E33/E36</f>
-        <v>4.770755885997522E-2</v>
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2">
+        <v>8258</v>
+      </c>
+      <c r="C38" s="2">
+        <v>402</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45</v>
+      </c>
+      <c r="E38" s="2">
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <f>B34/SUM(B33:B35)</f>
-        <v>8.6206896551724144E-2</v>
-      </c>
-      <c r="C39">
-        <f>C34/C36</f>
-        <v>8.2130965593784688E-2</v>
-      </c>
-      <c r="D39">
-        <f>D34/D36</f>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="E39">
-        <f>E34/E36</f>
-        <v>5.4275092936802972E-2</v>
+      <c r="A39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="2">
+        <v>118</v>
+      </c>
+      <c r="C39" s="2">
+        <v>369</v>
+      </c>
+      <c r="D39" s="2">
+        <v>6</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <f>B35/SUM(B33:B35)</f>
-        <v>0.88793103448275867</v>
-      </c>
-      <c r="C40">
-        <f>C35/C36</f>
-        <v>0.50610432852386233</v>
-      </c>
-      <c r="D40">
-        <f>D35/D36</f>
-        <v>0.85964912280701755</v>
-      </c>
-      <c r="E40">
-        <f>E35/E36</f>
-        <v>0.89801734820322177</v>
+      <c r="A40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="2">
+        <v>76</v>
+      </c>
+      <c r="C40" s="2">
+        <v>318</v>
+      </c>
+      <c r="D40" s="2">
+        <v>6</v>
+      </c>
+      <c r="E40" s="2">
+        <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <f>SUM(B38:B40)</f>
+        <v>8452</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:E41" si="3">SUM(C38:C40)</f>
+        <v>1089</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <f>B38/B41</f>
+        <v>0.97704685281590153</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:E43" si="4">C38/C41</f>
+        <v>0.36914600550964188</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="4"/>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="4"/>
+        <v>0.95161290322580649</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <f>B39/B41</f>
+        <v>1.3961192617132039E-2</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44:E44" si="5">C39/C41</f>
+        <v>0.33884297520661155</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="5"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="5"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <f>B40/B41</f>
+        <v>8.9919545669663991E-3</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:E45" si="6">C40/C41</f>
+        <v>0.29201101928374656</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="6"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="6"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="3" t="s">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="3">
+        <v>7020</v>
+      </c>
+      <c r="C59" s="3">
+        <v>445</v>
+      </c>
+      <c r="D59" s="3">
+        <v>48</v>
+      </c>
+      <c r="E59" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="3">
+        <v>320</v>
+      </c>
+      <c r="C60" s="3">
+        <v>337</v>
+      </c>
+      <c r="D60" s="3">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="3">
+        <v>254</v>
+      </c>
+      <c r="C61" s="3">
+        <v>291</v>
+      </c>
+      <c r="D61" s="3">
         <v>3</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E61" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <f>SUM(B59:B61)</f>
+        <v>7594</v>
+      </c>
+      <c r="C62">
+        <f>SUM(C59:C61)</f>
+        <v>1073</v>
+      </c>
+      <c r="D62">
+        <f>SUM(D59:D61)</f>
+        <v>55</v>
+      </c>
+      <c r="E62">
+        <f>SUM(E59:E61)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D63" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="3">
-        <v>4</v>
-      </c>
-      <c r="C49" s="3">
-        <v>318</v>
-      </c>
-      <c r="D49" s="3">
-        <v>6</v>
-      </c>
-      <c r="E49" s="3">
-        <v>76</v>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <f>B59/B62</f>
+        <v>0.92441401106136423</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ref="C64:E64" si="7">C59/C62</f>
+        <v>0.4147250698974837</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="7"/>
+        <v>0.87272727272727268</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="7"/>
+        <v>0.8165137614678899</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="3">
-        <v>2</v>
-      </c>
-      <c r="C50" s="3">
-        <v>369</v>
-      </c>
-      <c r="D50" s="3">
-        <v>6</v>
-      </c>
-      <c r="E50" s="3">
-        <v>118</v>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <f>B60/B62</f>
+        <v>4.2138530418751645E-2</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ref="C65:E65" si="8">C60/C62</f>
+        <v>0.31407269338303823</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="8"/>
+        <v>7.2727272727272724E-2</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="8"/>
+        <v>5.5045871559633031E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="3">
-        <v>118</v>
-      </c>
-      <c r="C51" s="3">
-        <v>402</v>
-      </c>
-      <c r="D51" s="3">
-        <v>45</v>
-      </c>
-      <c r="E51" s="3">
-        <v>8258</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B52">
-        <f>SUM(B49:B51)</f>
-        <v>124</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ref="C52:E52" si="1">SUM(C49:C51)</f>
-        <v>1089</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="1"/>
-        <v>8452</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B54">
-        <f>B49/B52</f>
-        <v>3.2258064516129031E-2</v>
-      </c>
-      <c r="C54">
-        <f>C49/C52</f>
-        <v>0.29201101928374656</v>
-      </c>
-      <c r="D54">
-        <f>D49/D52</f>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="E54">
-        <f>E49/E52</f>
-        <v>8.9919545669663991E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B55">
-        <f>B50/B52</f>
-        <v>1.6129032258064516E-2</v>
-      </c>
-      <c r="C55">
-        <f>C50/C52</f>
-        <v>0.33884297520661155</v>
-      </c>
-      <c r="D55">
-        <f>D50/D52</f>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="E55">
-        <f>E50/E52</f>
-        <v>1.3961192617132039E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B56">
-        <f>B51/B52</f>
-        <v>0.95161290322580649</v>
-      </c>
-      <c r="C56">
-        <f>C51/C52</f>
-        <v>0.36914600550964188</v>
-      </c>
-      <c r="D56">
-        <f>D51/D52</f>
-        <v>0.78947368421052633</v>
-      </c>
-      <c r="E56">
-        <f>E51/E52</f>
-        <v>0.97704685281590153</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" s="4">
-        <v>14</v>
-      </c>
-      <c r="C70" s="4">
-        <v>291</v>
-      </c>
-      <c r="D70" s="4">
-        <v>3</v>
-      </c>
-      <c r="E70" s="4">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="4">
-        <v>6</v>
-      </c>
-      <c r="C71" s="4">
-        <v>337</v>
-      </c>
-      <c r="D71" s="4">
-        <v>4</v>
-      </c>
-      <c r="E71" s="4">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="4">
-        <v>89</v>
-      </c>
-      <c r="C72" s="4">
-        <v>445</v>
-      </c>
-      <c r="D72" s="4">
-        <v>48</v>
-      </c>
-      <c r="E72" s="4">
-        <v>7020</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B73">
-        <f>SUM(B70:B72)</f>
-        <v>109</v>
-      </c>
-      <c r="C73">
-        <f t="shared" ref="C73:E73" si="2">SUM(C70:C72)</f>
-        <v>1073</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="2"/>
-        <v>7594</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B75">
-        <f>B70/B73</f>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66">
+        <f>B61/B62</f>
+        <v>3.3447458519884121E-2</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:E66" si="9">C61/C62</f>
+        <v>0.27120223671947807</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="9"/>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="9"/>
         <v>0.12844036697247707</v>
-      </c>
-      <c r="C75">
-        <f>C70/C73</f>
-        <v>0.27120223671947807</v>
-      </c>
-      <c r="D75">
-        <f>D70/D73</f>
-        <v>5.4545454545454543E-2</v>
-      </c>
-      <c r="E75">
-        <f>E70/E73</f>
-        <v>3.3447458519884121E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B76">
-        <f>B71/B73</f>
-        <v>5.5045871559633031E-2</v>
-      </c>
-      <c r="C76">
-        <f>C71/C73</f>
-        <v>0.31407269338303823</v>
-      </c>
-      <c r="D76">
-        <f>D71/D73</f>
-        <v>7.2727272727272724E-2</v>
-      </c>
-      <c r="E76">
-        <f>E71/E73</f>
-        <v>4.2138530418751645E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B77">
-        <f>B72/B73</f>
-        <v>0.8165137614678899</v>
-      </c>
-      <c r="C77">
-        <f>C72/C73</f>
-        <v>0.4147250698974837</v>
-      </c>
-      <c r="D77">
-        <f>D72/D73</f>
-        <v>0.87272727272727268</v>
-      </c>
-      <c r="E77">
-        <f>E72/E73</f>
-        <v>0.92441401106136423</v>
       </c>
     </row>
   </sheetData>

--- a/output/figures/compare_toTG_figure.xlsx
+++ b/output/figures/compare_toTG_figure.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wen-Juan/Dropbox (Amherst College)/Amherst_postdoc/github/Haploidselection_and_dosagecompensation_in_Microbotryum/output/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E363C8D-FBE4-1A47-848B-481E339AC612}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDE915C-AC0C-2248-8942-ABAE1A6264FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="460" windowWidth="39560" windowHeight="22060" xr2:uid="{B92DAFF7-4BCD-7E45-93A6-B01617244326}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -572,7 +572,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Proportion</a:t>
+                  <a:t>Percentage</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1077,7 +1077,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Proportion</a:t>
+                  <a:t>Percentage</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -1594,7 +1594,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Proportion</a:t>
+                  <a:t>Percentage</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2106,7 +2106,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Proportion</a:t>
+                  <a:t>Percentage</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4896,8 +4896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1271BB-1DDE-844A-AE1D-E6F19A1F32CF}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/output/figures/compare_toTG_figure.xlsx
+++ b/output/figures/compare_toTG_figure.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wen-Juan/Dropbox (Amherst College)/Amherst_postdoc/github/Haploidselection_and_dosagecompensation_in_Microbotryum/output/figures/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDE915C-AC0C-2248-8942-ABAE1A6264FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="39560" windowHeight="22060" xr2:uid="{B92DAFF7-4BCD-7E45-93A6-B01617244326}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28160" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcCompleted="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="21">
   <si>
     <t>category</t>
   </si>
@@ -62,12 +59,39 @@
   <si>
     <t>total</t>
   </si>
+  <si>
+    <t>category </t>
+  </si>
+  <si>
+    <t>(Mintermedium vs MvSl_A2)</t>
+  </si>
+  <si>
+    <t>Hemizygous</t>
+  </si>
+  <si>
+    <t>total gene (MvSl_A1)</t>
+  </si>
+  <si>
+    <t>single-copy ortholog</t>
+  </si>
+  <si>
+    <t>orthologs with paralogs (more than one copy)</t>
+  </si>
+  <si>
+    <t>gene loss (only in M.intermedium)</t>
+  </si>
+  <si>
+    <t>gene gain (only in M.intermedium)</t>
+  </si>
+  <si>
+    <t>Not listed in orthologs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,6 +114,28 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Light"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,10 +154,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -128,14 +186,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF800080"/>
       <color rgb="FFFF7E79"/>
       <color rgb="FFFF006B"/>
       <color rgb="FFFF2C79"/>
@@ -154,7 +237,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -174,10 +257,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15602559055118109"/>
-          <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.62545581802274719"/>
-          <c:h val="0.74357247010790317"/>
+          <c:x val="0.156025590551181"/>
+          <c:y val="0.0509259259259259"/>
+          <c:w val="0.625455818022747"/>
+          <c:h val="0.743572470107903"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -235,21 +318,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.89398451459201911</c:v>
+                  <c:v>0.893984514592019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6221009549795361</c:v>
+                  <c:v>0.622100954979536</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87931034482758619</c:v>
+                  <c:v>0.879310344827586</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87826086956521743</c:v>
+                  <c:v>0.878260869565217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0407-9F48-ACE5-B931C9FF9E62}"/>
             </c:ext>
@@ -306,21 +389,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.6944609886837397E-2</c:v>
+                  <c:v>0.0669446098868374</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1855388813096869E-2</c:v>
+                  <c:v>0.0818553888130969</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8965517241379309E-2</c:v>
+                  <c:v>0.0689655172413793</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5652173913043481E-2</c:v>
+                  <c:v>0.0956521739130435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0407-9F48-ACE5-B931C9FF9E62}"/>
             </c:ext>
@@ -377,21 +460,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.9070875521143536E-2</c:v>
+                  <c:v>0.0390708755211435</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.296043656207367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1724137931034482E-2</c:v>
+                  <c:v>0.0517241379310345</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6086956521739129E-2</c:v>
+                  <c:v>0.0260869565217391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0407-9F48-ACE5-B931C9FF9E62}"/>
             </c:ext>
@@ -407,11 +490,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="1697518447"/>
-        <c:axId val="1655231215"/>
+        <c:axId val="-2088463768"/>
+        <c:axId val="-2088177304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1697518447"/>
+        <c:axId val="-2088463768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -443,6 +526,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -451,26 +535,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -509,7 +573,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1655231215"/>
+        <c:crossAx val="-2088177304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -517,7 +581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1655231215"/>
+        <c:axId val="-2088177304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -577,6 +641,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -585,26 +650,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -640,7 +685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1697518447"/>
+        <c:crossAx val="-2088463768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -654,6 +699,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -685,14 +731,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -728,7 +774,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -748,10 +794,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14281290864973087"/>
-          <c:y val="5.7071588028171451E-2"/>
-          <c:w val="0.66664791281710412"/>
-          <c:h val="0.80163976247710744"/>
+          <c:x val="0.142812908649731"/>
+          <c:y val="0.0570715880281714"/>
+          <c:w val="0.666647912817104"/>
+          <c:h val="0.801639762477108"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -809,21 +855,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.89801734820322177</c:v>
+                  <c:v>0.898017348203222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50610432852386233</c:v>
+                  <c:v>0.506104328523862</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85964912280701755</c:v>
+                  <c:v>0.859649122807017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88793103448275867</c:v>
+                  <c:v>0.887931034482759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3FA8-034C-A065-5A3220B1C454}"/>
             </c:ext>
@@ -880,21 +926,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.4275092936802972E-2</c:v>
+                  <c:v>0.054275092936803</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2130965593784688E-2</c:v>
+                  <c:v>0.0821309655937847</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10526315789473684</c:v>
+                  <c:v>0.105263157894737</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6206896551724144E-2</c:v>
+                  <c:v>0.0862068965517241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3FA8-034C-A065-5A3220B1C454}"/>
             </c:ext>
@@ -951,21 +997,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.770755885997522E-2</c:v>
+                  <c:v>0.0477075588599752</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41176470588235292</c:v>
+                  <c:v>0.411764705882353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5087719298245612E-2</c:v>
+                  <c:v>0.0350877192982456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5862068965517241E-2</c:v>
+                  <c:v>0.0258620689655172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3FA8-034C-A065-5A3220B1C454}"/>
             </c:ext>
@@ -981,11 +1027,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1697676015"/>
-        <c:axId val="1654523663"/>
+        <c:axId val="-2088026408"/>
+        <c:axId val="-2088462520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1697676015"/>
+        <c:axId val="-2088026408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,7 +1074,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1654523663"/>
+        <c:crossAx val="-2088462520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1036,7 +1082,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1654523663"/>
+        <c:axId val="-2088462520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1087,6 +1133,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1095,26 +1142,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1147,7 +1174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1697676015"/>
+        <c:crossAx val="-2088026408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1165,10 +1192,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.79925336906209599"/>
-          <c:y val="0.38887425514836882"/>
-          <c:w val="0.20074663093790412"/>
-          <c:h val="0.22225148970326231"/>
+          <c:x val="0.799253369062096"/>
+          <c:y val="0.388874255148369"/>
+          <c:w val="0.200746630937904"/>
+          <c:h val="0.222251489703262"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1202,14 +1229,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1245,7 +1272,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1265,10 +1292,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13014000239135118"/>
-          <c:y val="8.4462845921506158E-2"/>
-          <c:w val="0.69949054158687429"/>
-          <c:h val="0.81800645662764349"/>
+          <c:x val="0.130140002391351"/>
+          <c:y val="0.0844628459215062"/>
+          <c:w val="0.699490541586874"/>
+          <c:h val="0.818006456627644"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1326,21 +1353,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.97704685281590153</c:v>
+                  <c:v>0.977046852815902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36914600550964188</c:v>
+                  <c:v>0.369146005509642</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78947368421052633</c:v>
+                  <c:v>0.789473684210526</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95161290322580649</c:v>
+                  <c:v>0.951612903225806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0E5D-E24C-8149-2088070377EC}"/>
             </c:ext>
@@ -1397,21 +1424,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.3961192617132039E-2</c:v>
+                  <c:v>0.013961192617132</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33884297520661155</c:v>
+                  <c:v>0.338842975206611</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10526315789473684</c:v>
+                  <c:v>0.105263157894737</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6129032258064516E-2</c:v>
+                  <c:v>0.0161290322580645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0E5D-E24C-8149-2088070377EC}"/>
             </c:ext>
@@ -1468,21 +1495,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.9919545669663991E-3</c:v>
+                  <c:v>0.0089919545669664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29201101928374656</c:v>
+                  <c:v>0.292011019283747</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10526315789473684</c:v>
+                  <c:v>0.105263157894737</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2258064516129031E-2</c:v>
+                  <c:v>0.032258064516129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0E5D-E24C-8149-2088070377EC}"/>
             </c:ext>
@@ -1498,11 +1525,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1660223567"/>
-        <c:axId val="1660150575"/>
+        <c:axId val="2083446760"/>
+        <c:axId val="2083450296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1660223567"/>
+        <c:axId val="2083446760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,7 +1572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1660150575"/>
+        <c:crossAx val="2083450296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1553,7 +1580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1660150575"/>
+        <c:axId val="2083450296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1599,6 +1626,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1607,26 +1635,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1659,7 +1667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1660223567"/>
+        <c:crossAx val="2083446760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1677,10 +1685,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.82225914585423665"/>
-          <c:y val="0.44842378041110015"/>
-          <c:w val="0.17774085414576332"/>
-          <c:h val="0.21284029380568942"/>
+          <c:x val="0.822259145854236"/>
+          <c:y val="0.4484237804111"/>
+          <c:w val="0.177740854145763"/>
+          <c:h val="0.212840293805689"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1714,14 +1722,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1757,7 +1765,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1777,10 +1785,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13625859198511478"/>
-          <c:y val="5.4987528721907986E-2"/>
-          <c:w val="0.69185271044397723"/>
-          <c:h val="0.85534782859211611"/>
+          <c:x val="0.136258591985115"/>
+          <c:y val="0.054987528721908"/>
+          <c:w val="0.691852710443977"/>
+          <c:h val="0.855347828592116"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1838,21 +1846,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.92441401106136423</c:v>
+                  <c:v>0.924414011061364</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4147250698974837</c:v>
+                  <c:v>0.414725069897484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87272727272727268</c:v>
+                  <c:v>0.872727272727273</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8165137614678899</c:v>
+                  <c:v>0.81651376146789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-287C-394A-BFBD-45B652FBFE52}"/>
             </c:ext>
@@ -1909,21 +1917,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.2138530418751645E-2</c:v>
+                  <c:v>0.0421385304187516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31407269338303823</c:v>
+                  <c:v>0.314072693383038</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2727272727272724E-2</c:v>
+                  <c:v>0.0727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5045871559633031E-2</c:v>
+                  <c:v>0.055045871559633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-287C-394A-BFBD-45B652FBFE52}"/>
             </c:ext>
@@ -1980,21 +1988,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.3447458519884121E-2</c:v>
+                  <c:v>0.0334474585198841</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27120223671947807</c:v>
+                  <c:v>0.271202236719478</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4545454545454543E-2</c:v>
+                  <c:v>0.0545454545454545</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12844036697247707</c:v>
+                  <c:v>0.128440366972477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-287C-394A-BFBD-45B652FBFE52}"/>
             </c:ext>
@@ -2010,11 +2018,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1696902399"/>
-        <c:axId val="1702322159"/>
+        <c:axId val="2083496632"/>
+        <c:axId val="2083500168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1696902399"/>
+        <c:axId val="2083496632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2057,7 +2065,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1702322159"/>
+        <c:crossAx val="2083500168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2065,7 +2073,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1702322159"/>
+        <c:axId val="2083500168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2111,6 +2119,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2119,26 +2128,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2171,7 +2160,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1696902399"/>
+        <c:crossAx val="2083496632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2189,10 +2178,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.82067417107705476"/>
-          <c:y val="0.44811005765530648"/>
-          <c:w val="0.1793258289229453"/>
-          <c:h val="0.21413562502435471"/>
+          <c:x val="0.820674171077055"/>
+          <c:y val="0.448110057655306"/>
+          <c:w val="0.179325828922945"/>
+          <c:h val="0.214135625024355"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2226,14 +2215,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2263,6 +2252,470 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.129264996212306"/>
+          <c:y val="0.0524320313761345"/>
+          <c:w val="0.660966918530955"/>
+          <c:h val="0.781580973078614"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single-copy ortholog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$80:$F$81</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$82:$F$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.569076193134245</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.143106457242583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0319148936170213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.845070422535211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.525316455696203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>orthologs with paralogs (more than one copy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$80:$F$81</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$83:$F$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0215834031072658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.012216404886562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00425531914893617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gene loss (only in M.intermedium)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$80:$F$81</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$84:$F$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gene gain (only in M.intermedium)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF6600"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$80:$F$81</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$85:$F$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.384500883803144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.779232111692845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85531914893617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.112676056338028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.424050632911392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not listed in orthologs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$80:$F$81</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$86:$F$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0248395199553447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0776614310645724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.108510638297872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0422535211267606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0506329113924051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2122418136"/>
+        <c:axId val="2122420216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2122418136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2122420216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2122420216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>Percentage for each ortholog category</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2122418136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.783728483628593"/>
+          <c:y val="0.151917380049234"/>
+          <c:w val="0.21410370599985"/>
+          <c:h val="0.696164759413424"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4468,7 +4921,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6D3635-3D0C-2F44-ACAD-8FE1189CA69E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA6D3635-3D0C-2F44-ACAD-8FE1189CA69E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4504,7 +4957,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F0C48D-3778-1046-A44F-E9C7010E83F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98F0C48D-3778-1046-A44F-E9C7010E83F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4540,7 +4993,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{304CA330-C72B-EF45-AA62-ECE3E3A1965B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{304CA330-C72B-EF45-AA62-ECE3E3A1965B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4576,7 +5029,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5464EDE-D19B-B143-A5D2-9A9008907B59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5464EDE-D19B-B143-A5D2-9A9008907B59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4589,6 +5042,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>290548</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>137049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>392879</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>182733</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4640,7 +5123,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4692,7 +5175,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4886,30 +5369,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1271BB-1DDE-844A-AE1D-E6F19A1F32CF}">
-  <dimension ref="A1:E66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="L85" sqref="L85"/>
+    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="139" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
+      <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4926,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="B2" s="5">
         <v>7505</v>
       </c>
@@ -4940,7 +5424,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="B3" s="5">
         <v>562</v>
       </c>
@@ -4954,7 +5438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="B4" s="5">
         <v>328</v>
       </c>
@@ -4968,7 +5452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4989,7 +5473,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -5003,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -5024,7 +5508,7 @@
         <v>0.87826086956521743</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -5045,7 +5529,7 @@
         <v>9.5652173913043481E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -5066,7 +5550,7 @@
         <v>2.6086956521739129E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -5083,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -5100,7 +5584,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -5117,7 +5601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -5134,7 +5618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="7">
         <f>SUM(B22:B24)</f>
@@ -5153,7 +5637,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
         <v>3</v>
@@ -5168,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -5189,7 +5673,7 @@
         <v>0.88793103448275867</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -5210,7 +5694,7 @@
         <v>8.6206896551724144E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -5231,7 +5715,7 @@
         <v>2.5862068965517241E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
@@ -5248,7 +5732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -5265,7 +5749,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
         <v>10</v>
       </c>
@@ -5282,7 +5766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>9</v>
       </c>
@@ -5299,7 +5783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
         <v>11</v>
       </c>
@@ -5320,7 +5804,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="B42" s="4" t="s">
         <v>3</v>
       </c>
@@ -5334,7 +5818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -5355,7 +5839,7 @@
         <v>0.95161290322580649</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
@@ -5376,7 +5860,7 @@
         <v>1.6129032258064516E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
         <v>9</v>
       </c>
@@ -5397,7 +5881,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
         <v>0</v>
       </c>
@@ -5414,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -5431,7 +5915,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
         <v>10</v>
       </c>
@@ -5448,7 +5932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
         <v>9</v>
       </c>
@@ -5465,7 +5949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="B62">
         <f>SUM(B59:B61)</f>
         <v>7594</v>
@@ -5483,7 +5967,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5">
       <c r="B63" s="4" t="s">
         <v>3</v>
       </c>
@@ -5497,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -5518,7 +6002,7 @@
         <v>0.8165137614678899</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
@@ -5539,7 +6023,7 @@
         <v>5.5045871559633031E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
@@ -5560,8 +6044,350 @@
         <v>0.12844036697247707</v>
       </c>
     </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="7">
+        <v>10749</v>
+      </c>
+      <c r="C74" s="7">
+        <v>1146</v>
+      </c>
+      <c r="D74" s="7">
+        <v>470</v>
+      </c>
+      <c r="E74" s="7">
+        <v>71</v>
+      </c>
+      <c r="F74" s="7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="7">
+        <v>6117</v>
+      </c>
+      <c r="C75" s="7">
+        <v>164</v>
+      </c>
+      <c r="D75" s="7">
+        <v>15</v>
+      </c>
+      <c r="E75" s="7">
+        <v>60</v>
+      </c>
+      <c r="F75" s="7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="7">
+        <v>232</v>
+      </c>
+      <c r="C76" s="7">
+        <v>14</v>
+      </c>
+      <c r="D76" s="7">
+        <v>2</v>
+      </c>
+      <c r="E76" s="7">
+        <v>0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="7">
+        <v>0</v>
+      </c>
+      <c r="C77" s="7">
+        <v>0</v>
+      </c>
+      <c r="D77" s="7">
+        <v>0</v>
+      </c>
+      <c r="E77" s="7">
+        <v>0</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="7">
+        <v>4133</v>
+      </c>
+      <c r="C78" s="7">
+        <v>893</v>
+      </c>
+      <c r="D78" s="7">
+        <v>402</v>
+      </c>
+      <c r="E78" s="7">
+        <v>8</v>
+      </c>
+      <c r="F78" s="7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B79" s="7">
+        <v>267</v>
+      </c>
+      <c r="C79" s="7">
+        <v>89</v>
+      </c>
+      <c r="D79" s="7">
+        <v>51</v>
+      </c>
+      <c r="E79" s="7">
+        <v>3</v>
+      </c>
+      <c r="F79" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="11"/>
+      <c r="B80" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="11"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82">
+        <f>B75/B74</f>
+        <v>0.56907619313424507</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ref="C82:F82" si="10">C75/C74</f>
+        <v>0.14310645724258289</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="10"/>
+        <v>3.1914893617021274E-2</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="10"/>
+        <v>0.84507042253521125</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="10"/>
+        <v>0.52531645569620256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83">
+        <f>B76/B74</f>
+        <v>2.1583403107265791E-2</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ref="C83:F83" si="11">C76/C74</f>
+        <v>1.2216404886561954E-2</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="11"/>
+        <v>4.2553191489361703E-3</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85">
+        <f>B78/B74</f>
+        <v>0.38450088380314446</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ref="C85:F85" si="12">C78/C74</f>
+        <v>0.77923211169284468</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="12"/>
+        <v>0.85531914893617023</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="12"/>
+        <v>0.11267605633802817</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="12"/>
+        <v>0.42405063291139239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86">
+        <f>B79/B74</f>
+        <v>2.4839519955344683E-2</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ref="C86:F86" si="13">C79/C74</f>
+        <v>7.766143106457242E-2</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="13"/>
+        <v>0.10851063829787234</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="13"/>
+        <v>4.2253521126760563E-2</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="13"/>
+        <v>5.0632911392405063E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="8"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="8"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="8"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="8"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="8"/>
+    </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/output/figures/compare_toTG_figure.xlsx
+++ b/output/figures/compare_toTG_figure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="27">
   <si>
     <t>category</t>
   </si>
@@ -86,12 +86,30 @@
   <si>
     <t>Not listed in orthologs</t>
   </si>
+  <si>
+    <t>gene gain (only in M.lychnidis-dioicae)</t>
+  </si>
+  <si>
+    <t>total gene (MvSl_A2)</t>
+  </si>
+  <si>
+    <t>gene loss (genes only present in M.intermedium)</t>
+  </si>
+  <si>
+    <t>gene gain (genes only present only in M.lychinidis-dioicae)</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>centro</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,6 +137,17 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Light"/>
     </font>
     <font>
       <u/>
@@ -154,22 +183,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -186,10 +257,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -198,20 +275,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2500,7 +2625,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>gene gain (only in M.intermedium)</c:v>
+                  <c:v>gene gain (only in M.lychnidis-dioicae)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2697,6 +2822,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -2705,6 +2834,1378 @@
           <c:y val="0.151917380049234"/>
           <c:w val="0.21410370599985"/>
           <c:h val="0.696164759413424"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.124435802789308"/>
+          <c:y val="0.0585806845849327"/>
+          <c:w val="0.682303893179109"/>
+          <c:h val="0.773128072953608"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$108</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single-copy ortholog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$106:$F$107</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$108:$F$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.572618379187722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.101159793814433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02321083172147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.789473684210526</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.531645569620253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$109</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>orthologs with paralogs (more than one copy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$106:$F$107</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$109:$F$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0110424854950402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00837628865979381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gene loss (only in M.intermedium)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$106:$F$107</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$110:$F$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$111</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gene gain (only in M.lychnidis-dioicae)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF6600"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$106:$F$107</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$111:$F$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.384053902302077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.798969072164948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.899419729206963</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.157894736842105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.430379746835443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$112</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not listed in orthologs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$106:$F$107</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$112:$F$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.03228523301516</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0914948453608247</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0773694390715667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0526315789473684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0379746835443038</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$113</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$106:$F$107</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR Black stratum</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NRR Color strata</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$113:$F$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2100564728"/>
+        <c:axId val="2122647944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2100564728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2122647944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2122647944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1050" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Percentage of each ortholog category</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="500">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="500"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0164282214318634"/>
+              <c:y val="0.0697041579334957"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2100564728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.795930734469036"/>
+          <c:y val="0.128623277753315"/>
+          <c:w val="0.202007636792313"/>
+          <c:h val="0.724728288541584"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.146192475940507"/>
+          <c:y val="0.0601851851851852"/>
+          <c:w val="0.620799431321085"/>
+          <c:h val="0.822469378827647"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single-copy ortholog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$88:$F$89</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$90:$F$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.533118354540701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.191212871287129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>orthologs with paralogs (more than one copy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$88:$F$89</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$91:$F$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0202196269827436</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00866336633663366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gene loss (only in M.intermedium)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$88:$F$89</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$92:$F$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0631863343210737</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0612623762376237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$93</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gene gain (only in M.intermedium)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF6600"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$88:$F$89</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$93:$F$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.360205682412411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64789603960396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not listed in orthologs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$88:$F$89</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$94:$F$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0232700017430713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0934405940594059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2082968616"/>
+        <c:axId val="2082557448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2082968616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2082557448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2082557448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>Percentage of each ortholog category</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2082968616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.766991907261592"/>
+          <c:y val="0.127710338291047"/>
+          <c:w val="0.23023031496063"/>
+          <c:h val="0.744579323417906"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.137477261325714"/>
+          <c:y val="0.0609756097560975"/>
+          <c:w val="0.5969191004864"/>
+          <c:h val="0.820137832208122"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$117</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single-copy ortholog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$115:$F$116</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$117:$F$117</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.535955154594026</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.155797101449275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>orthologs with paralogs (more than one copy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="008000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$115:$F$116</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$118:$F$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0103354646579662</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0067287784679089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$119</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gene loss (only in M.intermedium)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$115:$F$116</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$119:$F$119</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0640273276692651</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0527950310559006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$120</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gene gain (only in M.lychnidis-dioicae)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF6600"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$115:$F$116</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$120:$F$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.359463957256722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.701345755693582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$121</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not listed in orthologs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$115:$F$116</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$121:$F$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0302180958220198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0833333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2064151720"/>
+        <c:axId val="-2036001368"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2064151720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2036001368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2036001368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Percentage of each ortholog category</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1100">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0360336429042142"/>
+              <c:y val="0.16647593023726"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2064151720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.726086112504635"/>
+          <c:y val="0.0993688230340813"/>
+          <c:w val="0.273913887495365"/>
+          <c:h val="0.754358038734839"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5049,16 +6550,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>290548</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>137049</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>741680</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>15129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>392879</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>182733</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>403039</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5072,6 +6573,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>545422</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>690880</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>538480</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5377,18 +6968,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="139" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="J94" sqref="J94"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116:C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
@@ -6002,7 +7593,7 @@
         <v>0.8165137614678899</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:9">
       <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
@@ -6023,7 +7614,7 @@
         <v>5.5045871559633031E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:9">
       <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
@@ -6044,38 +7635,48 @@
         <v>0.12844036697247707</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="9" t="s">
+    <row r="72" spans="1:9">
+      <c r="A72" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F72" s="14" t="s">
         <v>1</v>
       </c>
+      <c r="G72" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" s="15"/>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="9" t="s">
+    <row r="73" spans="1:9">
+      <c r="A73" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="9" t="s">
+    <row r="74" spans="1:9">
+      <c r="A74" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B74" s="7">
@@ -6093,9 +7694,19 @@
       <c r="F74" s="7">
         <v>158</v>
       </c>
+      <c r="G74" s="7">
+        <v>105</v>
+      </c>
+      <c r="H74" s="7">
+        <f>1517+99</f>
+        <v>1616</v>
+      </c>
+      <c r="I74" s="7">
+        <v>99</v>
+      </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="9" t="s">
+    <row r="75" spans="1:9">
+      <c r="A75" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B75" s="7">
@@ -6113,9 +7724,16 @@
       <c r="F75" s="7">
         <v>83</v>
       </c>
+      <c r="G75" s="7">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <f>SUM(C75,E75:G75)</f>
+        <v>309</v>
+      </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="9" t="s">
+    <row r="76" spans="1:9">
+      <c r="A76" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B76" s="7">
@@ -6133,13 +7751,19 @@
       <c r="F76" s="7">
         <v>0</v>
       </c>
+      <c r="G76" s="7">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>14</v>
+      </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="9" t="s">
+    <row r="77" spans="1:9">
+      <c r="A77" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B77" s="7">
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="C77" s="7">
         <v>0</v>
@@ -6153,9 +7777,16 @@
       <c r="F77" s="7">
         <v>0</v>
       </c>
+      <c r="G77" s="7">
+        <v>0</v>
+      </c>
+      <c r="H77" s="7">
+        <v>99</v>
+      </c>
+      <c r="I77" s="7"/>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="9" t="s">
+    <row r="78" spans="1:9">
+      <c r="A78" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B78" s="7">
@@ -6173,9 +7804,16 @@
       <c r="F78" s="7">
         <v>67</v>
       </c>
+      <c r="G78" s="7">
+        <v>79</v>
+      </c>
+      <c r="H78">
+        <f>C78+E78+F78+G78</f>
+        <v>1047</v>
+      </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="9" t="s">
+    <row r="79" spans="1:9">
+      <c r="A79" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B79" s="7">
@@ -6193,35 +7831,42 @@
       <c r="F79" s="7">
         <v>8</v>
       </c>
+      <c r="G79" s="7">
+        <v>24</v>
+      </c>
+      <c r="H79" s="7">
+        <f>SUM(C79:F79)</f>
+        <v>151</v>
+      </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="11"/>
-      <c r="B80" s="10" t="s">
+    <row r="80" spans="1:9">
+      <c r="A80" s="15"/>
+      <c r="B80" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F80" s="10" t="s">
+      <c r="F80" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="11"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B82">
@@ -6246,7 +7891,7 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B83">
@@ -6271,7 +7916,7 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B84">
@@ -6296,8 +7941,8 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="9" t="s">
-        <v>19</v>
+      <c r="A85" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="B85">
         <f>B78/B74</f>
@@ -6321,7 +7966,7 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B86">
@@ -6345,30 +7990,675 @@
         <v>5.0632911392405063E-2</v>
       </c>
     </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="11"/>
+      <c r="B87" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="88" spans="1:6">
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="16"/>
+      <c r="E88" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="8"/>
+      <c r="A89" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="7">
+        <f>10749+725</f>
+        <v>11474</v>
+      </c>
+      <c r="C89" s="7">
+        <v>1616</v>
+      </c>
+      <c r="E89" s="12"/>
+      <c r="F89" s="16"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="8"/>
+      <c r="A90" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" s="13">
+        <v>6117</v>
+      </c>
+      <c r="C90" s="17">
+        <v>309</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90">
+        <f>B90/B89</f>
+        <v>0.53311835454070067</v>
+      </c>
+      <c r="F90">
+        <f>C90/C89</f>
+        <v>0.19121287128712872</v>
+      </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="8"/>
+      <c r="A91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="13">
+        <v>232</v>
+      </c>
+      <c r="C91" s="17">
+        <v>14</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91">
+        <f>B91/B89</f>
+        <v>2.0219626982743596E-2</v>
+      </c>
+      <c r="F91">
+        <f>C91/C89</f>
+        <v>8.6633663366336641E-3</v>
+      </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="8"/>
+      <c r="A92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" s="13">
+        <v>725</v>
+      </c>
+      <c r="C92" s="17">
+        <v>99</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92">
+        <f>B92/B89</f>
+        <v>6.3186334321073734E-2</v>
+      </c>
+      <c r="F92">
+        <f>C92/C89</f>
+        <v>6.1262376237623761E-2</v>
+      </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="8"/>
+      <c r="A93" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" s="13">
+        <v>4133</v>
+      </c>
+      <c r="C93" s="17">
+        <v>1047</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93">
+        <f>B93/B89</f>
+        <v>0.36020568241241069</v>
+      </c>
+      <c r="F93">
+        <f>C93/C89</f>
+        <v>0.64789603960396036</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="13">
+        <v>267</v>
+      </c>
+      <c r="C94" s="17">
+        <v>151</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94">
+        <f>B94/B89</f>
+        <v>2.327000174307129E-2</v>
+      </c>
+      <c r="F94">
+        <f>C94/C89</f>
+        <v>9.344059405940594E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="11"/>
+      <c r="B95" s="17"/>
+      <c r="C95">
+        <f>SUM(C90:C94)</f>
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" t="s">
+        <v>26</v>
+      </c>
+      <c r="H99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" s="10">
+        <v>10686</v>
+      </c>
+      <c r="C100" s="10">
+        <v>1552</v>
+      </c>
+      <c r="D100" s="10">
+        <v>517</v>
+      </c>
+      <c r="E100" s="10">
+        <v>76</v>
+      </c>
+      <c r="F100" s="10">
+        <v>158</v>
+      </c>
+      <c r="G100" s="10">
+        <v>44</v>
+      </c>
+      <c r="H100" s="10"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="10">
+        <v>6119</v>
+      </c>
+      <c r="C101" s="10">
+        <v>157</v>
+      </c>
+      <c r="D101" s="10">
+        <v>12</v>
+      </c>
+      <c r="E101" s="10">
+        <v>60</v>
+      </c>
+      <c r="F101" s="10">
+        <v>84</v>
+      </c>
+      <c r="G101" s="10">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <f>SUM(C101,E101,F101)</f>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" s="10">
+        <v>118</v>
+      </c>
+      <c r="C102" s="10">
+        <v>13</v>
+      </c>
+      <c r="D102" s="10">
+        <v>0</v>
+      </c>
+      <c r="E102" s="10">
+        <v>0</v>
+      </c>
+      <c r="F102" s="10">
+        <v>0</v>
+      </c>
+      <c r="G102" s="10">
+        <v>0</v>
+      </c>
+      <c r="H102" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="10">
+        <v>0</v>
+      </c>
+      <c r="C103" s="10">
+        <v>0</v>
+      </c>
+      <c r="D103" s="10">
+        <v>0</v>
+      </c>
+      <c r="E103" s="10">
+        <v>0</v>
+      </c>
+      <c r="F103" s="10">
+        <v>0</v>
+      </c>
+      <c r="G103" s="10">
+        <v>0</v>
+      </c>
+      <c r="H103" s="10">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="10">
+        <v>4104</v>
+      </c>
+      <c r="C104" s="10">
+        <v>1240</v>
+      </c>
+      <c r="D104" s="10">
+        <v>465</v>
+      </c>
+      <c r="E104" s="10">
+        <v>12</v>
+      </c>
+      <c r="F104" s="10">
+        <v>68</v>
+      </c>
+      <c r="G104" s="10">
+        <v>35</v>
+      </c>
+      <c r="H104">
+        <f>SUM(C104,E104,F104,G104)</f>
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" s="10">
+        <v>345</v>
+      </c>
+      <c r="C105" s="10">
+        <v>142</v>
+      </c>
+      <c r="D105" s="10">
+        <v>40</v>
+      </c>
+      <c r="E105" s="10">
+        <v>4</v>
+      </c>
+      <c r="F105" s="10">
+        <v>6</v>
+      </c>
+      <c r="G105" s="10">
+        <v>9</v>
+      </c>
+      <c r="H105">
+        <f>SUM(C105,E105,F105,G105)</f>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="8"/>
+      <c r="B106" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108">
+        <f>B101/B100</f>
+        <v>0.57261837918772229</v>
+      </c>
+      <c r="C108">
+        <f t="shared" ref="C108:F108" si="14">C101/C100</f>
+        <v>0.10115979381443299</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="14"/>
+        <v>2.321083172147002E-2</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="14"/>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="14"/>
+        <v>0.53164556962025311</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109">
+        <f>B102/B100</f>
+        <v>1.1042485495040239E-2</v>
+      </c>
+      <c r="C109">
+        <f t="shared" ref="C109:F109" si="15">C102/C100</f>
+        <v>8.3762886597938142E-3</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110">
+        <f>B103/B100</f>
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <f t="shared" ref="C110:F110" si="16">C103/C100</f>
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111">
+        <f>B104/B100</f>
+        <v>0.38405390230207748</v>
+      </c>
+      <c r="C111">
+        <f t="shared" ref="C111:F111" si="17">C104/C100</f>
+        <v>0.7989690721649485</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="17"/>
+        <v>0.89941972920696323</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="17"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="17"/>
+        <v>0.43037974683544306</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112">
+        <f>B105/B100</f>
+        <v>3.2285233015160023E-2</v>
+      </c>
+      <c r="C112">
+        <f t="shared" ref="C112:F112" si="18">C105/C100</f>
+        <v>9.1494845360824736E-2</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="18"/>
+        <v>7.7369439071566737E-2</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="18"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="18"/>
+        <v>3.7974683544303799E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="11"/>
+      <c r="B114" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="11"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="16"/>
+      <c r="E115" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F115" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="7">
+        <f>B100+731</f>
+        <v>11417</v>
+      </c>
+      <c r="C116" s="7">
+        <f>1830+102</f>
+        <v>1932</v>
+      </c>
+      <c r="E116" s="12"/>
+      <c r="F116" s="16"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117" s="10">
+        <v>6119</v>
+      </c>
+      <c r="C117" s="17">
+        <v>301</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117">
+        <f>B117/B116</f>
+        <v>0.53595515459402643</v>
+      </c>
+      <c r="F117">
+        <f>C117/C116</f>
+        <v>0.15579710144927536</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" s="10">
+        <v>118</v>
+      </c>
+      <c r="C118" s="17">
+        <v>13</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118">
+        <f>B118/B116</f>
+        <v>1.0335464657966191E-2</v>
+      </c>
+      <c r="F118">
+        <f>C118/C116</f>
+        <v>6.728778467908903E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B119" s="13">
+        <v>731</v>
+      </c>
+      <c r="C119" s="17">
+        <v>102</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119">
+        <f>B119/B116</f>
+        <v>6.4027327669265124E-2</v>
+      </c>
+      <c r="F119">
+        <f>C119/C116</f>
+        <v>5.2795031055900624E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" s="10">
+        <v>4104</v>
+      </c>
+      <c r="C120" s="17">
+        <v>1355</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120">
+        <f>B120/B116</f>
+        <v>0.35946395725672242</v>
+      </c>
+      <c r="F120">
+        <f>C120/C116</f>
+        <v>0.70134575569358182</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B121" s="10">
+        <v>345</v>
+      </c>
+      <c r="C121" s="17">
+        <v>161</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121">
+        <f>B121/B116</f>
+        <v>3.0218095822019796E-2</v>
+      </c>
+      <c r="F121">
+        <f>C121/C116</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="32">
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
     <mergeCell ref="B80:B81"/>
     <mergeCell ref="C80:C81"/>
     <mergeCell ref="D80:D81"/>
@@ -6380,6 +8670,7 @@
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="E72:E73"/>
     <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/output/figures/compare_toTG_figure.xlsx
+++ b/output/figures/compare_toTG_figure.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wen-Juan/Dropbox (Amherst College)/Amherst_postdoc/github/Haploidselection_and_dosagecompensation_in_Microbotryum/output/figures/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC84C4C-A569-5546-A360-4AF5A1DD7A2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28160" windowHeight="17540"/>
+    <workbookView xWindow="1760" yWindow="460" windowWidth="40060" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="34">
   <si>
     <t>category</t>
   </si>
@@ -104,12 +110,33 @@
   <si>
     <t>centro</t>
   </si>
+  <si>
+    <t>M. caroliniana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRR </t>
+  </si>
+  <si>
+    <t>NRR lightblue stratum</t>
+  </si>
+  <si>
+    <t>total gene</t>
+  </si>
+  <si>
+    <t>orthologs with paralogs (with more than one copy)</t>
+  </si>
+  <si>
+    <t>gene gain (only in M.caroliniana)</t>
+  </si>
+  <si>
+    <t>M. acaulis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -137,12 +164,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -164,6 +193,52 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Light"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Light"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Light"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Light"/>
+    </font>
+    <font>
+      <sz val="19"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Light"/>
+    </font>
+    <font>
+      <sz val="21"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Light"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)_x0000_"/>
     </font>
   </fonts>
   <fills count="2">
@@ -240,7 +315,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -258,7 +333,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -269,17 +343,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -343,6 +441,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF06F07"/>
       <color rgb="FF800080"/>
       <color rgb="FFFF7E79"/>
       <color rgb="FFFF006B"/>
@@ -362,7 +461,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -382,10 +481,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.156025590551181"/>
-          <c:y val="0.0509259259259259"/>
-          <c:w val="0.625455818022747"/>
-          <c:h val="0.743572470107903"/>
+          <c:x val="0.15602559055118101"/>
+          <c:y val="5.0925925925925902E-2"/>
+          <c:w val="0.62545581802274697"/>
+          <c:h val="0.74357247010790295"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -443,21 +542,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.893984514592019</c:v>
+                  <c:v>0.89398451459201911</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.622100954979536</c:v>
+                  <c:v>0.6221009549795361</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.879310344827586</c:v>
+                  <c:v>0.87931034482758619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.878260869565217</c:v>
+                  <c:v>0.87826086956521743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0407-9F48-ACE5-B931C9FF9E62}"/>
             </c:ext>
@@ -514,21 +613,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0669446098868374</c:v>
+                  <c:v>6.6944609886837397E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0818553888130969</c:v>
+                  <c:v>8.1855388813096869E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0689655172413793</c:v>
+                  <c:v>6.8965517241379309E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0956521739130435</c:v>
+                  <c:v>9.5652173913043481E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0407-9F48-ACE5-B931C9FF9E62}"/>
             </c:ext>
@@ -585,21 +684,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0390708755211435</c:v>
+                  <c:v>3.9070875521143536E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.296043656207367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0517241379310345</c:v>
+                  <c:v>5.1724137931034482E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0260869565217391</c:v>
+                  <c:v>2.6086956521739129E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0407-9F48-ACE5-B931C9FF9E62}"/>
             </c:ext>
@@ -651,7 +750,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -660,6 +758,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -766,7 +884,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -775,6 +892,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -824,7 +961,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -856,14 +992,1424 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" i="1"/>
+              <a:t>M.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" i="1" baseline="0"/>
+              <a:t> caroliniana</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400" i="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36270205325151794"/>
+          <c:y val="1.4005602240896359E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0761440923426806E-2"/>
+          <c:y val="0.12910364145658262"/>
+          <c:w val="0.74393429023006996"/>
+          <c:h val="0.75759522706720483"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$154</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single-copy ortholog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$152:$F$153</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NRR lightblue stratum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$154:$F$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.65318041839226926</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1448087431693989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5639412997903561E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37398373983739835</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53061224489795922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-85FF-5E49-AAF0-B4BBE0907CBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$155</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>orthologs with paralogs (with more than one copy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$152:$F$153</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NRR lightblue stratum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$155:$F$155</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.7609642136561537E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1475409836065573E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1928721174004195E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3170731707317069E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8027210884353739E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-85FF-5E49-AAF0-B4BBE0907CBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$156</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gene gain (only in M.caroliniana)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F06F07"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$152:$F$153</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NRR lightblue stratum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$156:$F$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.31920993947116916</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55601092896174864</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59329140461215935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46341463414634149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44217687074829931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-85FF-5E49-AAF0-B4BBE0907CBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$157</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not listed in orthologs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$152:$F$153</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NRR lightblue stratum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$157:$F$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23770491803278687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32914046121593293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.943089430894309E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0408163265306121E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-85FF-5E49-AAF0-B4BBE0907CBE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="631200383"/>
+        <c:axId val="631985887"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="631200383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631985887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="631985887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Percentage of each ortholog category</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="700">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.8963862487216344E-3"/>
+              <c:y val="0.26948388804340628"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631200383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82565370064436772"/>
+          <c:y val="0.27660998257570746"/>
+          <c:w val="0.17158088209001124"/>
+          <c:h val="0.614146319945301"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="1"/>
+              <a:t>M.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="1" baseline="0"/>
+              <a:t> acaulis</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800" b="1" i="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42363173611563026"/>
+          <c:y val="7.1428571428571425E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10645394532295033"/>
+          <c:y val="0.18479166666666666"/>
+          <c:w val="0.70805477827668239"/>
+          <c:h val="0.70673064304461941"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$173</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single-copy ortholog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$171:$E$172</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$173:$E$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.589967073406934</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39541547277936961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9801980198019802E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48148148148148145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CFA-A349-8336-613319EE9F7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$174</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>orthologs with paralogs (with more than one copy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$171:$E$172</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$174:$E$174</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.4185551036219251E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0171919770773637E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9504950495049507E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5CFA-A349-8336-613319EE9F7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$175</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gene gain (only in M.caroliniana)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F06F07"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$171:$E$172</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$175:$E$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.3536703466976564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42406876790830944</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65346534653465349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46296296296296297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5CFA-A349-8336-613319EE9F7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$176</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not listed in orthologs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$171:$E$172</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$176:$E$176</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.2177028859190394E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12034383954154727</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27722772277227725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3888888888888888E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5CFA-A349-8336-613319EE9F7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="611588511"/>
+        <c:axId val="611420975"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="611588511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="611420975"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="611420975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Percentage of each ortholog category</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="700">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="611588511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81822288742832761"/>
+          <c:y val="0.28199334458192726"/>
+          <c:w val="0.17714467509743104"/>
+          <c:h val="0.60491141732283449"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -899,7 +2445,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -919,8 +2465,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.142812908649731"/>
-          <c:y val="0.0570715880281714"/>
+          <c:x val="0.14281290864973101"/>
+          <c:y val="5.7071588028171402E-2"/>
           <c:w val="0.666647912817104"/>
           <c:h val="0.801639762477108"/>
         </c:manualLayout>
@@ -980,21 +2526,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.898017348203222</c:v>
+                  <c:v>0.89801734820322177</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.506104328523862</c:v>
+                  <c:v>0.50610432852386233</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.859649122807017</c:v>
+                  <c:v>0.85964912280701755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.887931034482759</c:v>
+                  <c:v>0.88793103448275867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3FA8-034C-A065-5A3220B1C454}"/>
             </c:ext>
@@ -1051,21 +2597,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.054275092936803</c:v>
+                  <c:v>5.4275092936802972E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0821309655937847</c:v>
+                  <c:v>8.2130965593784688E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.105263157894737</c:v>
+                  <c:v>0.10526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0862068965517241</c:v>
+                  <c:v>8.6206896551724144E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3FA8-034C-A065-5A3220B1C454}"/>
             </c:ext>
@@ -1122,21 +2668,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0477075588599752</c:v>
+                  <c:v>4.770755885997522E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.411764705882353</c:v>
+                  <c:v>0.41176470588235292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0350877192982456</c:v>
+                  <c:v>3.5087719298245612E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0258620689655172</c:v>
+                  <c:v>2.5862068965517241E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3FA8-034C-A065-5A3220B1C454}"/>
             </c:ext>
@@ -1258,7 +2804,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1267,6 +2812,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1317,9 +2882,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.799253369062096"/>
-          <c:y val="0.388874255148369"/>
-          <c:w val="0.200746630937904"/>
+          <c:x val="0.79925336906209599"/>
+          <c:y val="0.38887425514836899"/>
+          <c:w val="0.20074663093790401"/>
           <c:h val="0.222251489703262"/>
         </c:manualLayout>
       </c:layout>
@@ -1354,14 +2919,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1397,7 +2962,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1417,10 +2982,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.130140002391351"/>
-          <c:y val="0.0844628459215062"/>
-          <c:w val="0.699490541586874"/>
-          <c:h val="0.818006456627644"/>
+          <c:x val="0.13014000239135101"/>
+          <c:y val="8.4462845921506199E-2"/>
+          <c:w val="0.69949054158687396"/>
+          <c:h val="0.81800645662764404"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1478,21 +3043,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.977046852815902</c:v>
+                  <c:v>0.97704685281590153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.369146005509642</c:v>
+                  <c:v>0.36914600550964188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.789473684210526</c:v>
+                  <c:v>0.78947368421052633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.951612903225806</c:v>
+                  <c:v>0.95161290322580649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0E5D-E24C-8149-2088070377EC}"/>
             </c:ext>
@@ -1549,21 +3114,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.013961192617132</c:v>
+                  <c:v>1.3961192617132039E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.338842975206611</c:v>
+                  <c:v>0.33884297520661155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.105263157894737</c:v>
+                  <c:v>0.10526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0161290322580645</c:v>
+                  <c:v>1.6129032258064516E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0E5D-E24C-8149-2088070377EC}"/>
             </c:ext>
@@ -1620,21 +3185,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0089919545669664</c:v>
+                  <c:v>8.9919545669663991E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.292011019283747</c:v>
+                  <c:v>0.29201101928374656</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.105263157894737</c:v>
+                  <c:v>0.10526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.032258064516129</c:v>
+                  <c:v>3.2258064516129031E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0E5D-E24C-8149-2088070377EC}"/>
             </c:ext>
@@ -1751,7 +3316,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1760,6 +3324,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1810,9 +3394,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.822259145854236"/>
-          <c:y val="0.4484237804111"/>
-          <c:w val="0.177740854145763"/>
+          <c:x val="0.82225914585423598"/>
+          <c:y val="0.44842378041109998"/>
+          <c:w val="0.17774085414576299"/>
           <c:h val="0.212840293805689"/>
         </c:manualLayout>
       </c:layout>
@@ -1847,14 +3431,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1890,7 +3474,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1911,7 +3495,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.136258591985115"/>
-          <c:y val="0.054987528721908"/>
+          <c:y val="5.4987528721907999E-2"/>
           <c:w val="0.691852710443977"/>
           <c:h val="0.855347828592116"/>
         </c:manualLayout>
@@ -1971,21 +3555,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.924414011061364</c:v>
+                  <c:v>0.92441401106136423</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.414725069897484</c:v>
+                  <c:v>0.4147250698974837</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.872727272727273</c:v>
+                  <c:v>0.87272727272727268</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81651376146789</c:v>
+                  <c:v>0.8165137614678899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-287C-394A-BFBD-45B652FBFE52}"/>
             </c:ext>
@@ -2042,21 +3626,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0421385304187516</c:v>
+                  <c:v>4.2138530418751645E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.314072693383038</c:v>
+                  <c:v>0.31407269338303823</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0727272727272727</c:v>
+                  <c:v>7.2727272727272724E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.055045871559633</c:v>
+                  <c:v>5.5045871559633031E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-287C-394A-BFBD-45B652FBFE52}"/>
             </c:ext>
@@ -2113,21 +3697,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0334474585198841</c:v>
+                  <c:v>3.3447458519884121E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.271202236719478</c:v>
+                  <c:v>0.27120223671947807</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0545454545454545</c:v>
+                  <c:v>5.4545454545454543E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.128440366972477</c:v>
+                  <c:v>0.12844036697247707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-287C-394A-BFBD-45B652FBFE52}"/>
             </c:ext>
@@ -2244,7 +3828,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2253,6 +3836,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2303,10 +3906,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.820674171077055"/>
-          <c:y val="0.448110057655306"/>
-          <c:w val="0.179325828922945"/>
-          <c:h val="0.214135625024355"/>
+          <c:x val="0.82067417107705498"/>
+          <c:y val="0.44811005765530598"/>
+          <c:w val="0.17932582892294499"/>
+          <c:h val="0.21413562502435499"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2340,14 +3943,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2383,7 +3986,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2404,9 +4007,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.129264996212306"/>
-          <c:y val="0.0524320313761345"/>
-          <c:w val="0.660966918530955"/>
-          <c:h val="0.781580973078614"/>
+          <c:y val="5.2432031376134502E-2"/>
+          <c:w val="0.66096691853095502"/>
+          <c:h val="0.78158097307861396"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2465,23 +4068,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.569076193134245</c:v>
+                  <c:v>0.56907619313424507</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.143106457242583</c:v>
+                  <c:v>0.14310645724258289</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0319148936170213</c:v>
+                  <c:v>3.1914893617021274E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.845070422535211</c:v>
+                  <c:v>0.84507042253521125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.525316455696203</c:v>
+                  <c:v>0.52531645569620256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-095C-5C41-9B47-5E6F2F16F5B6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2535,23 +4143,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0215834031072658</c:v>
+                  <c:v>3.4049679039910692E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.012216404886562</c:v>
+                  <c:v>4.0139616055846421E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00425531914893617</c:v>
+                  <c:v>2.7659574468085105E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>4.2253521126760563E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>3.1645569620253167E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-095C-5C41-9B47-5E6F2F16F5B6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2598,23 +4211,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-095C-5C41-9B47-5E6F2F16F5B6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2666,23 +4284,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.384500883803144</c:v>
+                  <c:v>0.38450088380314446</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.779232111692845</c:v>
+                  <c:v>0.77923211169284468</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85531914893617</c:v>
+                  <c:v>0.85531914893617023</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.112676056338028</c:v>
+                  <c:v>0.11267605633802817</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.424050632911392</c:v>
+                  <c:v>0.42405063291139239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-095C-5C41-9B47-5E6F2F16F5B6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2736,23 +4359,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0248395199553447</c:v>
+                  <c:v>1.2373244022699787E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0776614310645724</c:v>
+                  <c:v>3.7521815008726006E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.108510638297872</c:v>
+                  <c:v>8.5106382978723402E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0422535211267606</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0506329113924051</c:v>
+                  <c:v>1.8987341772151899E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-095C-5C41-9B47-5E6F2F16F5B6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2774,6 +4402,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2808,7 +4437,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -2830,10 +4458,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.783728483628593"/>
+          <c:x val="0.78372848362859304"/>
           <c:y val="0.151917380049234"/>
-          <c:w val="0.21410370599985"/>
-          <c:h val="0.696164759413424"/>
+          <c:w val="0.21410370599985001"/>
+          <c:h val="0.69616475941342404"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2844,14 +4472,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2871,10 +4499,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.124435802789308"/>
-          <c:y val="0.0585806845849327"/>
+          <c:x val="0.12443580278930801"/>
+          <c:y val="5.85806845849327E-2"/>
           <c:w val="0.682303893179109"/>
-          <c:h val="0.773128072953608"/>
+          <c:h val="0.77312807295360797"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2926,23 +4554,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.572618379187722</c:v>
+                  <c:v>0.57261837918772229</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.101159793814433</c:v>
+                  <c:v>0.10115979381443299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02321083172147</c:v>
+                  <c:v>2.321083172147002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.789473684210526</c:v>
+                  <c:v>0.78947368421052633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.531645569620253</c:v>
+                  <c:v>0.53164556962025311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E07-0248-A955-DD7963CE6F78}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2996,23 +4629,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0110424854950402</c:v>
+                  <c:v>3.5279805352798052E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00837628865979381</c:v>
+                  <c:v>4.0592783505154641E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>1.7408123791102514E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>5.2631578947368418E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>2.5316455696202531E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E07-0248-A955-DD7963CE6F78}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3059,23 +4697,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3E07-0248-A955-DD7963CE6F78}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3127,23 +4770,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.384053902302077</c:v>
+                  <c:v>0.38405390230207748</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.798969072164948</c:v>
+                  <c:v>0.7989690721649485</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.899419729206963</c:v>
+                  <c:v>0.89941972920696323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.157894736842105</c:v>
+                  <c:v>0.15789473684210525</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.430379746835443</c:v>
+                  <c:v>0.43037974683544306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3E07-0248-A955-DD7963CE6F78}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3197,23 +4845,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.03228523301516</c:v>
+                  <c:v>8.0479131574022079E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0914948453608247</c:v>
+                  <c:v>5.9278350515463915E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0773694390715667</c:v>
+                  <c:v>5.9961315280464215E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0526315789473684</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0379746835443038</c:v>
+                  <c:v>1.2658227848101266E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3E07-0248-A955-DD7963CE6F78}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3259,6 +4912,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3E07-0248-A955-DD7963CE6F78}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3280,6 +4938,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3371,8 +5030,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0164282214318634"/>
-              <c:y val="0.0697041579334957"/>
+              <c:x val="1.6428221431863399E-2"/>
+              <c:y val="6.97041579334957E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3400,9 +5059,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.795930734469036"/>
+          <c:x val="0.79593073446903595"/>
           <c:y val="0.128623277753315"/>
-          <c:w val="0.202007636792313"/>
+          <c:w val="0.20200763679231301"/>
           <c:h val="0.724728288541584"/>
         </c:manualLayout>
       </c:layout>
@@ -3414,14 +5073,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3441,10 +5100,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.146192475940507"/>
-          <c:y val="0.0601851851851852"/>
-          <c:w val="0.620799431321085"/>
-          <c:h val="0.822469378827647"/>
+          <c:x val="0.14619247594050699"/>
+          <c:y val="6.0185185185185203E-2"/>
+          <c:w val="0.62079943132108495"/>
+          <c:h val="0.82246937882764704"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3487,14 +5146,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.533118354540701</c:v>
+                  <c:v>0.53311835454070067</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.191212871287129</c:v>
+                  <c:v>0.19121287128712872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-093F-124D-8FFA-E204C7490CD9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3539,14 +5203,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0202196269827436</c:v>
+                  <c:v>2.0219626982743596E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00866336633663366</c:v>
+                  <c:v>8.6633663366336641E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-093F-124D-8FFA-E204C7490CD9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3589,14 +5258,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0631863343210737</c:v>
+                  <c:v>6.3186334321073734E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0612623762376237</c:v>
+                  <c:v>6.1262376237623761E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-093F-124D-8FFA-E204C7490CD9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3639,14 +5313,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.360205682412411</c:v>
+                  <c:v>0.36020568241241069</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64789603960396</c:v>
+                  <c:v>0.64789603960396036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-093F-124D-8FFA-E204C7490CD9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3691,14 +5370,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0232700017430713</c:v>
+                  <c:v>2.327000174307129E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0934405940594059</c:v>
+                  <c:v>9.344059405940594E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-093F-124D-8FFA-E204C7490CD9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3720,6 +5404,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3754,7 +5439,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -3772,9 +5456,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.766991907261592"/>
+          <c:x val="0.76699190726159205"/>
           <c:y val="0.127710338291047"/>
-          <c:w val="0.23023031496063"/>
+          <c:w val="0.23023031496063001"/>
           <c:h val="0.744579323417906"/>
         </c:manualLayout>
       </c:layout>
@@ -3786,14 +5470,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3814,9 +5498,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.137477261325714"/>
-          <c:y val="0.0609756097560975"/>
-          <c:w val="0.5969191004864"/>
-          <c:h val="0.820137832208122"/>
+          <c:y val="6.0975609756097497E-2"/>
+          <c:w val="0.59691910048639996"/>
+          <c:h val="0.82013783220812198"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3859,14 +5543,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.535955154594026</c:v>
+                  <c:v>0.53595515459402643</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.155797101449275</c:v>
+                  <c:v>0.15579710144927536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-488D-A248-99FA-C59AF2A218A6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3909,14 +5598,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0103354646579662</c:v>
+                  <c:v>1.0335464657966191E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0067287784679089</c:v>
+                  <c:v>6.728778467908903E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-488D-A248-99FA-C59AF2A218A6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3959,14 +5653,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0640273276692651</c:v>
+                  <c:v>6.4027327669265124E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0527950310559006</c:v>
+                  <c:v>5.2795031055900624E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-488D-A248-99FA-C59AF2A218A6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4009,14 +5708,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.359463957256722</c:v>
+                  <c:v>0.35946395725672242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.701345755693582</c:v>
+                  <c:v>0.70134575569358182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-488D-A248-99FA-C59AF2A218A6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4061,14 +5765,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.0302180958220198</c:v>
+                  <c:v>3.0218095822019796E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0833333333333333</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-488D-A248-99FA-C59AF2A218A6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4090,6 +5799,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4181,8 +5891,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0360336429042142"/>
-              <c:y val="0.16647593023726"/>
+              <c:x val="3.6033642904214201E-2"/>
+              <c:y val="0.16647593023726001"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4202,10 +5912,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.726086112504635"/>
-          <c:y val="0.0993688230340813"/>
-          <c:w val="0.273913887495365"/>
-          <c:h val="0.754358038734839"/>
+          <c:x val="0.72608611250463495"/>
+          <c:y val="9.9368823034081302E-2"/>
+          <c:w val="0.27391388749536499"/>
+          <c:h val="0.75435803873483898"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4216,7 +5926,757 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" i="1"/>
+              <a:t>M.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" i="1" baseline="0"/>
+              <a:t> caroliniana </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000" i="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40309862129302809"/>
+          <c:y val="5.128205128205128E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11813799137176818"/>
+          <c:y val="0.17180205038472754"/>
+          <c:w val="0.68381346728210701"/>
+          <c:h val="0.7033280689484015"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$136</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single-copy ortholog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$134:$F$135</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NRR lightblue stratum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$136:$F$136</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.63328181349819679</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16470588235294117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4806517311608958E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41818181818181815</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50326797385620914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6BED-434B-A5D9-A66A60128C2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$137</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>orthologs with paralogs (with more than one copy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$134:$F$135</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NRR lightblue stratum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$137:$F$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.575991756826378E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8823529411764705E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0916496945010187E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1818181818181818E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3071895424836602E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6BED-434B-A5D9-A66A60128C2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$138</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gene gain (only in M.caroliniana)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F06F07"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$134:$F$135</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NRR lightblue stratum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$138:$F$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.30674909840288511</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53088235294117647</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55193482688391038</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41818181818181815</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45751633986928103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6BED-434B-A5D9-A66A60128C2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not listed in orthologs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$134:$F$135</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NRR lightblue stratum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$139:$F$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.4209170530654302E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24558823529411763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35234215885947046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1818181818181818E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6143790849673203E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6BED-434B-A5D9-A66A60128C2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="631931823"/>
+        <c:axId val="635627567"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="631931823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635627567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="635627567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Percentage of each ortholog category</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="700">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7241379310344827E-2"/>
+              <c:y val="0.25533212194629523"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631931823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80392463873050346"/>
+          <c:y val="0.1457740538842901"/>
+          <c:w val="0.17805397170181314"/>
+          <c:h val="0.69365322924378048"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4382,6 +6842,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -5898,6 +8478,1521 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6422,7 +10517,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA6D3635-3D0C-2F44-ACAD-8FE1189CA69E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6458,7 +10553,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98F0C48D-3778-1046-A44F-E9C7010E83F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6494,7 +10589,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{304CA330-C72B-EF45-AA62-ECE3E3A1965B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6530,7 +10625,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5464EDE-D19B-B143-A5D2-9A9008907B59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6550,20 +10645,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>741680</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>15129</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>424180</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>167529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>403039</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85539</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6580,20 +10681,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>545422</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>151722</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>690880</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6610,20 +10717,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>81280</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>538480</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>195580</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6640,20 +10753,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6663,6 +10782,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{544AC0C2-CA7B-6248-A9A1-2EFB12B54A2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D1759C-90F8-064F-B74B-E1CBE16C6A47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1174750</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D368A5B-DA05-0A40-B43D-BAC50343253C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6960,27 +11187,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116:C121"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="F177" sqref="F176:F177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7472,7 +11699,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:17">
       <c r="A58" s="3" t="s">
         <v>0</v>
       </c>
@@ -7489,7 +11716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:17">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -7506,7 +11733,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:17" ht="21">
       <c r="A60" s="2" t="s">
         <v>10</v>
       </c>
@@ -7522,8 +11749,13 @@
       <c r="E60" s="3">
         <v>6</v>
       </c>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="23"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:17" ht="21">
       <c r="A61" s="2" t="s">
         <v>9</v>
       </c>
@@ -7539,8 +11771,13 @@
       <c r="E61" s="3">
         <v>14</v>
       </c>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="23"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:17" ht="21">
       <c r="B62">
         <f>SUM(B59:B61)</f>
         <v>7594</v>
@@ -7557,8 +11794,13 @@
         <f>SUM(E59:E61)</f>
         <v>109</v>
       </c>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:17" ht="21">
       <c r="B63" s="4" t="s">
         <v>3</v>
       </c>
@@ -7571,8 +11813,13 @@
       <c r="E63" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:17" ht="21">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -7592,6 +11839,11 @@
         <f t="shared" si="7"/>
         <v>0.8165137614678899</v>
       </c>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="2" t="s">
@@ -7636,62 +11888,62 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="14" t="s">
+      <c r="F72" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G72" s="15" t="s">
+      <c r="G72" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H72" s="15" t="s">
+      <c r="H72" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I72" s="15"/>
+      <c r="I72" s="17"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="24">
         <v>10749</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="24">
         <v>1146</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="24">
         <v>470</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="24">
         <v>71</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="24">
         <v>158</v>
       </c>
       <c r="G74" s="7">
@@ -7706,22 +11958,22 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="24">
         <v>6117</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="24">
         <v>164</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="24">
         <v>15</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="24">
         <v>60</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="24">
         <v>83</v>
       </c>
       <c r="G75" s="7">
@@ -7733,23 +11985,23 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="7">
-        <v>232</v>
-      </c>
-      <c r="C76" s="7">
-        <v>14</v>
-      </c>
-      <c r="D76" s="7">
-        <v>2</v>
-      </c>
-      <c r="E76" s="7">
-        <v>0</v>
-      </c>
-      <c r="F76" s="7">
-        <v>0</v>
+      <c r="B76" s="24">
+        <v>366</v>
+      </c>
+      <c r="C76" s="24">
+        <v>46</v>
+      </c>
+      <c r="D76" s="24">
+        <v>13</v>
+      </c>
+      <c r="E76" s="24">
+        <v>3</v>
+      </c>
+      <c r="F76" s="24">
+        <v>5</v>
       </c>
       <c r="G76" s="7">
         <v>0</v>
@@ -7759,22 +12011,22 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="24">
         <v>725</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="24">
         <v>0</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="24">
         <v>0</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="24">
         <v>0</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="24">
         <v>0</v>
       </c>
       <c r="G77" s="7">
@@ -7786,22 +12038,22 @@
       <c r="I77" s="7"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="24">
         <v>4133</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="24">
         <v>893</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="24">
         <v>402</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="24">
         <v>8</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="24">
         <v>67</v>
       </c>
       <c r="G78" s="7">
@@ -7813,60 +12065,60 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="7">
-        <v>267</v>
-      </c>
-      <c r="C79" s="7">
-        <v>89</v>
-      </c>
-      <c r="D79" s="7">
-        <v>51</v>
-      </c>
-      <c r="E79" s="7">
+      <c r="B79" s="24">
+        <v>133</v>
+      </c>
+      <c r="C79" s="24">
+        <v>43</v>
+      </c>
+      <c r="D79" s="24">
+        <v>40</v>
+      </c>
+      <c r="E79" s="24">
+        <v>0</v>
+      </c>
+      <c r="F79" s="24">
         <v>3</v>
-      </c>
-      <c r="F79" s="7">
-        <v>8</v>
       </c>
       <c r="G79" s="7">
         <v>24</v>
       </c>
       <c r="H79" s="7">
         <f>SUM(C79:F79)</f>
-        <v>151</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="15"/>
-      <c r="B80" s="14" t="s">
+      <c r="A80" s="17"/>
+      <c r="B80" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D80" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F80" s="14" t="s">
+      <c r="F80" s="19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="15"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
+    <row r="81" spans="1:19">
+      <c r="A81" s="17"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="11" t="s">
+    <row r="82" spans="1:19" ht="24">
+      <c r="A82" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B82">
@@ -7889,34 +12141,44 @@
         <f t="shared" si="10"/>
         <v>0.52531645569620256</v>
       </c>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="25"/>
+      <c r="R82" s="25"/>
+      <c r="S82" s="25"/>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="11" t="s">
+    <row r="83" spans="1:19" ht="33">
+      <c r="A83" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B83">
         <f>B76/B74</f>
-        <v>2.1583403107265791E-2</v>
+        <v>3.4049679039910692E-2</v>
       </c>
       <c r="C83">
         <f t="shared" ref="C83:F83" si="11">C76/C74</f>
-        <v>1.2216404886561954E-2</v>
+        <v>4.0139616055846421E-2</v>
       </c>
       <c r="D83">
         <f t="shared" si="11"/>
-        <v>4.2553191489361703E-3</v>
+        <v>2.7659574468085105E-2</v>
       </c>
       <c r="E83">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4.2253521126760563E-2</v>
       </c>
       <c r="F83">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+        <v>3.1645569620253167E-2</v>
+      </c>
+      <c r="O83" s="26"/>
+      <c r="P83" s="26"/>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="26"/>
+      <c r="S83" s="26"/>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="11" t="s">
+    <row r="84" spans="1:19" ht="27">
+      <c r="A84" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B84">
@@ -7939,9 +12201,14 @@
         <f>0</f>
         <v>0</v>
       </c>
+      <c r="O84" s="26"/>
+      <c r="P84" s="26"/>
+      <c r="Q84" s="26"/>
+      <c r="R84" s="26"/>
+      <c r="S84" s="26"/>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="11" t="s">
+    <row r="85" spans="1:19" ht="27">
+      <c r="A85" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B85">
@@ -7964,54 +12231,64 @@
         <f t="shared" si="12"/>
         <v>0.42405063291139239</v>
       </c>
+      <c r="O85" s="26"/>
+      <c r="P85" s="26"/>
+      <c r="Q85" s="26"/>
+      <c r="R85" s="26"/>
+      <c r="S85" s="26"/>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="11" t="s">
+    <row r="86" spans="1:19" ht="27">
+      <c r="A86" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B86">
         <f>B79/B74</f>
-        <v>2.4839519955344683E-2</v>
+        <v>1.2373244022699787E-2</v>
       </c>
       <c r="C86">
         <f t="shared" ref="C86:F86" si="13">C79/C74</f>
-        <v>7.766143106457242E-2</v>
+        <v>3.7521815008726006E-2</v>
       </c>
       <c r="D86">
         <f t="shared" si="13"/>
-        <v>0.10851063829787234</v>
+        <v>8.5106382978723402E-2</v>
       </c>
       <c r="E86">
         <f t="shared" si="13"/>
-        <v>4.2253521126760563E-2</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <f t="shared" si="13"/>
-        <v>5.0632911392405063E-2</v>
-      </c>
+        <v>1.8987341772151899E-2</v>
+      </c>
+      <c r="O86" s="26"/>
+      <c r="P86" s="26"/>
+      <c r="Q86" s="26"/>
+      <c r="R86" s="26"/>
+      <c r="S86" s="26"/>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="11"/>
-      <c r="B87" s="12" t="s">
+    <row r="87" spans="1:19">
+      <c r="A87" s="10"/>
+      <c r="B87" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="11"/>
-      <c r="B88" s="12"/>
+    <row r="88" spans="1:19">
+      <c r="A88" s="10"/>
+      <c r="B88" s="15"/>
       <c r="C88" s="16"/>
-      <c r="E88" s="12" t="s">
+      <c r="E88" s="15" t="s">
         <v>3</v>
       </c>
       <c r="F88" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="11" t="s">
+    <row r="89" spans="1:19">
+      <c r="A89" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B89" s="7">
@@ -8021,20 +12298,20 @@
       <c r="C89" s="7">
         <v>1616</v>
       </c>
-      <c r="E89" s="12"/>
+      <c r="E89" s="15"/>
       <c r="F89" s="16"/>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="11" t="s">
+    <row r="90" spans="1:19">
+      <c r="A90" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B90" s="13">
+      <c r="B90" s="12">
         <v>6117</v>
       </c>
-      <c r="C90" s="17">
+      <c r="C90" s="14">
         <v>309</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E90">
@@ -8046,17 +12323,17 @@
         <v>0.19121287128712872</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="11" t="s">
+    <row r="91" spans="1:19">
+      <c r="A91" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B91" s="13">
+      <c r="B91" s="12">
         <v>232</v>
       </c>
-      <c r="C91" s="17">
+      <c r="C91" s="14">
         <v>14</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E91">
@@ -8068,17 +12345,17 @@
         <v>8.6633663366336641E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="11" t="s">
+    <row r="92" spans="1:19">
+      <c r="A92" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="13">
+      <c r="B92" s="12">
         <v>725</v>
       </c>
-      <c r="C92" s="17">
+      <c r="C92" s="14">
         <v>99</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E92">
@@ -8090,17 +12367,17 @@
         <v>6.1262376237623761E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="11" t="s">
+    <row r="93" spans="1:19">
+      <c r="A93" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B93" s="13">
+      <c r="B93" s="12">
         <v>4133</v>
       </c>
-      <c r="C93" s="17">
+      <c r="C93" s="14">
         <v>1047</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E93">
@@ -8112,17 +12389,17 @@
         <v>0.64789603960396036</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="11" t="s">
+    <row r="94" spans="1:19">
+      <c r="A94" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="13">
+      <c r="B94" s="12">
         <v>267</v>
       </c>
-      <c r="C94" s="17">
+      <c r="C94" s="14">
         <v>151</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E94">
@@ -8134,38 +12411,38 @@
         <v>9.344059405940594E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="11"/>
-      <c r="B95" s="17"/>
+    <row r="95" spans="1:19">
+      <c r="A95" s="10"/>
+      <c r="B95" s="14"/>
       <c r="C95">
         <f>SUM(C90:C94)</f>
         <v>1620</v>
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="F98" s="18" t="s">
         <v>1</v>
       </c>
     </row>
@@ -8173,11 +12450,11 @@
       <c r="A99" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
       <c r="G99" t="s">
         <v>26</v>
       </c>
@@ -8189,46 +12466,46 @@
       <c r="A100" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100" s="24">
         <v>10686</v>
       </c>
-      <c r="C100" s="10">
+      <c r="C100" s="24">
         <v>1552</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D100" s="24">
         <v>517</v>
       </c>
-      <c r="E100" s="10">
+      <c r="E100" s="24">
         <v>76</v>
       </c>
-      <c r="F100" s="10">
+      <c r="F100" s="24">
         <v>158</v>
       </c>
-      <c r="G100" s="10">
+      <c r="G100" s="9">
         <v>44</v>
       </c>
-      <c r="H100" s="10"/>
+      <c r="H100" s="9"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B101" s="24">
         <v>6119</v>
       </c>
-      <c r="C101" s="10">
+      <c r="C101" s="24">
         <v>157</v>
       </c>
-      <c r="D101" s="10">
+      <c r="D101" s="24">
         <v>12</v>
       </c>
-      <c r="E101" s="10">
+      <c r="E101" s="24">
         <v>60</v>
       </c>
-      <c r="F101" s="10">
+      <c r="F101" s="24">
         <v>84</v>
       </c>
-      <c r="G101" s="10">
+      <c r="G101" s="9">
         <v>0</v>
       </c>
       <c r="H101">
@@ -8240,25 +12517,25 @@
       <c r="A102" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B102" s="10">
-        <v>118</v>
-      </c>
-      <c r="C102" s="10">
-        <v>13</v>
-      </c>
-      <c r="D102" s="10">
+      <c r="B102" s="24">
+        <v>377</v>
+      </c>
+      <c r="C102" s="24">
+        <v>63</v>
+      </c>
+      <c r="D102" s="24">
+        <v>9</v>
+      </c>
+      <c r="E102" s="24">
+        <v>4</v>
+      </c>
+      <c r="F102" s="24">
+        <v>4</v>
+      </c>
+      <c r="G102" s="9">
         <v>0</v>
       </c>
-      <c r="E102" s="10">
-        <v>0</v>
-      </c>
-      <c r="F102" s="10">
-        <v>0</v>
-      </c>
-      <c r="G102" s="10">
-        <v>0</v>
-      </c>
-      <c r="H102" s="10">
+      <c r="H102" s="9">
         <v>13</v>
       </c>
     </row>
@@ -8266,25 +12543,25 @@
       <c r="A103" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B103" s="10">
+      <c r="B103" s="24">
         <v>0</v>
       </c>
-      <c r="C103" s="10">
+      <c r="C103" s="24">
         <v>0</v>
       </c>
-      <c r="D103" s="10">
+      <c r="D103" s="24">
         <v>0</v>
       </c>
-      <c r="E103" s="10">
+      <c r="E103" s="24">
         <v>0</v>
       </c>
-      <c r="F103" s="10">
+      <c r="F103" s="24">
         <v>0</v>
       </c>
-      <c r="G103" s="10">
+      <c r="G103" s="9">
         <v>0</v>
       </c>
-      <c r="H103" s="10">
+      <c r="H103" s="9">
         <v>102</v>
       </c>
     </row>
@@ -8292,22 +12569,22 @@
       <c r="A104" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B104" s="10">
+      <c r="B104" s="24">
         <v>4104</v>
       </c>
-      <c r="C104" s="10">
+      <c r="C104" s="24">
         <v>1240</v>
       </c>
-      <c r="D104" s="10">
+      <c r="D104" s="24">
         <v>465</v>
       </c>
-      <c r="E104" s="10">
+      <c r="E104" s="24">
         <v>12</v>
       </c>
-      <c r="F104" s="10">
+      <c r="F104" s="24">
         <v>68</v>
       </c>
-      <c r="G104" s="10">
+      <c r="G104" s="9">
         <v>35</v>
       </c>
       <c r="H104">
@@ -8319,56 +12596,56 @@
       <c r="A105" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B105" s="10">
-        <v>345</v>
-      </c>
-      <c r="C105" s="10">
-        <v>142</v>
-      </c>
-      <c r="D105" s="10">
-        <v>40</v>
-      </c>
-      <c r="E105" s="10">
-        <v>4</v>
-      </c>
-      <c r="F105" s="10">
-        <v>6</v>
-      </c>
-      <c r="G105" s="10">
+      <c r="B105" s="24">
+        <v>86</v>
+      </c>
+      <c r="C105" s="24">
+        <v>92</v>
+      </c>
+      <c r="D105" s="24">
+        <v>31</v>
+      </c>
+      <c r="E105" s="24">
+        <v>0</v>
+      </c>
+      <c r="F105" s="24">
+        <v>2</v>
+      </c>
+      <c r="G105" s="9">
         <v>9</v>
       </c>
       <c r="H105">
         <f>SUM(C105,E105,F105,G105)</f>
-        <v>161</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="8"/>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F106" s="9" t="s">
+      <c r="F106" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="11" t="s">
+      <c r="A108" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B108">
@@ -8393,32 +12670,32 @@
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B109">
         <f>B102/B100</f>
-        <v>1.1042485495040239E-2</v>
+        <v>3.5279805352798052E-2</v>
       </c>
       <c r="C109">
         <f t="shared" ref="C109:F109" si="15">C102/C100</f>
-        <v>8.3762886597938142E-3</v>
+        <v>4.0592783505154641E-2</v>
       </c>
       <c r="D109">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.7408123791102514E-2</v>
       </c>
       <c r="E109">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="F109">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2.5316455696202531E-2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B110">
@@ -8443,7 +12720,7 @@
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B111">
@@ -8468,33 +12745,33 @@
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="11" t="s">
+      <c r="A112" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B112">
         <f>B105/B100</f>
-        <v>3.2285233015160023E-2</v>
+        <v>8.0479131574022079E-3</v>
       </c>
       <c r="C112">
         <f t="shared" ref="C112:F112" si="18">C105/C100</f>
-        <v>9.1494845360824736E-2</v>
+        <v>5.9278350515463915E-2</v>
       </c>
       <c r="D112">
         <f t="shared" si="18"/>
-        <v>7.7369439071566737E-2</v>
+        <v>5.9961315280464215E-2</v>
       </c>
       <c r="E112">
         <f t="shared" si="18"/>
-        <v>5.2631578947368418E-2</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <f t="shared" si="18"/>
-        <v>3.7974683544303799E-2</v>
+        <v>1.2658227848101266E-2</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="11"/>
-      <c r="B114" s="12" t="s">
+      <c r="A114" s="10"/>
+      <c r="B114" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C114" s="16" t="s">
@@ -8502,10 +12779,10 @@
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="11"/>
-      <c r="B115" s="12"/>
+      <c r="A115" s="10"/>
+      <c r="B115" s="15"/>
       <c r="C115" s="16"/>
-      <c r="E115" s="12" t="s">
+      <c r="E115" s="15" t="s">
         <v>3</v>
       </c>
       <c r="F115" s="16" t="s">
@@ -8513,7 +12790,7 @@
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B116" s="7">
@@ -8524,20 +12801,20 @@
         <f>1830+102</f>
         <v>1932</v>
       </c>
-      <c r="E116" s="12"/>
+      <c r="E116" s="15"/>
       <c r="F116" s="16"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="11" t="s">
+      <c r="A117" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B117" s="10">
+      <c r="B117" s="9">
         <v>6119</v>
       </c>
-      <c r="C117" s="17">
+      <c r="C117" s="14">
         <v>301</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E117">
@@ -8550,16 +12827,16 @@
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="11" t="s">
+      <c r="A118" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B118" s="10">
+      <c r="B118" s="9">
         <v>118</v>
       </c>
-      <c r="C118" s="17">
+      <c r="C118" s="14">
         <v>13</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="D118" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E118">
@@ -8572,16 +12849,16 @@
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B119" s="13">
+      <c r="B119" s="12">
         <v>731</v>
       </c>
-      <c r="C119" s="17">
+      <c r="C119" s="14">
         <v>102</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="D119" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E119">
@@ -8594,16 +12871,16 @@
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B120" s="10">
+      <c r="B120" s="9">
         <v>4104</v>
       </c>
-      <c r="C120" s="17">
+      <c r="C120" s="14">
         <v>1355</v>
       </c>
-      <c r="D120" s="11" t="s">
+      <c r="D120" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E120">
@@ -8616,16 +12893,16 @@
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B121" s="10">
+      <c r="B121" s="9">
         <v>345</v>
       </c>
-      <c r="C121" s="17">
+      <c r="C121" s="14">
         <v>161</v>
       </c>
-      <c r="D121" s="11" t="s">
+      <c r="D121" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E121">
@@ -8637,18 +12914,802 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
+    <row r="126" spans="1:6" ht="26">
+      <c r="A126" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="B127" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F127" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="B128" s="19"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
+    </row>
+    <row r="129" spans="1:6" ht="21">
+      <c r="A129" t="s">
+        <v>30</v>
+      </c>
+      <c r="B129" s="22">
+        <v>9705</v>
+      </c>
+      <c r="C129" s="22">
+        <v>680</v>
+      </c>
+      <c r="D129" s="22">
+        <v>491</v>
+      </c>
+      <c r="E129" s="22">
+        <v>110</v>
+      </c>
+      <c r="F129" s="22">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="21">
+      <c r="A130" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130" s="22">
+        <v>6146</v>
+      </c>
+      <c r="C130" s="22">
+        <v>112</v>
+      </c>
+      <c r="D130" s="22">
+        <v>22</v>
+      </c>
+      <c r="E130" s="22">
+        <v>46</v>
+      </c>
+      <c r="F130" s="22">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="21">
+      <c r="A131" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B131" s="22">
+        <v>250</v>
+      </c>
+      <c r="C131" s="22">
+        <v>40</v>
+      </c>
+      <c r="D131" s="22">
+        <v>25</v>
+      </c>
+      <c r="E131" s="22">
+        <v>9</v>
+      </c>
+      <c r="F131" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="21">
+      <c r="A132" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B132" s="22">
+        <v>2977</v>
+      </c>
+      <c r="C132" s="22">
+        <v>361</v>
+      </c>
+      <c r="D132" s="22">
+        <v>271</v>
+      </c>
+      <c r="E132" s="22">
+        <v>46</v>
+      </c>
+      <c r="F132" s="22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="21">
+      <c r="A133" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133" s="22">
+        <v>332</v>
+      </c>
+      <c r="C133" s="22">
+        <v>167</v>
+      </c>
+      <c r="D133" s="22">
+        <v>173</v>
+      </c>
+      <c r="E133" s="22">
+        <v>9</v>
+      </c>
+      <c r="F133" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="13"/>
+      <c r="B134" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F134" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136">
+        <f>B130/B129</f>
+        <v>0.63328181349819679</v>
+      </c>
+      <c r="C136">
+        <f t="shared" ref="C136:F136" si="19">C130/C129</f>
+        <v>0.16470588235294117</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="19"/>
+        <v>4.4806517311608958E-2</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="19"/>
+        <v>0.41818181818181815</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="19"/>
+        <v>0.50326797385620914</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B137">
+        <f>B131/B129</f>
+        <v>2.575991756826378E-2</v>
+      </c>
+      <c r="C137">
+        <f t="shared" ref="C137:F137" si="20">C131/C129</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="20"/>
+        <v>5.0916496945010187E-2</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="20"/>
+        <v>8.1818181818181818E-2</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="20"/>
+        <v>1.3071895424836602E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B138">
+        <f>B132/B129</f>
+        <v>0.30674909840288511</v>
+      </c>
+      <c r="C138">
+        <f t="shared" ref="C138:F138" si="21">C132/C129</f>
+        <v>0.53088235294117647</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="21"/>
+        <v>0.55193482688391038</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="21"/>
+        <v>0.41818181818181815</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="21"/>
+        <v>0.45751633986928103</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139">
+        <f>B133/B129</f>
+        <v>3.4209170530654302E-2</v>
+      </c>
+      <c r="C139">
+        <f t="shared" ref="C139:F139" si="22">C133/C129</f>
+        <v>0.24558823529411763</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="22"/>
+        <v>0.35234215885947046</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="22"/>
+        <v>8.1818181818181818E-2</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="22"/>
+        <v>2.6143790849673203E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="B144" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F144" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="B145" s="19"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
+    </row>
+    <row r="146" spans="1:6" ht="21">
+      <c r="A146" t="s">
+        <v>30</v>
+      </c>
+      <c r="B146" s="22">
+        <v>9417</v>
+      </c>
+      <c r="C146" s="22">
+        <v>732</v>
+      </c>
+      <c r="D146" s="22">
+        <v>477</v>
+      </c>
+      <c r="E146" s="22">
+        <v>123</v>
+      </c>
+      <c r="F146" s="22">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="21">
+      <c r="A147" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" s="22">
+        <v>6151</v>
+      </c>
+      <c r="C147" s="22">
+        <v>106</v>
+      </c>
+      <c r="D147" s="22">
+        <v>17</v>
+      </c>
+      <c r="E147" s="22">
+        <v>46</v>
+      </c>
+      <c r="F147" s="22">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="21">
+      <c r="A148" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B148" s="22">
+        <v>260</v>
+      </c>
+      <c r="C148" s="22">
+        <v>45</v>
+      </c>
+      <c r="D148" s="22">
+        <v>20</v>
+      </c>
+      <c r="E148" s="22">
+        <v>9</v>
+      </c>
+      <c r="F148" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="21">
+      <c r="A149" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B149" s="22">
+        <v>3006</v>
+      </c>
+      <c r="C149" s="22">
+        <v>407</v>
+      </c>
+      <c r="D149" s="22">
+        <v>283</v>
+      </c>
+      <c r="E149" s="22">
+        <v>57</v>
+      </c>
+      <c r="F149" s="22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="21">
+      <c r="A150" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B150" s="22">
+        <v>0</v>
+      </c>
+      <c r="C150" s="22">
+        <v>174</v>
+      </c>
+      <c r="D150" s="22">
+        <v>157</v>
+      </c>
+      <c r="E150" s="22">
+        <v>11</v>
+      </c>
+      <c r="F150" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="17"/>
+      <c r="B152" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F152" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="17"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B154">
+        <f>B147/B146</f>
+        <v>0.65318041839226926</v>
+      </c>
+      <c r="C154">
+        <f t="shared" ref="C154:F154" si="23">C147/C146</f>
+        <v>0.1448087431693989</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="23"/>
+        <v>3.5639412997903561E-2</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="23"/>
+        <v>0.37398373983739835</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="23"/>
+        <v>0.53061224489795922</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B155">
+        <f>B148/B146</f>
+        <v>2.7609642136561537E-2</v>
+      </c>
+      <c r="C155">
+        <f t="shared" ref="C155:F155" si="24">C148/C146</f>
+        <v>6.1475409836065573E-2</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="24"/>
+        <v>4.1928721174004195E-2</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="24"/>
+        <v>7.3170731707317069E-2</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="24"/>
+        <v>6.8027210884353739E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B156">
+        <f>B149/B146</f>
+        <v>0.31920993947116916</v>
+      </c>
+      <c r="C156">
+        <f t="shared" ref="C156:F156" si="25">C149/C146</f>
+        <v>0.55601092896174864</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="25"/>
+        <v>0.59329140461215935</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="25"/>
+        <v>0.46341463414634149</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="25"/>
+        <v>0.44217687074829931</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B157">
+        <f>B150/B146</f>
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <f t="shared" ref="C157:F157" si="26">C150/C146</f>
+        <v>0.23770491803278687</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="26"/>
+        <v>0.32914046121593293</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="26"/>
+        <v>8.943089430894309E-2</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="26"/>
+        <v>2.0408163265306121E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="11"/>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="11"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="B162" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="B163" s="17"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="17"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="B164" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="B165" s="19"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="19"/>
+    </row>
+    <row r="166" spans="1:5" ht="18">
+      <c r="A166" t="s">
+        <v>30</v>
+      </c>
+      <c r="B166" s="27">
+        <v>10326</v>
+      </c>
+      <c r="C166" s="27">
+        <v>349</v>
+      </c>
+      <c r="D166" s="27">
+        <v>101</v>
+      </c>
+      <c r="E166" s="27">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="18">
+      <c r="A167" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167" s="27">
+        <v>6092</v>
+      </c>
+      <c r="C167" s="27">
+        <v>138</v>
+      </c>
+      <c r="D167" s="27">
+        <v>2</v>
+      </c>
+      <c r="E167" s="27">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="18">
+      <c r="A168" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B168" s="27">
+        <v>353</v>
+      </c>
+      <c r="C168" s="27">
+        <v>21</v>
+      </c>
+      <c r="D168" s="27">
+        <v>5</v>
+      </c>
+      <c r="E168" s="27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="18">
+      <c r="A169" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B169" s="27">
+        <v>3652</v>
+      </c>
+      <c r="C169" s="27">
+        <v>148</v>
+      </c>
+      <c r="D169" s="27">
+        <v>66</v>
+      </c>
+      <c r="E169" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="18">
+      <c r="A170" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B170" s="27">
+        <v>229</v>
+      </c>
+      <c r="C170" s="27">
+        <v>42</v>
+      </c>
+      <c r="D170" s="27">
+        <v>28</v>
+      </c>
+      <c r="E170" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="17"/>
+      <c r="B171" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="17"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="19"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B173">
+        <f>B167/B166</f>
+        <v>0.589967073406934</v>
+      </c>
+      <c r="C173">
+        <f t="shared" ref="C173:E173" si="27">C167/C166</f>
+        <v>0.39541547277936961</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="27"/>
+        <v>1.9801980198019802E-2</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="27"/>
+        <v>0.48148148148148145</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B174">
+        <f>B168/B166</f>
+        <v>3.4185551036219251E-2</v>
+      </c>
+      <c r="C174">
+        <f t="shared" ref="C174:E174" si="28">C168/C166</f>
+        <v>6.0171919770773637E-2</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="28"/>
+        <v>4.9504950495049507E-2</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="28"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B175">
+        <f>B169/B166</f>
+        <v>0.3536703466976564</v>
+      </c>
+      <c r="C175">
+        <f t="shared" ref="C175:E175" si="29">C169/C166</f>
+        <v>0.42406876790830944</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="29"/>
+        <v>0.65346534653465349</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="29"/>
+        <v>0.46296296296296297</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B176">
+        <f>B170/B166</f>
+        <v>2.2177028859190394E-2</v>
+      </c>
+      <c r="C176">
+        <f t="shared" ref="C176:E176" si="30">C170/C166</f>
+        <v>0.12034383954154727</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="30"/>
+        <v>0.27722772277227725</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="30"/>
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="64">
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="B162:E163"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
     <mergeCell ref="B114:B115"/>
     <mergeCell ref="C114:C115"/>
     <mergeCell ref="E115:E116"/>
     <mergeCell ref="F115:F116"/>
     <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
     <mergeCell ref="B98:B99"/>
     <mergeCell ref="C98:C99"/>
     <mergeCell ref="D98:D99"/>
@@ -8659,18 +13720,6 @@
     <mergeCell ref="D106:D107"/>
     <mergeCell ref="E106:E107"/>
     <mergeCell ref="F106:F107"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/output/figures/compare_toTG_figure.xlsx
+++ b/output/figures/compare_toTG_figure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wen-Juan/Dropbox (Amherst College)/Amherst_postdoc/github/Haploidselection_and_dosagecompensation_in_Microbotryum/output/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC84C4C-A569-5546-A360-4AF5A1DD7A2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19912768-49DE-3440-81A7-3E49C9B3AECC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="460" windowWidth="40060" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="40060" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="38">
   <si>
     <t>category</t>
   </si>
@@ -131,12 +131,24 @@
   <si>
     <t>M. acaulis</t>
   </si>
+  <si>
+    <t>M. paradoxa</t>
+  </si>
+  <si>
+    <t>NRR</t>
+  </si>
+  <si>
+    <t>pink stratum</t>
+  </si>
+  <si>
+    <t>white stratum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -240,6 +252,20 @@
       <color theme="1"/>
       <name val="Calibri (Body)_x0000_"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -315,7 +341,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -349,22 +375,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -376,8 +386,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -1589,16 +1619,13 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr>
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:sysClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -2369,6 +2396,641 @@
           <c:y val="0.28199334458192726"/>
           <c:w val="0.17714467509743104"/>
           <c:h val="0.60491141732283449"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" i="1"/>
+              <a:t>M. paradoxa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11085241765553953"/>
+          <c:y val="0.12376506024096387"/>
+          <c:w val="0.72365462459798158"/>
+          <c:h val="0.74950787401574803"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$197</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single-copy ortholog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$196:$G$196</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pink stratum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>white stratum</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$197:$G$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.47510575984380082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7742279020234298E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5904255319148939E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76190476190476186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44067796610169491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD6D-644A-A51D-F4AABFAC68C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$198</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>orthologs with paralogs (with more than one copy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$196:$G$196</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pink stratum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>white stratum</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$198:$G$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.7416205662219331E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6269080582179624E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7925531914893616E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.020408163265306E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6949152542372881E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DD6D-644A-A51D-F4AABFAC68C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$199</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gene gain (only in M.caroliniana)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F06F07"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$196:$G$196</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pink stratum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>white stratum</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$199:$G$199</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.38374552554506997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48100816471423502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45478723404255317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49152542372881358</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DD6D-644A-A51D-F4AABFAC68C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$200</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not listed in orthologs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$196:$G$196</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pink stratum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>white stratum</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$200:$G$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.11373250894890986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41498047568335106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48138297872340424</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3605442176870748E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0847457627118647E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DD6D-644A-A51D-F4AABFAC68C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="499764847"/>
+        <c:axId val="499792175"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="499764847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499792175"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="499792175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499764847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82816901408450705"/>
+          <c:y val="0.20820747557157765"/>
+          <c:w val="0.1676056338028169"/>
+          <c:h val="0.6743226449103501"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6487,16 +7149,13 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr>
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:sysClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -6962,6 +7621,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -9993,6 +10692,511 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10862,15 +12066,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1174750</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10890,6 +12094,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94ED63BE-24FA-1644-9F9E-CF928FA5FA5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10941,7 +12181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -10993,7 +12233,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -11195,10 +12435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S176"/>
+  <dimension ref="A1:S200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="F177" sqref="F176:F177"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="Q182" sqref="Q182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11749,11 +12989,11 @@
       <c r="E60" s="3">
         <v>6</v>
       </c>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
     <row r="61" spans="1:17" ht="21">
       <c r="A61" s="2" t="s">
@@ -11771,11 +13011,11 @@
       <c r="E61" s="3">
         <v>14</v>
       </c>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
     <row r="62" spans="1:17" ht="21">
       <c r="B62">
@@ -11794,11 +13034,11 @@
         <f>SUM(E59:E61)</f>
         <v>109</v>
       </c>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="23"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
     <row r="63" spans="1:17" ht="21">
       <c r="B63" s="4" t="s">
@@ -11813,11 +13053,11 @@
       <c r="E63" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M63" s="23"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="23"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
     <row r="64" spans="1:17" ht="21">
       <c r="A64" s="1" t="s">
@@ -11839,11 +13079,11 @@
         <f t="shared" si="7"/>
         <v>0.8165137614678899</v>
       </c>
-      <c r="M64" s="23"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="23"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="2" t="s">
@@ -11891,59 +13131,59 @@
       <c r="A72" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="19" t="s">
+      <c r="F72" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G72" s="17" t="s">
+      <c r="G72" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H72" s="17" t="s">
+      <c r="H72" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I72" s="17"/>
+      <c r="I72" s="23"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B74" s="24">
+      <c r="B74" s="18">
         <v>10749</v>
       </c>
-      <c r="C74" s="24">
+      <c r="C74" s="18">
         <v>1146</v>
       </c>
-      <c r="D74" s="24">
+      <c r="D74" s="18">
         <v>470</v>
       </c>
-      <c r="E74" s="24">
+      <c r="E74" s="18">
         <v>71</v>
       </c>
-      <c r="F74" s="24">
+      <c r="F74" s="18">
         <v>158</v>
       </c>
       <c r="G74" s="7">
@@ -11961,19 +13201,19 @@
       <c r="A75" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B75" s="24">
+      <c r="B75" s="18">
         <v>6117</v>
       </c>
-      <c r="C75" s="24">
+      <c r="C75" s="18">
         <v>164</v>
       </c>
-      <c r="D75" s="24">
+      <c r="D75" s="18">
         <v>15</v>
       </c>
-      <c r="E75" s="24">
+      <c r="E75" s="18">
         <v>60</v>
       </c>
-      <c r="F75" s="24">
+      <c r="F75" s="18">
         <v>83</v>
       </c>
       <c r="G75" s="7">
@@ -11988,19 +13228,19 @@
       <c r="A76" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="24">
+      <c r="B76" s="18">
         <v>366</v>
       </c>
-      <c r="C76" s="24">
+      <c r="C76" s="18">
         <v>46</v>
       </c>
-      <c r="D76" s="24">
+      <c r="D76" s="18">
         <v>13</v>
       </c>
-      <c r="E76" s="24">
+      <c r="E76" s="18">
         <v>3</v>
       </c>
-      <c r="F76" s="24">
+      <c r="F76" s="18">
         <v>5</v>
       </c>
       <c r="G76" s="7">
@@ -12014,19 +13254,19 @@
       <c r="A77" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B77" s="24">
+      <c r="B77" s="18">
         <v>725</v>
       </c>
-      <c r="C77" s="24">
+      <c r="C77" s="18">
         <v>0</v>
       </c>
-      <c r="D77" s="24">
+      <c r="D77" s="18">
         <v>0</v>
       </c>
-      <c r="E77" s="24">
+      <c r="E77" s="18">
         <v>0</v>
       </c>
-      <c r="F77" s="24">
+      <c r="F77" s="18">
         <v>0</v>
       </c>
       <c r="G77" s="7">
@@ -12041,19 +13281,19 @@
       <c r="A78" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B78" s="24">
+      <c r="B78" s="18">
         <v>4133</v>
       </c>
-      <c r="C78" s="24">
+      <c r="C78" s="18">
         <v>893</v>
       </c>
-      <c r="D78" s="24">
+      <c r="D78" s="18">
         <v>402</v>
       </c>
-      <c r="E78" s="24">
+      <c r="E78" s="18">
         <v>8</v>
       </c>
-      <c r="F78" s="24">
+      <c r="F78" s="18">
         <v>67</v>
       </c>
       <c r="G78" s="7">
@@ -12068,19 +13308,19 @@
       <c r="A79" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="24">
+      <c r="B79" s="18">
         <v>133</v>
       </c>
-      <c r="C79" s="24">
+      <c r="C79" s="18">
         <v>43</v>
       </c>
-      <c r="D79" s="24">
+      <c r="D79" s="18">
         <v>40</v>
       </c>
-      <c r="E79" s="24">
+      <c r="E79" s="18">
         <v>0</v>
       </c>
-      <c r="F79" s="24">
+      <c r="F79" s="18">
         <v>3</v>
       </c>
       <c r="G79" s="7">
@@ -12092,30 +13332,30 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="17"/>
-      <c r="B80" s="19" t="s">
+      <c r="A80" s="23"/>
+      <c r="B80" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C80" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="19" t="s">
+      <c r="D80" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E80" s="19" t="s">
+      <c r="E80" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F80" s="19" t="s">
+      <c r="F80" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="17"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
     </row>
     <row r="82" spans="1:19" ht="24">
       <c r="A82" s="10" t="s">
@@ -12141,11 +13381,11 @@
         <f t="shared" si="10"/>
         <v>0.52531645569620256</v>
       </c>
-      <c r="O82" s="25"/>
-      <c r="P82" s="25"/>
-      <c r="Q82" s="25"/>
-      <c r="R82" s="25"/>
-      <c r="S82" s="25"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="R82" s="19"/>
+      <c r="S82" s="19"/>
     </row>
     <row r="83" spans="1:19" ht="33">
       <c r="A83" s="10" t="s">
@@ -12171,11 +13411,11 @@
         <f t="shared" si="11"/>
         <v>3.1645569620253167E-2</v>
       </c>
-      <c r="O83" s="26"/>
-      <c r="P83" s="26"/>
-      <c r="Q83" s="21"/>
-      <c r="R83" s="26"/>
-      <c r="S83" s="26"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
     </row>
     <row r="84" spans="1:19" ht="27">
       <c r="A84" s="10" t="s">
@@ -12201,11 +13441,11 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="O84" s="26"/>
-      <c r="P84" s="26"/>
-      <c r="Q84" s="26"/>
-      <c r="R84" s="26"/>
-      <c r="S84" s="26"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="20"/>
+      <c r="S84" s="20"/>
     </row>
     <row r="85" spans="1:19" ht="27">
       <c r="A85" s="10" t="s">
@@ -12231,11 +13471,11 @@
         <f t="shared" si="12"/>
         <v>0.42405063291139239</v>
       </c>
-      <c r="O85" s="26"/>
-      <c r="P85" s="26"/>
-      <c r="Q85" s="26"/>
-      <c r="R85" s="26"/>
-      <c r="S85" s="26"/>
+      <c r="O85" s="20"/>
+      <c r="P85" s="20"/>
+      <c r="Q85" s="20"/>
+      <c r="R85" s="20"/>
+      <c r="S85" s="20"/>
     </row>
     <row r="86" spans="1:19" ht="27">
       <c r="A86" s="10" t="s">
@@ -12261,29 +13501,29 @@
         <f t="shared" si="13"/>
         <v>1.8987341772151899E-2</v>
       </c>
-      <c r="O86" s="26"/>
-      <c r="P86" s="26"/>
-      <c r="Q86" s="26"/>
-      <c r="R86" s="26"/>
-      <c r="S86" s="26"/>
+      <c r="O86" s="20"/>
+      <c r="P86" s="20"/>
+      <c r="Q86" s="20"/>
+      <c r="R86" s="20"/>
+      <c r="S86" s="20"/>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="10"/>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="10"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="16"/>
-      <c r="E88" s="15" t="s">
+      <c r="B88" s="26"/>
+      <c r="C88" s="27"/>
+      <c r="E88" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F88" s="16" t="s">
+      <c r="F88" s="27" t="s">
         <v>25</v>
       </c>
     </row>
@@ -12298,8 +13538,8 @@
       <c r="C89" s="7">
         <v>1616</v>
       </c>
-      <c r="E89" s="15"/>
-      <c r="F89" s="16"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="27"/>
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="10" t="s">
@@ -12430,19 +13670,19 @@
       <c r="A98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="18" t="s">
+      <c r="D98" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E98" s="18" t="s">
+      <c r="E98" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F98" s="18" t="s">
+      <c r="F98" s="28" t="s">
         <v>1</v>
       </c>
     </row>
@@ -12450,11 +13690,11 @@
       <c r="A99" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
       <c r="G99" t="s">
         <v>26</v>
       </c>
@@ -12466,19 +13706,19 @@
       <c r="A100" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="24">
+      <c r="B100" s="18">
         <v>10686</v>
       </c>
-      <c r="C100" s="24">
+      <c r="C100" s="18">
         <v>1552</v>
       </c>
-      <c r="D100" s="24">
+      <c r="D100" s="18">
         <v>517</v>
       </c>
-      <c r="E100" s="24">
+      <c r="E100" s="18">
         <v>76</v>
       </c>
-      <c r="F100" s="24">
+      <c r="F100" s="18">
         <v>158</v>
       </c>
       <c r="G100" s="9">
@@ -12490,19 +13730,19 @@
       <c r="A101" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B101" s="24">
+      <c r="B101" s="18">
         <v>6119</v>
       </c>
-      <c r="C101" s="24">
+      <c r="C101" s="18">
         <v>157</v>
       </c>
-      <c r="D101" s="24">
+      <c r="D101" s="18">
         <v>12</v>
       </c>
-      <c r="E101" s="24">
+      <c r="E101" s="18">
         <v>60</v>
       </c>
-      <c r="F101" s="24">
+      <c r="F101" s="18">
         <v>84</v>
       </c>
       <c r="G101" s="9">
@@ -12517,19 +13757,19 @@
       <c r="A102" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B102" s="24">
+      <c r="B102" s="18">
         <v>377</v>
       </c>
-      <c r="C102" s="24">
+      <c r="C102" s="18">
         <v>63</v>
       </c>
-      <c r="D102" s="24">
+      <c r="D102" s="18">
         <v>9</v>
       </c>
-      <c r="E102" s="24">
+      <c r="E102" s="18">
         <v>4</v>
       </c>
-      <c r="F102" s="24">
+      <c r="F102" s="18">
         <v>4</v>
       </c>
       <c r="G102" s="9">
@@ -12543,19 +13783,19 @@
       <c r="A103" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B103" s="24">
+      <c r="B103" s="18">
         <v>0</v>
       </c>
-      <c r="C103" s="24">
+      <c r="C103" s="18">
         <v>0</v>
       </c>
-      <c r="D103" s="24">
+      <c r="D103" s="18">
         <v>0</v>
       </c>
-      <c r="E103" s="24">
+      <c r="E103" s="18">
         <v>0</v>
       </c>
-      <c r="F103" s="24">
+      <c r="F103" s="18">
         <v>0</v>
       </c>
       <c r="G103" s="9">
@@ -12569,19 +13809,19 @@
       <c r="A104" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B104" s="24">
+      <c r="B104" s="18">
         <v>4104</v>
       </c>
-      <c r="C104" s="24">
+      <c r="C104" s="18">
         <v>1240</v>
       </c>
-      <c r="D104" s="24">
+      <c r="D104" s="18">
         <v>465</v>
       </c>
-      <c r="E104" s="24">
+      <c r="E104" s="18">
         <v>12</v>
       </c>
-      <c r="F104" s="24">
+      <c r="F104" s="18">
         <v>68</v>
       </c>
       <c r="G104" s="9">
@@ -12596,19 +13836,19 @@
       <c r="A105" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B105" s="24">
+      <c r="B105" s="18">
         <v>86</v>
       </c>
-      <c r="C105" s="24">
+      <c r="C105" s="18">
         <v>92</v>
       </c>
-      <c r="D105" s="24">
+      <c r="D105" s="18">
         <v>31</v>
       </c>
-      <c r="E105" s="24">
+      <c r="E105" s="18">
         <v>0</v>
       </c>
-      <c r="F105" s="24">
+      <c r="F105" s="18">
         <v>2</v>
       </c>
       <c r="G105" s="9">
@@ -12621,28 +13861,28 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="8"/>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D106" s="18" t="s">
+      <c r="D106" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E106" s="18" t="s">
+      <c r="E106" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F106" s="18" t="s">
+      <c r="F106" s="28" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="10" t="s">
@@ -12771,21 +14011,21 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="10"/>
-      <c r="B114" s="15" t="s">
+      <c r="B114" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="16" t="s">
+      <c r="C114" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="10"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="16"/>
-      <c r="E115" s="15" t="s">
+      <c r="B115" s="26"/>
+      <c r="C115" s="27"/>
+      <c r="E115" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F115" s="16" t="s">
+      <c r="F115" s="27" t="s">
         <v>25</v>
       </c>
     </row>
@@ -12801,8 +14041,8 @@
         <f>1830+102</f>
         <v>1932</v>
       </c>
-      <c r="E116" s="15"/>
-      <c r="F116" s="16"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="27"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="10" t="s">
@@ -12915,56 +14155,56 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="26">
-      <c r="A126" s="20" t="s">
+      <c r="A126" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B126" s="20"/>
-      <c r="C126" s="20"/>
-      <c r="D126" s="20"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="20"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="25"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="B127" s="19" t="s">
+      <c r="B127" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="19" t="s">
+      <c r="C127" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D127" s="19" t="s">
+      <c r="D127" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E127" s="19" t="s">
+      <c r="E127" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F127" s="19" t="s">
+      <c r="F127" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="B128" s="19"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="19"/>
-      <c r="E128" s="19"/>
-      <c r="F128" s="19"/>
+      <c r="B128" s="22"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
     </row>
     <row r="129" spans="1:6" ht="21">
       <c r="A129" t="s">
         <v>30</v>
       </c>
-      <c r="B129" s="22">
+      <c r="B129" s="16">
         <v>9705</v>
       </c>
-      <c r="C129" s="22">
+      <c r="C129" s="16">
         <v>680</v>
       </c>
-      <c r="D129" s="22">
+      <c r="D129" s="16">
         <v>491</v>
       </c>
-      <c r="E129" s="22">
+      <c r="E129" s="16">
         <v>110</v>
       </c>
-      <c r="F129" s="22">
+      <c r="F129" s="16">
         <v>153</v>
       </c>
     </row>
@@ -12972,19 +14212,19 @@
       <c r="A130" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B130" s="22">
+      <c r="B130" s="16">
         <v>6146</v>
       </c>
-      <c r="C130" s="22">
+      <c r="C130" s="16">
         <v>112</v>
       </c>
-      <c r="D130" s="22">
+      <c r="D130" s="16">
         <v>22</v>
       </c>
-      <c r="E130" s="22">
+      <c r="E130" s="16">
         <v>46</v>
       </c>
-      <c r="F130" s="22">
+      <c r="F130" s="16">
         <v>77</v>
       </c>
     </row>
@@ -12992,19 +14232,19 @@
       <c r="A131" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B131" s="22">
+      <c r="B131" s="16">
         <v>250</v>
       </c>
-      <c r="C131" s="22">
+      <c r="C131" s="16">
         <v>40</v>
       </c>
-      <c r="D131" s="22">
+      <c r="D131" s="16">
         <v>25</v>
       </c>
-      <c r="E131" s="22">
+      <c r="E131" s="16">
         <v>9</v>
       </c>
-      <c r="F131" s="22">
+      <c r="F131" s="16">
         <v>2</v>
       </c>
     </row>
@@ -13012,19 +14252,19 @@
       <c r="A132" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B132" s="22">
+      <c r="B132" s="16">
         <v>2977</v>
       </c>
-      <c r="C132" s="22">
+      <c r="C132" s="16">
         <v>361</v>
       </c>
-      <c r="D132" s="22">
+      <c r="D132" s="16">
         <v>271</v>
       </c>
-      <c r="E132" s="22">
+      <c r="E132" s="16">
         <v>46</v>
       </c>
-      <c r="F132" s="22">
+      <c r="F132" s="16">
         <v>70</v>
       </c>
     </row>
@@ -13032,46 +14272,46 @@
       <c r="A133" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B133" s="22">
+      <c r="B133" s="16">
         <v>332</v>
       </c>
-      <c r="C133" s="22">
+      <c r="C133" s="16">
         <v>167</v>
       </c>
-      <c r="D133" s="22">
+      <c r="D133" s="16">
         <v>173</v>
       </c>
-      <c r="E133" s="22">
+      <c r="E133" s="16">
         <v>9</v>
       </c>
-      <c r="F133" s="22">
+      <c r="F133" s="16">
         <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="13"/>
-      <c r="B134" s="19" t="s">
+      <c r="B134" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C134" s="19" t="s">
+      <c r="C134" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D134" s="19" t="s">
+      <c r="D134" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E134" s="19" t="s">
+      <c r="E134" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F134" s="19" t="s">
+      <c r="F134" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="B135" s="19"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="19"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="22"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="11" t="s">
@@ -13174,46 +14414,46 @@
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="B144" s="19" t="s">
+      <c r="B144" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C144" s="19" t="s">
+      <c r="C144" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D144" s="19" t="s">
+      <c r="D144" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E144" s="19" t="s">
+      <c r="E144" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F144" s="19" t="s">
+      <c r="F144" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="B145" s="19"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="19"/>
+      <c r="B145" s="22"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="22"/>
+      <c r="E145" s="22"/>
+      <c r="F145" s="22"/>
     </row>
     <row r="146" spans="1:6" ht="21">
       <c r="A146" t="s">
         <v>30</v>
       </c>
-      <c r="B146" s="22">
+      <c r="B146" s="16">
         <v>9417</v>
       </c>
-      <c r="C146" s="22">
+      <c r="C146" s="16">
         <v>732</v>
       </c>
-      <c r="D146" s="22">
+      <c r="D146" s="16">
         <v>477</v>
       </c>
-      <c r="E146" s="22">
+      <c r="E146" s="16">
         <v>123</v>
       </c>
-      <c r="F146" s="22">
+      <c r="F146" s="16">
         <v>147</v>
       </c>
     </row>
@@ -13221,19 +14461,19 @@
       <c r="A147" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B147" s="22">
+      <c r="B147" s="16">
         <v>6151</v>
       </c>
-      <c r="C147" s="22">
+      <c r="C147" s="16">
         <v>106</v>
       </c>
-      <c r="D147" s="22">
+      <c r="D147" s="16">
         <v>17</v>
       </c>
-      <c r="E147" s="22">
+      <c r="E147" s="16">
         <v>46</v>
       </c>
-      <c r="F147" s="22">
+      <c r="F147" s="16">
         <v>78</v>
       </c>
     </row>
@@ -13241,19 +14481,19 @@
       <c r="A148" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B148" s="22">
+      <c r="B148" s="16">
         <v>260</v>
       </c>
-      <c r="C148" s="22">
+      <c r="C148" s="16">
         <v>45</v>
       </c>
-      <c r="D148" s="22">
+      <c r="D148" s="16">
         <v>20</v>
       </c>
-      <c r="E148" s="22">
+      <c r="E148" s="16">
         <v>9</v>
       </c>
-      <c r="F148" s="22">
+      <c r="F148" s="16">
         <v>1</v>
       </c>
     </row>
@@ -13261,19 +14501,19 @@
       <c r="A149" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B149" s="22">
+      <c r="B149" s="16">
         <v>3006</v>
       </c>
-      <c r="C149" s="22">
+      <c r="C149" s="16">
         <v>407</v>
       </c>
-      <c r="D149" s="22">
+      <c r="D149" s="16">
         <v>283</v>
       </c>
-      <c r="E149" s="22">
+      <c r="E149" s="16">
         <v>57</v>
       </c>
-      <c r="F149" s="22">
+      <c r="F149" s="16">
         <v>65</v>
       </c>
     </row>
@@ -13281,47 +14521,47 @@
       <c r="A150" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B150" s="22">
+      <c r="B150" s="16">
         <v>0</v>
       </c>
-      <c r="C150" s="22">
+      <c r="C150" s="16">
         <v>174</v>
       </c>
-      <c r="D150" s="22">
+      <c r="D150" s="16">
         <v>157</v>
       </c>
-      <c r="E150" s="22">
+      <c r="E150" s="16">
         <v>11</v>
       </c>
-      <c r="F150" s="22">
+      <c r="F150" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="17"/>
-      <c r="B152" s="19" t="s">
+      <c r="A152" s="23"/>
+      <c r="B152" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C152" s="19" t="s">
+      <c r="C152" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D152" s="19" t="s">
+      <c r="D152" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E152" s="19" t="s">
+      <c r="E152" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F152" s="19" t="s">
+      <c r="F152" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="17"/>
-      <c r="B153" s="19"/>
-      <c r="C153" s="19"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
+      <c r="A153" s="23"/>
+      <c r="B153" s="22"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="22"/>
+      <c r="E153" s="22"/>
+      <c r="F153" s="22"/>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="11" t="s">
@@ -13430,53 +14670,53 @@
       <c r="A159" s="11"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="B162" s="28" t="s">
+      <c r="B162" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
-      <c r="E162" s="17"/>
+      <c r="C162" s="23"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="23"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="B163" s="17"/>
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="17"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="23"/>
+      <c r="D163" s="23"/>
+      <c r="E163" s="23"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="B164" s="19" t="s">
+      <c r="B164" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C164" s="19" t="s">
+      <c r="C164" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D164" s="19" t="s">
+      <c r="D164" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E164" s="19" t="s">
+      <c r="E164" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:5">
-      <c r="B165" s="19"/>
-      <c r="C165" s="19"/>
-      <c r="D165" s="19"/>
-      <c r="E165" s="19"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
     </row>
     <row r="166" spans="1:5" ht="18">
       <c r="A166" t="s">
         <v>30</v>
       </c>
-      <c r="B166" s="27">
+      <c r="B166" s="21">
         <v>10326</v>
       </c>
-      <c r="C166" s="27">
+      <c r="C166" s="21">
         <v>349</v>
       </c>
-      <c r="D166" s="27">
+      <c r="D166" s="21">
         <v>101</v>
       </c>
-      <c r="E166" s="27">
+      <c r="E166" s="21">
         <v>216</v>
       </c>
     </row>
@@ -13484,16 +14724,16 @@
       <c r="A167" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B167" s="27">
+      <c r="B167" s="21">
         <v>6092</v>
       </c>
-      <c r="C167" s="27">
+      <c r="C167" s="21">
         <v>138</v>
       </c>
-      <c r="D167" s="27">
+      <c r="D167" s="21">
         <v>2</v>
       </c>
-      <c r="E167" s="27">
+      <c r="E167" s="21">
         <v>104</v>
       </c>
     </row>
@@ -13501,16 +14741,16 @@
       <c r="A168" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B168" s="27">
+      <c r="B168" s="21">
         <v>353</v>
       </c>
-      <c r="C168" s="27">
+      <c r="C168" s="21">
         <v>21</v>
       </c>
-      <c r="D168" s="27">
+      <c r="D168" s="21">
         <v>5</v>
       </c>
-      <c r="E168" s="27">
+      <c r="E168" s="21">
         <v>9</v>
       </c>
     </row>
@@ -13518,16 +14758,16 @@
       <c r="A169" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B169" s="27">
+      <c r="B169" s="21">
         <v>3652</v>
       </c>
-      <c r="C169" s="27">
+      <c r="C169" s="21">
         <v>148</v>
       </c>
-      <c r="D169" s="27">
+      <c r="D169" s="21">
         <v>66</v>
       </c>
-      <c r="E169" s="27">
+      <c r="E169" s="21">
         <v>100</v>
       </c>
     </row>
@@ -13535,40 +14775,40 @@
       <c r="A170" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B170" s="27">
+      <c r="B170" s="21">
         <v>229</v>
       </c>
-      <c r="C170" s="27">
+      <c r="C170" s="21">
         <v>42</v>
       </c>
-      <c r="D170" s="27">
+      <c r="D170" s="21">
         <v>28</v>
       </c>
-      <c r="E170" s="27">
+      <c r="E170" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="17"/>
-      <c r="B171" s="19" t="s">
+      <c r="A171" s="23"/>
+      <c r="B171" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="19" t="s">
+      <c r="C171" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D171" s="19" t="s">
+      <c r="D171" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E171" s="19" t="s">
+      <c r="E171" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="17"/>
-      <c r="B172" s="19"/>
-      <c r="C172" s="19"/>
-      <c r="D172" s="19"/>
-      <c r="E172" s="19"/>
+      <c r="A172" s="23"/>
+      <c r="B172" s="22"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="22"/>
+      <c r="E172" s="22"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="11" t="s">
@@ -13654,57 +14894,294 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
+    <row r="186" spans="1:7">
+      <c r="C186" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D186" s="23"/>
+      <c r="E186" s="23"/>
+      <c r="F186" s="23"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="C187" s="23"/>
+      <c r="D187" s="23"/>
+      <c r="E187" s="23"/>
+      <c r="F187" s="23"/>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="B189" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" t="s">
+        <v>35</v>
+      </c>
+      <c r="D189" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189" t="s">
+        <v>36</v>
+      </c>
+      <c r="F189" t="s">
+        <v>37</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="21">
+      <c r="A190" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B190" s="17">
+        <v>12292</v>
+      </c>
+      <c r="C190" s="17">
+        <v>2817</v>
+      </c>
+      <c r="D190" s="17">
+        <v>1504</v>
+      </c>
+      <c r="E190" s="17">
+        <v>24</v>
+      </c>
+      <c r="F190" s="17">
+        <v>294</v>
+      </c>
+      <c r="G190" s="17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="21">
+      <c r="A191" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B191" s="17">
+        <v>5840</v>
+      </c>
+      <c r="C191" s="17">
+        <v>219</v>
+      </c>
+      <c r="D191" s="17">
+        <v>54</v>
+      </c>
+      <c r="E191" s="17">
+        <v>20</v>
+      </c>
+      <c r="F191" s="17">
+        <v>224</v>
+      </c>
+      <c r="G191" s="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="21">
+      <c r="A192" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B192" s="17">
+        <v>337</v>
+      </c>
+      <c r="C192" s="17">
+        <v>74</v>
+      </c>
+      <c r="D192" s="17">
+        <v>42</v>
+      </c>
+      <c r="E192" s="17">
+        <v>0</v>
+      </c>
+      <c r="F192" s="17">
+        <v>3</v>
+      </c>
+      <c r="G192" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="21">
+      <c r="A193" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B193" s="17">
+        <v>4717</v>
+      </c>
+      <c r="C193" s="17">
+        <v>1355</v>
+      </c>
+      <c r="D193" s="17">
+        <v>684</v>
+      </c>
+      <c r="E193" s="17">
+        <v>4</v>
+      </c>
+      <c r="F193" s="17">
+        <v>63</v>
+      </c>
+      <c r="G193" s="17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="21">
+      <c r="A194" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B194" s="17">
+        <v>1398</v>
+      </c>
+      <c r="C194" s="17">
+        <v>1169</v>
+      </c>
+      <c r="D194" s="17">
+        <v>724</v>
+      </c>
+      <c r="E194" s="17">
+        <v>0</v>
+      </c>
+      <c r="F194" s="17">
+        <v>4</v>
+      </c>
+      <c r="G194" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="B196" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" t="s">
+        <v>35</v>
+      </c>
+      <c r="D196" t="s">
+        <v>14</v>
+      </c>
+      <c r="E196" t="s">
+        <v>36</v>
+      </c>
+      <c r="F196" t="s">
+        <v>37</v>
+      </c>
+      <c r="G196" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="21">
+      <c r="A197" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B197">
+        <f>B191/B190</f>
+        <v>0.47510575984380082</v>
+      </c>
+      <c r="C197">
+        <f t="shared" ref="C197:G197" si="31">C191/C190</f>
+        <v>7.7742279020234298E-2</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="31"/>
+        <v>3.5904255319148939E-2</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="31"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="31"/>
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="31"/>
+        <v>0.44067796610169491</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="21">
+      <c r="A198" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B198">
+        <f>B192/B190</f>
+        <v>2.7416205662219331E-2</v>
+      </c>
+      <c r="C198">
+        <f t="shared" ref="C198:G198" si="32">C192/C190</f>
+        <v>2.6269080582179624E-2</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="32"/>
+        <v>2.7925531914893616E-2</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="32"/>
+        <v>1.020408163265306E-2</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="32"/>
+        <v>1.6949152542372881E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="21">
+      <c r="A199" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B199">
+        <f>B193/B190</f>
+        <v>0.38374552554506997</v>
+      </c>
+      <c r="C199">
+        <f t="shared" ref="C199:G199" si="33">C193/C190</f>
+        <v>0.48100816471423502</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="33"/>
+        <v>0.45478723404255317</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="33"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="33"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="33"/>
+        <v>0.49152542372881358</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="21">
+      <c r="A200" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B200">
+        <f>B194/B190</f>
+        <v>0.11373250894890986</v>
+      </c>
+      <c r="C200">
+        <f t="shared" ref="C200:G200" si="34">C194/C190</f>
+        <v>0.41498047568335106</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="34"/>
+        <v>0.48138297872340424</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="34"/>
+        <v>1.3605442176870748E-2</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="34"/>
+        <v>5.0847457627118647E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="B162:E163"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
+  <mergeCells count="65">
+    <mergeCell ref="C186:F187"/>
     <mergeCell ref="B114:B115"/>
     <mergeCell ref="C114:C115"/>
     <mergeCell ref="E115:E116"/>
@@ -13720,6 +15197,55 @@
     <mergeCell ref="D106:D107"/>
     <mergeCell ref="E106:E107"/>
     <mergeCell ref="F106:F107"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="B162:E163"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="A171:A172"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/output/figures/compare_toTG_figure.xlsx
+++ b/output/figures/compare_toTG_figure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wen-Juan/Dropbox (Amherst College)/Amherst_postdoc/github/Haploidselection_and_dosagecompensation_in_Microbotryum/output/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19912768-49DE-3440-81A7-3E49C9B3AECC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492FD080-B886-9141-8E1C-40B8718CFDC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="40060" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="39">
   <si>
     <t>category</t>
   </si>
@@ -143,12 +143,15 @@
   <si>
     <t>white stratum</t>
   </si>
+  <si>
+    <t>+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -253,6 +256,13 @@
       <name val="Calibri (Body)_x0000_"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -262,6 +272,12 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
       <family val="2"/>
@@ -341,7 +357,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -406,7 +422,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2547,9 +2570,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11085241765553953"/>
+          <c:x val="9.1486220472440941E-2"/>
           <c:y val="0.12376506024096387"/>
-          <c:w val="0.72365462459798158"/>
+          <c:w val="0.7430208217810802"/>
           <c:h val="0.74950787401574803"/>
         </c:manualLayout>
       </c:layout>
@@ -2978,6 +3001,102 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Percentage of each ortholog category</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2940140845070423E-2"/>
+              <c:y val="0.21504008158618726"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3047,6 +3166,767 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" i="1"/>
+              <a:t>M. paradoxa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43389178595419636"/>
+          <c:y val="2.3569023569023569E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3996149557822433E-2"/>
+          <c:y val="0.14464248787083434"/>
+          <c:w val="0.76257868821806241"/>
+          <c:h val="0.66933387940601385"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$211</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single-copy ortholog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$210:$G$210</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pink stratum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>white stratum</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$211:$G$211</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.52825688073394494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6629001883239173E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9165526675786596E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74832214765100669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43333333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F5B-3349-BCA1-1CFD1CB75B5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$212</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>orthologs with paralogs (with more than one copy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$210:$G$210</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pink stratum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>white stratum</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$212:$G$212</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.6880733944954129E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1207963411353241E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0095759233926128E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3422818791946308E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6666666666666666E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6F5B-3349-BCA1-1CFD1CB75B5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$213</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gene gain (only in M.caroliniana)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F06F07"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$210:$G$210</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pink stratum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>white stratum</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$213:$G$213</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.37467889908256879</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4872208770513855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45109439124487005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21476510067114093</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53333333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6F5B-3349-BCA1-1CFD1CB75B5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$214</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not listed in orthologs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$210:$G$210</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pink stratum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>white stratum</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$214:$G$214</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.0183486238532114E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39494215765402207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45964432284541723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3489932885906041E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6666666666666666E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6F5B-3349-BCA1-1CFD1CB75B5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="502079119"/>
+        <c:axId val="383558287"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="502079119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383558287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="383558287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Percentage of each ortholog category</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="502079119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.84285639097223664"/>
+          <c:y val="0.20385826771653542"/>
+          <c:w val="0.15529650482344057"/>
+          <c:h val="0.62000689307775936"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -7661,6 +8541,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -11197,6 +12117,511 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12135,6 +13560,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABDB51E-98C4-D24C-9220-4149415280C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12435,10 +13896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S200"/>
+  <dimension ref="A1:S214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="Q182" sqref="Q182"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="R193" sqref="R193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14894,7 +16355,12 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="182" spans="1:17">
+      <c r="Q182" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17">
       <c r="C186" s="24" t="s">
         <v>34</v>
       </c>
@@ -14902,13 +16368,13 @@
       <c r="E186" s="23"/>
       <c r="F186" s="23"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:17">
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
       <c r="E187" s="23"/>
       <c r="F187" s="23"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:17">
       <c r="B189" t="s">
         <v>3</v>
       </c>
@@ -14928,8 +16394,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="21">
-      <c r="A190" s="29" t="s">
+    <row r="190" spans="1:17" ht="21">
+      <c r="A190" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B190" s="17">
@@ -14951,8 +16417,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="21">
-      <c r="A191" s="30" t="s">
+    <row r="191" spans="1:17" ht="21">
+      <c r="A191" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B191" s="17">
@@ -14974,8 +16440,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="21">
-      <c r="A192" s="30" t="s">
+    <row r="192" spans="1:17" ht="21">
+      <c r="A192" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B192" s="17">
@@ -14998,7 +16464,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" ht="21">
-      <c r="A193" s="30" t="s">
+      <c r="A193" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B193" s="17">
@@ -15021,7 +16487,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" ht="21">
-      <c r="A194" s="30" t="s">
+      <c r="A194" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B194" s="17">
@@ -15064,7 +16530,7 @@
       </c>
     </row>
     <row r="197" spans="1:7" ht="21">
-      <c r="A197" s="30" t="s">
+      <c r="A197" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B197">
@@ -15093,7 +16559,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" ht="21">
-      <c r="A198" s="30" t="s">
+      <c r="A198" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B198">
@@ -15122,7 +16588,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" ht="21">
-      <c r="A199" s="30" t="s">
+      <c r="A199" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B199">
@@ -15151,7 +16617,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" ht="21">
-      <c r="A200" s="30" t="s">
+      <c r="A200" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B200">
@@ -15177,6 +16643,277 @@
       <c r="G200">
         <f t="shared" si="34"/>
         <v>5.0847457627118647E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="B203" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" t="s">
+        <v>35</v>
+      </c>
+      <c r="D203" t="s">
+        <v>14</v>
+      </c>
+      <c r="E203" t="s">
+        <v>36</v>
+      </c>
+      <c r="F203" t="s">
+        <v>37</v>
+      </c>
+      <c r="G203" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="18">
+      <c r="A204" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B204" s="32">
+        <v>10900</v>
+      </c>
+      <c r="C204" s="32">
+        <v>3717</v>
+      </c>
+      <c r="D204" s="32">
+        <v>2924</v>
+      </c>
+      <c r="E204" s="32">
+        <v>24</v>
+      </c>
+      <c r="F204" s="32">
+        <v>298</v>
+      </c>
+      <c r="G204" s="32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="18">
+      <c r="A205" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B205" s="32">
+        <v>5758</v>
+      </c>
+      <c r="C205" s="32">
+        <v>322</v>
+      </c>
+      <c r="D205" s="32">
+        <v>173</v>
+      </c>
+      <c r="E205" s="32">
+        <v>20</v>
+      </c>
+      <c r="F205" s="32">
+        <v>223</v>
+      </c>
+      <c r="G205" s="32">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="18">
+      <c r="A206" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B206" s="32">
+        <v>293</v>
+      </c>
+      <c r="C206" s="32">
+        <v>116</v>
+      </c>
+      <c r="D206" s="32">
+        <v>88</v>
+      </c>
+      <c r="E206" s="32">
+        <v>0</v>
+      </c>
+      <c r="F206" s="32">
+        <v>4</v>
+      </c>
+      <c r="G206" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="18">
+      <c r="A207" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B207" s="32">
+        <v>4084</v>
+      </c>
+      <c r="C207" s="32">
+        <v>1811</v>
+      </c>
+      <c r="D207" s="32">
+        <v>1319</v>
+      </c>
+      <c r="E207" s="32">
+        <v>3</v>
+      </c>
+      <c r="F207" s="32">
+        <v>64</v>
+      </c>
+      <c r="G207" s="32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="18">
+      <c r="A208" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B208" s="32">
+        <v>765</v>
+      </c>
+      <c r="C208" s="32">
+        <v>1468</v>
+      </c>
+      <c r="D208" s="32">
+        <v>1344</v>
+      </c>
+      <c r="E208" s="32">
+        <v>1</v>
+      </c>
+      <c r="F208" s="32">
+        <v>7</v>
+      </c>
+      <c r="G208" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="B210" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" t="s">
+        <v>35</v>
+      </c>
+      <c r="D210" t="s">
+        <v>14</v>
+      </c>
+      <c r="E210" t="s">
+        <v>36</v>
+      </c>
+      <c r="F210" t="s">
+        <v>37</v>
+      </c>
+      <c r="G210" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B211">
+        <f>B205/B204</f>
+        <v>0.52825688073394494</v>
+      </c>
+      <c r="C211">
+        <f t="shared" ref="C211:G211" si="35">C205/C204</f>
+        <v>8.6629001883239173E-2</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="35"/>
+        <v>5.9165526675786596E-2</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="35"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="35"/>
+        <v>0.74832214765100669</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="35"/>
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B212">
+        <f>B206/B204</f>
+        <v>2.6880733944954129E-2</v>
+      </c>
+      <c r="C212">
+        <f t="shared" ref="C212:G212" si="36">C206/C204</f>
+        <v>3.1207963411353241E-2</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="36"/>
+        <v>3.0095759233926128E-2</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="36"/>
+        <v>1.3422818791946308E-2</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="36"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B213">
+        <f>B207/B204</f>
+        <v>0.37467889908256879</v>
+      </c>
+      <c r="C213">
+        <f t="shared" ref="C213:G213" si="37">C207/C204</f>
+        <v>0.4872208770513855</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="37"/>
+        <v>0.45109439124487005</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="37"/>
+        <v>0.125</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="37"/>
+        <v>0.21476510067114093</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="37"/>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B214">
+        <f>B208/B204</f>
+        <v>7.0183486238532114E-2</v>
+      </c>
+      <c r="C214">
+        <f t="shared" ref="C214:G214" si="38">C208/C204</f>
+        <v>0.39494215765402207</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="38"/>
+        <v>0.45964432284541723</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="38"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="38"/>
+        <v>2.3489932885906041E-2</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="38"/>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
   </sheetData>

--- a/output/figures/compare_toTG_figure.xlsx
+++ b/output/figures/compare_toTG_figure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wen-Juan/Dropbox (Amherst College)/Amherst_postdoc/github/Haploidselection_and_dosagecompensation_in_Microbotryum/output/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492FD080-B886-9141-8E1C-40B8718CFDC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7471C4F-80DD-9F43-B55B-6385B50EC523}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="40060" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="40">
   <si>
     <t>category</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>M. scabiosae</t>
   </si>
 </sst>
 </file>
@@ -357,7 +360,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -403,24 +406,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -431,6 +418,25 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -1993,7 +1999,7 @@
                   <c:v>1.9801980198019802E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48148148148148145</c:v>
+                  <c:v>0.53235294117647058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2066,7 +2072,7 @@
                   <c:v>4.9504950495049507E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1666666666666664E-2</c:v>
+                  <c:v>3.8235294117647062E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2137,7 +2143,7 @@
                   <c:v>0.65346534653465349</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46296296296296297</c:v>
+                  <c:v>0.4088235294117647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2210,7 +2216,7 @@
                   <c:v>0.27722772277227725</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3888888888888888E-2</c:v>
+                  <c:v>2.0588235294117647E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2415,10 +2421,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.81822288742832761"/>
-          <c:y val="0.28199334458192726"/>
-          <c:w val="0.17714467509743104"/>
-          <c:h val="0.60491141732283449"/>
+          <c:x val="0.80817267439560003"/>
+          <c:y val="0.21222591362126242"/>
+          <c:w val="0.18719487199778423"/>
+          <c:h val="0.67467889188270069"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2585,7 +2591,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$197</c:f>
+              <c:f>Sheet1!$A$221</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2606,7 +2612,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$196:$G$196</c:f>
+              <c:f>Sheet1!$B$220:$G$220</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2632,7 +2638,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$197:$G$197</c:f>
+              <c:f>Sheet1!$B$221:$G$221</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2668,7 +2674,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$198</c:f>
+              <c:f>Sheet1!$A$222</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2691,7 +2697,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$196:$G$196</c:f>
+              <c:f>Sheet1!$B$220:$G$220</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2717,7 +2723,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$198:$G$198</c:f>
+              <c:f>Sheet1!$B$222:$G$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2753,7 +2759,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$199</c:f>
+              <c:f>Sheet1!$A$223</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2774,7 +2780,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$196:$G$196</c:f>
+              <c:f>Sheet1!$B$220:$G$220</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2800,7 +2806,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$199:$G$199</c:f>
+              <c:f>Sheet1!$B$223:$G$223</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2836,7 +2842,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$200</c:f>
+              <c:f>Sheet1!$A$224</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2859,7 +2865,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$196:$G$196</c:f>
+              <c:f>Sheet1!$B$220:$G$220</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2885,7 +2891,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$200:$G$200</c:f>
+              <c:f>Sheet1!$B$224:$G$224</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3324,7 +3330,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$211</c:f>
+              <c:f>Sheet1!$A$235</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3345,7 +3351,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$210:$G$210</c:f>
+              <c:f>Sheet1!$B$234:$G$234</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3371,7 +3377,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$211:$G$211</c:f>
+              <c:f>Sheet1!$B$235:$G$235</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3407,7 +3413,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$212</c:f>
+              <c:f>Sheet1!$A$236</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3430,7 +3436,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$210:$G$210</c:f>
+              <c:f>Sheet1!$B$234:$G$234</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3456,7 +3462,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$212:$G$212</c:f>
+              <c:f>Sheet1!$B$236:$G$236</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3492,7 +3498,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$213</c:f>
+              <c:f>Sheet1!$A$237</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3513,7 +3519,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$210:$G$210</c:f>
+              <c:f>Sheet1!$B$234:$G$234</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3539,7 +3545,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$213:$G$213</c:f>
+              <c:f>Sheet1!$B$237:$G$237</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3575,7 +3581,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$214</c:f>
+              <c:f>Sheet1!$A$238</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3598,7 +3604,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$210:$G$210</c:f>
+              <c:f>Sheet1!$B$234:$G$234</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3624,7 +3630,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$214:$G$214</c:f>
+              <c:f>Sheet1!$B$238:$G$238</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3799,16 +3805,13 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr>
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:sysClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -3911,6 +3914,598 @@
           <c:y val="0.20385826771653542"/>
           <c:w val="0.15529650482344057"/>
           <c:h val="0.62000689307775936"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="0" i="1"/>
+              <a:t>M.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="0" i="1" baseline="0"/>
+              <a:t> acaulis</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000" b="0" i="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10320590512084699"/>
+          <c:y val="0.11917682926829269"/>
+          <c:w val="0.71284692194012012"/>
+          <c:h val="0.81619430574227003"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$190</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single-copy ortholog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$188:$E$189</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$190:$E$190</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.57577197149643711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37604456824512533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8301886792452831E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51008645533141206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6231-C34B-9FF7-D73B31D9E755}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$191</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>orthologs with paralogs (with more than one copy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$188:$E$189</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$191:$E$191</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.1330166270783848E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7493036211699163E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8301886792452831E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0518731988472622E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6231-C34B-9FF7-D73B31D9E755}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$192</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gene gain (only in M.caroliniana)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F06F07"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$188:$E$189</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$192:$E$192</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.35116389548693588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38718662952646238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59433962264150941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40345821325648418</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6231-C34B-9FF7-D73B31D9E755}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$193</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not listed in orthologs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$188:$E$189</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$193:$E$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.173396674584323E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1392757660167131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34905660377358488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5936599423631124E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6231-C34B-9FF7-D73B31D9E755}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="556775791"/>
+        <c:axId val="522081967"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="556775791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522081967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="522081967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556775791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82002502169850422"/>
+          <c:y val="0.25166002496639139"/>
+          <c:w val="0.17004449170765273"/>
+          <c:h val="0.55183214903015188"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8261,6 +8856,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8582,6 +9217,511 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13491,15 +14631,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:colOff>1136650</xdr:colOff>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13527,15 +14667,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13563,15 +14703,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13591,6 +14731,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45132ADD-F9F7-9943-AADF-7362DB1D5695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13896,10 +15072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S214"/>
+  <dimension ref="A1:S243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="R193" sqref="R193"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="Q242" sqref="Q242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13910,6 +15086,7 @@
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -14592,41 +15769,41 @@
       <c r="A72" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="22" t="s">
+      <c r="E72" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="22" t="s">
+      <c r="F72" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G72" s="23" t="s">
+      <c r="G72" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H72" s="23" t="s">
+      <c r="H72" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I72" s="23"/>
+      <c r="I72" s="29"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="10" t="s">
@@ -14793,30 +15970,30 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="23"/>
-      <c r="B80" s="22" t="s">
+      <c r="A80" s="29"/>
+      <c r="B80" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="22" t="s">
+      <c r="D80" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E80" s="22" t="s">
+      <c r="E80" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F80" s="22" t="s">
+      <c r="F80" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="23"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
+      <c r="A81" s="29"/>
+      <c r="B81" s="33"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
     </row>
     <row r="82" spans="1:19" ht="24">
       <c r="A82" s="10" t="s">
@@ -14970,21 +16147,21 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="10"/>
-      <c r="B87" s="26" t="s">
+      <c r="B87" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="10"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="27"/>
-      <c r="E88" s="26" t="s">
+      <c r="B88" s="30"/>
+      <c r="C88" s="31"/>
+      <c r="E88" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F88" s="27" t="s">
+      <c r="F88" s="31" t="s">
         <v>25</v>
       </c>
     </row>
@@ -14999,8 +16176,8 @@
       <c r="C89" s="7">
         <v>1616</v>
       </c>
-      <c r="E89" s="26"/>
-      <c r="F89" s="27"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="31"/>
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="10" t="s">
@@ -15131,19 +16308,19 @@
       <c r="A98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="28" t="s">
+      <c r="B98" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="28" t="s">
+      <c r="C98" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="28" t="s">
+      <c r="D98" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E98" s="28" t="s">
+      <c r="E98" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F98" s="28" t="s">
+      <c r="F98" s="32" t="s">
         <v>1</v>
       </c>
     </row>
@@ -15151,11 +16328,11 @@
       <c r="A99" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
       <c r="G99" t="s">
         <v>26</v>
       </c>
@@ -15322,28 +16499,28 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="8"/>
-      <c r="B106" s="28" t="s">
+      <c r="B106" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="28" t="s">
+      <c r="C106" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D106" s="28" t="s">
+      <c r="D106" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E106" s="28" t="s">
+      <c r="E106" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F106" s="28" t="s">
+      <c r="F106" s="32" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="10" t="s">
@@ -15472,21 +16649,21 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="10"/>
-      <c r="B114" s="26" t="s">
+      <c r="B114" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="27" t="s">
+      <c r="C114" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="10"/>
-      <c r="B115" s="26"/>
-      <c r="C115" s="27"/>
-      <c r="E115" s="26" t="s">
+      <c r="B115" s="30"/>
+      <c r="C115" s="31"/>
+      <c r="E115" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F115" s="27" t="s">
+      <c r="F115" s="31" t="s">
         <v>25</v>
       </c>
     </row>
@@ -15502,8 +16679,8 @@
         <f>1830+102</f>
         <v>1932</v>
       </c>
-      <c r="E116" s="26"/>
-      <c r="F116" s="27"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="31"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="10" t="s">
@@ -15616,38 +16793,38 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="26">
-      <c r="A126" s="25" t="s">
+      <c r="A126" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B126" s="25"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
-      <c r="E126" s="25"/>
-      <c r="F126" s="25"/>
+      <c r="B126" s="34"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="34"/>
+      <c r="F126" s="34"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="B127" s="22" t="s">
+      <c r="B127" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="22" t="s">
+      <c r="C127" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D127" s="22" t="s">
+      <c r="D127" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E127" s="22" t="s">
+      <c r="E127" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F127" s="22" t="s">
+      <c r="F127" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="B128" s="22"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22"/>
+      <c r="B128" s="33"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="33"/>
+      <c r="F128" s="33"/>
     </row>
     <row r="129" spans="1:6" ht="21">
       <c r="A129" t="s">
@@ -15751,28 +16928,28 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="13"/>
-      <c r="B134" s="22" t="s">
+      <c r="B134" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C134" s="22" t="s">
+      <c r="C134" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D134" s="22" t="s">
+      <c r="D134" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E134" s="22" t="s">
+      <c r="E134" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F134" s="22" t="s">
+      <c r="F134" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="B135" s="22"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="22"/>
-      <c r="E135" s="22"/>
-      <c r="F135" s="22"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
+      <c r="F135" s="33"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="11" t="s">
@@ -15875,28 +17052,28 @@
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="B144" s="22" t="s">
+      <c r="B144" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C144" s="22" t="s">
+      <c r="C144" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D144" s="22" t="s">
+      <c r="D144" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E144" s="22" t="s">
+      <c r="E144" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F144" s="22" t="s">
+      <c r="F144" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="B145" s="22"/>
-      <c r="C145" s="22"/>
-      <c r="D145" s="22"/>
-      <c r="E145" s="22"/>
-      <c r="F145" s="22"/>
+      <c r="B145" s="33"/>
+      <c r="C145" s="33"/>
+      <c r="D145" s="33"/>
+      <c r="E145" s="33"/>
+      <c r="F145" s="33"/>
     </row>
     <row r="146" spans="1:6" ht="21">
       <c r="A146" t="s">
@@ -15999,30 +17176,30 @@
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="23"/>
-      <c r="B152" s="22" t="s">
+      <c r="A152" s="29"/>
+      <c r="B152" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C152" s="22" t="s">
+      <c r="C152" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D152" s="22" t="s">
+      <c r="D152" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E152" s="22" t="s">
+      <c r="E152" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F152" s="22" t="s">
+      <c r="F152" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="23"/>
-      <c r="B153" s="22"/>
-      <c r="C153" s="22"/>
-      <c r="D153" s="22"/>
-      <c r="E153" s="22"/>
-      <c r="F153" s="22"/>
+      <c r="A153" s="29"/>
+      <c r="B153" s="33"/>
+      <c r="C153" s="33"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="33"/>
+      <c r="F153" s="33"/>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="11" t="s">
@@ -16131,38 +17308,38 @@
       <c r="A159" s="11"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="B162" s="24" t="s">
+      <c r="B162" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C162" s="23"/>
-      <c r="D162" s="23"/>
-      <c r="E162" s="23"/>
+      <c r="C162" s="29"/>
+      <c r="D162" s="29"/>
+      <c r="E162" s="29"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="B163" s="23"/>
-      <c r="C163" s="23"/>
-      <c r="D163" s="23"/>
-      <c r="E163" s="23"/>
+      <c r="B163" s="29"/>
+      <c r="C163" s="29"/>
+      <c r="D163" s="29"/>
+      <c r="E163" s="29"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="B164" s="22" t="s">
+      <c r="B164" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C164" s="22" t="s">
+      <c r="C164" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D164" s="22" t="s">
+      <c r="D164" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E164" s="22" t="s">
+      <c r="E164" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:5">
-      <c r="B165" s="22"/>
-      <c r="C165" s="22"/>
-      <c r="D165" s="22"/>
-      <c r="E165" s="22"/>
+      <c r="B165" s="33"/>
+      <c r="C165" s="33"/>
+      <c r="D165" s="33"/>
+      <c r="E165" s="33"/>
     </row>
     <row r="166" spans="1:5" ht="18">
       <c r="A166" t="s">
@@ -16178,7 +17355,7 @@
         <v>101</v>
       </c>
       <c r="E166" s="21">
-        <v>216</v>
+        <v>340</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="18">
@@ -16195,7 +17372,7 @@
         <v>2</v>
       </c>
       <c r="E167" s="21">
-        <v>104</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="18">
@@ -16212,7 +17389,7 @@
         <v>5</v>
       </c>
       <c r="E168" s="21">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="18">
@@ -16229,7 +17406,7 @@
         <v>66</v>
       </c>
       <c r="E169" s="21">
-        <v>100</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="18">
@@ -16246,30 +17423,30 @@
         <v>28</v>
       </c>
       <c r="E170" s="21">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="23"/>
-      <c r="B171" s="22" t="s">
+      <c r="A171" s="29"/>
+      <c r="B171" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="22" t="s">
+      <c r="C171" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D171" s="22" t="s">
+      <c r="D171" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E171" s="22" t="s">
+      <c r="E171" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="23"/>
-      <c r="B172" s="22"/>
-      <c r="C172" s="22"/>
-      <c r="D172" s="22"/>
-      <c r="E172" s="22"/>
+      <c r="A172" s="29"/>
+      <c r="B172" s="33"/>
+      <c r="C172" s="33"/>
+      <c r="D172" s="33"/>
+      <c r="E172" s="33"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="11" t="s">
@@ -16289,7 +17466,7 @@
       </c>
       <c r="E173">
         <f t="shared" si="27"/>
-        <v>0.48148148148148145</v>
+        <v>0.53235294117647058</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -16310,7 +17487,7 @@
       </c>
       <c r="E174">
         <f t="shared" si="28"/>
-        <v>4.1666666666666664E-2</v>
+        <v>3.8235294117647062E-2</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -16331,7 +17508,7 @@
       </c>
       <c r="E175">
         <f t="shared" si="29"/>
-        <v>0.46296296296296297</v>
+        <v>0.4088235294117647</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -16352,588 +17529,872 @@
       </c>
       <c r="E176">
         <f t="shared" si="30"/>
-        <v>1.3888888888888888E-2</v>
+        <v>2.0588235294117647E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:17">
-      <c r="Q182" t="s">
+    <row r="177" spans="1:5">
+      <c r="A177" s="22"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="22"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="22"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="22"/>
+      <c r="B180" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E180" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="22"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="33"/>
+    </row>
+    <row r="182" spans="1:5" ht="18">
+      <c r="A182" t="s">
+        <v>30</v>
+      </c>
+      <c r="B182" s="21">
+        <v>10525</v>
+      </c>
+      <c r="C182" s="21">
+        <v>359</v>
+      </c>
+      <c r="D182" s="21">
+        <v>106</v>
+      </c>
+      <c r="E182" s="21">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="18">
+      <c r="A183" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B183" s="21">
+        <v>6060</v>
+      </c>
+      <c r="C183" s="21">
+        <v>135</v>
+      </c>
+      <c r="D183" s="21">
+        <v>3</v>
+      </c>
+      <c r="E183" s="21">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="18">
+      <c r="A184" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B184" s="21">
+        <v>435</v>
+      </c>
+      <c r="C184" s="21">
+        <v>35</v>
+      </c>
+      <c r="D184" s="21">
+        <v>3</v>
+      </c>
+      <c r="E184" s="21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="18">
+      <c r="A185" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B185" s="21">
+        <v>3696</v>
+      </c>
+      <c r="C185" s="21">
+        <v>139</v>
+      </c>
+      <c r="D185" s="21">
+        <v>63</v>
+      </c>
+      <c r="E185" s="21">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="18">
+      <c r="A186" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B186" s="21">
+        <v>334</v>
+      </c>
+      <c r="C186" s="21">
+        <v>50</v>
+      </c>
+      <c r="D186" s="21">
+        <v>37</v>
+      </c>
+      <c r="E186" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="21">
+      <c r="A187" s="22"/>
+      <c r="B187" s="17"/>
+      <c r="C187" s="17"/>
+      <c r="D187" s="17"/>
+      <c r="E187" s="17"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="33"/>
+      <c r="B188" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="33"/>
+      <c r="B189" s="33"/>
+      <c r="C189" s="33"/>
+      <c r="D189" s="33"/>
+      <c r="E189" s="33"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B190">
+        <f>B183/B182</f>
+        <v>0.57577197149643711</v>
+      </c>
+      <c r="C190">
+        <f t="shared" ref="C190:E190" si="31">C183/C182</f>
+        <v>0.37604456824512533</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="31"/>
+        <v>2.8301886792452831E-2</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="31"/>
+        <v>0.51008645533141206</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B191">
+        <f>B184/B182</f>
+        <v>4.1330166270783848E-2</v>
+      </c>
+      <c r="C191">
+        <f t="shared" ref="C191:E191" si="32">C184/C182</f>
+        <v>9.7493036211699163E-2</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="32"/>
+        <v>2.8301886792452831E-2</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="32"/>
+        <v>6.0518731988472622E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B192">
+        <f>B185/B182</f>
+        <v>0.35116389548693588</v>
+      </c>
+      <c r="C192">
+        <f t="shared" ref="C192:E192" si="33">C185/C182</f>
+        <v>0.38718662952646238</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="33"/>
+        <v>0.59433962264150941</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="33"/>
+        <v>0.40345821325648418</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17">
+      <c r="A193" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B193">
+        <f>B186/B182</f>
+        <v>3.173396674584323E-2</v>
+      </c>
+      <c r="C193">
+        <f t="shared" ref="C193:E193" si="34">C186/C182</f>
+        <v>0.1392757660167131</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="34"/>
+        <v>0.34905660377358488</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="34"/>
+        <v>2.5936599423631124E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17">
+      <c r="A194" s="22"/>
+    </row>
+    <row r="195" spans="1:17">
+      <c r="A195" s="22"/>
+    </row>
+    <row r="196" spans="1:17">
+      <c r="A196" s="22"/>
+    </row>
+    <row r="197" spans="1:17">
+      <c r="A197" s="22"/>
+    </row>
+    <row r="198" spans="1:17">
+      <c r="A198" s="22"/>
+    </row>
+    <row r="199" spans="1:17">
+      <c r="A199" s="22"/>
+    </row>
+    <row r="200" spans="1:17">
+      <c r="A200" s="22"/>
+    </row>
+    <row r="206" spans="1:17">
+      <c r="Q206" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="186" spans="1:17">
-      <c r="C186" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D186" s="23"/>
-      <c r="E186" s="23"/>
-      <c r="F186" s="23"/>
-    </row>
-    <row r="187" spans="1:17">
-      <c r="C187" s="23"/>
-      <c r="D187" s="23"/>
-      <c r="E187" s="23"/>
-      <c r="F187" s="23"/>
-    </row>
-    <row r="189" spans="1:17">
-      <c r="B189" t="s">
-        <v>3</v>
-      </c>
-      <c r="C189" t="s">
-        <v>35</v>
-      </c>
-      <c r="D189" t="s">
-        <v>14</v>
-      </c>
-      <c r="E189" t="s">
-        <v>36</v>
-      </c>
-      <c r="F189" t="s">
-        <v>37</v>
-      </c>
-      <c r="G189" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:17" ht="21">
-      <c r="A190" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B190" s="17">
-        <v>12292</v>
-      </c>
-      <c r="C190" s="17">
-        <v>2817</v>
-      </c>
-      <c r="D190" s="17">
-        <v>1504</v>
-      </c>
-      <c r="E190" s="17">
-        <v>24</v>
-      </c>
-      <c r="F190" s="17">
-        <v>294</v>
-      </c>
-      <c r="G190" s="17">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="191" spans="1:17" ht="21">
-      <c r="A191" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B191" s="17">
-        <v>5840</v>
-      </c>
-      <c r="C191" s="17">
-        <v>219</v>
-      </c>
-      <c r="D191" s="17">
-        <v>54</v>
-      </c>
-      <c r="E191" s="17">
-        <v>20</v>
-      </c>
-      <c r="F191" s="17">
-        <v>224</v>
-      </c>
-      <c r="G191" s="17">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="192" spans="1:17" ht="21">
-      <c r="A192" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B192" s="17">
-        <v>337</v>
-      </c>
-      <c r="C192" s="17">
-        <v>74</v>
-      </c>
-      <c r="D192" s="17">
-        <v>42</v>
-      </c>
-      <c r="E192" s="17">
-        <v>0</v>
-      </c>
-      <c r="F192" s="17">
-        <v>3</v>
-      </c>
-      <c r="G192" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="21">
-      <c r="A193" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B193" s="17">
-        <v>4717</v>
-      </c>
-      <c r="C193" s="17">
-        <v>1355</v>
-      </c>
-      <c r="D193" s="17">
-        <v>684</v>
-      </c>
-      <c r="E193" s="17">
-        <v>4</v>
-      </c>
-      <c r="F193" s="17">
-        <v>63</v>
-      </c>
-      <c r="G193" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="21">
-      <c r="A194" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B194" s="17">
-        <v>1398</v>
-      </c>
-      <c r="C194" s="17">
-        <v>1169</v>
-      </c>
-      <c r="D194" s="17">
-        <v>724</v>
-      </c>
-      <c r="E194" s="17">
-        <v>0</v>
-      </c>
-      <c r="F194" s="17">
-        <v>4</v>
-      </c>
-      <c r="G194" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="B196" t="s">
-        <v>3</v>
-      </c>
-      <c r="C196" t="s">
-        <v>35</v>
-      </c>
-      <c r="D196" t="s">
-        <v>14</v>
-      </c>
-      <c r="E196" t="s">
-        <v>36</v>
-      </c>
-      <c r="F196" t="s">
-        <v>37</v>
-      </c>
-      <c r="G196" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="21">
-      <c r="A197" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B197">
-        <f>B191/B190</f>
-        <v>0.47510575984380082</v>
-      </c>
-      <c r="C197">
-        <f t="shared" ref="C197:G197" si="31">C191/C190</f>
-        <v>7.7742279020234298E-2</v>
-      </c>
-      <c r="D197">
-        <f t="shared" si="31"/>
-        <v>3.5904255319148939E-2</v>
-      </c>
-      <c r="E197">
-        <f t="shared" si="31"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F197">
-        <f t="shared" si="31"/>
-        <v>0.76190476190476186</v>
-      </c>
-      <c r="G197">
-        <f t="shared" si="31"/>
-        <v>0.44067796610169491</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="21">
-      <c r="A198" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B198">
-        <f>B192/B190</f>
-        <v>2.7416205662219331E-2</v>
-      </c>
-      <c r="C198">
-        <f t="shared" ref="C198:G198" si="32">C192/C190</f>
-        <v>2.6269080582179624E-2</v>
-      </c>
-      <c r="D198">
-        <f t="shared" si="32"/>
-        <v>2.7925531914893616E-2</v>
-      </c>
-      <c r="E198">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="F198">
-        <f t="shared" si="32"/>
-        <v>1.020408163265306E-2</v>
-      </c>
-      <c r="G198">
-        <f t="shared" si="32"/>
-        <v>1.6949152542372881E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="21">
-      <c r="A199" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B199">
-        <f>B193/B190</f>
-        <v>0.38374552554506997</v>
-      </c>
-      <c r="C199">
-        <f t="shared" ref="C199:G199" si="33">C193/C190</f>
-        <v>0.48100816471423502</v>
-      </c>
-      <c r="D199">
-        <f t="shared" si="33"/>
-        <v>0.45478723404255317</v>
-      </c>
-      <c r="E199">
-        <f t="shared" si="33"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F199">
-        <f t="shared" si="33"/>
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="G199">
-        <f t="shared" si="33"/>
-        <v>0.49152542372881358</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="21">
-      <c r="A200" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B200">
-        <f>B194/B190</f>
-        <v>0.11373250894890986</v>
-      </c>
-      <c r="C200">
-        <f t="shared" ref="C200:G200" si="34">C194/C190</f>
-        <v>0.41498047568335106</v>
-      </c>
-      <c r="D200">
-        <f t="shared" si="34"/>
-        <v>0.48138297872340424</v>
-      </c>
-      <c r="E200">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="F200">
-        <f t="shared" si="34"/>
-        <v>1.3605442176870748E-2</v>
-      </c>
-      <c r="G200">
-        <f t="shared" si="34"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="B203" t="s">
-        <v>3</v>
-      </c>
-      <c r="C203" t="s">
-        <v>35</v>
-      </c>
-      <c r="D203" t="s">
-        <v>14</v>
-      </c>
-      <c r="E203" t="s">
-        <v>36</v>
-      </c>
-      <c r="F203" t="s">
-        <v>37</v>
-      </c>
-      <c r="G203" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="18">
-      <c r="A204" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B204" s="32">
-        <v>10900</v>
-      </c>
-      <c r="C204" s="32">
-        <v>3717</v>
-      </c>
-      <c r="D204" s="32">
-        <v>2924</v>
-      </c>
-      <c r="E204" s="32">
-        <v>24</v>
-      </c>
-      <c r="F204" s="32">
-        <v>298</v>
-      </c>
-      <c r="G204" s="32">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="18">
-      <c r="A205" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B205" s="32">
-        <v>5758</v>
-      </c>
-      <c r="C205" s="32">
-        <v>322</v>
-      </c>
-      <c r="D205" s="32">
-        <v>173</v>
-      </c>
-      <c r="E205" s="32">
-        <v>20</v>
-      </c>
-      <c r="F205" s="32">
-        <v>223</v>
-      </c>
-      <c r="G205" s="32">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="18">
-      <c r="A206" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B206" s="32">
-        <v>293</v>
-      </c>
-      <c r="C206" s="32">
-        <v>116</v>
-      </c>
-      <c r="D206" s="32">
-        <v>88</v>
-      </c>
-      <c r="E206" s="32">
-        <v>0</v>
-      </c>
-      <c r="F206" s="32">
-        <v>4</v>
-      </c>
-      <c r="G206" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="18">
-      <c r="A207" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B207" s="32">
-        <v>4084</v>
-      </c>
-      <c r="C207" s="32">
-        <v>1811</v>
-      </c>
-      <c r="D207" s="32">
-        <v>1319</v>
-      </c>
-      <c r="E207" s="32">
-        <v>3</v>
-      </c>
-      <c r="F207" s="32">
-        <v>64</v>
-      </c>
-      <c r="G207" s="32">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="18">
-      <c r="A208" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B208" s="32">
-        <v>765</v>
-      </c>
-      <c r="C208" s="32">
-        <v>1468</v>
-      </c>
-      <c r="D208" s="32">
-        <v>1344</v>
-      </c>
-      <c r="E208" s="32">
-        <v>1</v>
-      </c>
-      <c r="F208" s="32">
-        <v>7</v>
-      </c>
-      <c r="G208" s="32">
-        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="B210" t="s">
-        <v>3</v>
-      </c>
-      <c r="C210" t="s">
-        <v>35</v>
-      </c>
-      <c r="D210" t="s">
-        <v>14</v>
-      </c>
-      <c r="E210" t="s">
-        <v>36</v>
-      </c>
-      <c r="F210" t="s">
-        <v>37</v>
-      </c>
-      <c r="G210" t="s">
-        <v>1</v>
-      </c>
+      <c r="C210" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D210" s="29"/>
+      <c r="E210" s="29"/>
+      <c r="F210" s="29"/>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="33" t="s">
+      <c r="C211" s="29"/>
+      <c r="D211" s="29"/>
+      <c r="E211" s="29"/>
+      <c r="F211" s="29"/>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="B213" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" t="s">
+        <v>35</v>
+      </c>
+      <c r="D213" t="s">
+        <v>14</v>
+      </c>
+      <c r="E213" t="s">
+        <v>36</v>
+      </c>
+      <c r="F213" t="s">
+        <v>37</v>
+      </c>
+      <c r="G213" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="21">
+      <c r="A214" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B214" s="17">
+        <v>12292</v>
+      </c>
+      <c r="C214" s="17">
+        <v>2817</v>
+      </c>
+      <c r="D214" s="17">
+        <v>1504</v>
+      </c>
+      <c r="E214" s="17">
+        <v>24</v>
+      </c>
+      <c r="F214" s="17">
+        <v>294</v>
+      </c>
+      <c r="G214" s="17">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="21">
+      <c r="A215" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B211">
-        <f>B205/B204</f>
-        <v>0.52825688073394494</v>
-      </c>
-      <c r="C211">
-        <f t="shared" ref="C211:G211" si="35">C205/C204</f>
-        <v>8.6629001883239173E-2</v>
-      </c>
-      <c r="D211">
+      <c r="B215" s="17">
+        <v>5840</v>
+      </c>
+      <c r="C215" s="17">
+        <v>219</v>
+      </c>
+      <c r="D215" s="17">
+        <v>54</v>
+      </c>
+      <c r="E215" s="17">
+        <v>20</v>
+      </c>
+      <c r="F215" s="17">
+        <v>224</v>
+      </c>
+      <c r="G215" s="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="21">
+      <c r="A216" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B216" s="17">
+        <v>337</v>
+      </c>
+      <c r="C216" s="17">
+        <v>74</v>
+      </c>
+      <c r="D216" s="17">
+        <v>42</v>
+      </c>
+      <c r="E216" s="17">
+        <v>0</v>
+      </c>
+      <c r="F216" s="17">
+        <v>3</v>
+      </c>
+      <c r="G216" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="21">
+      <c r="A217" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B217" s="17">
+        <v>4717</v>
+      </c>
+      <c r="C217" s="17">
+        <v>1355</v>
+      </c>
+      <c r="D217" s="17">
+        <v>684</v>
+      </c>
+      <c r="E217" s="17">
+        <v>4</v>
+      </c>
+      <c r="F217" s="17">
+        <v>63</v>
+      </c>
+      <c r="G217" s="17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="21">
+      <c r="A218" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B218" s="17">
+        <v>1398</v>
+      </c>
+      <c r="C218" s="17">
+        <v>1169</v>
+      </c>
+      <c r="D218" s="17">
+        <v>724</v>
+      </c>
+      <c r="E218" s="17">
+        <v>0</v>
+      </c>
+      <c r="F218" s="17">
+        <v>4</v>
+      </c>
+      <c r="G218" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="B220" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" t="s">
+        <v>35</v>
+      </c>
+      <c r="D220" t="s">
+        <v>14</v>
+      </c>
+      <c r="E220" t="s">
+        <v>36</v>
+      </c>
+      <c r="F220" t="s">
+        <v>37</v>
+      </c>
+      <c r="G220" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="21">
+      <c r="A221" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B221">
+        <f>B215/B214</f>
+        <v>0.47510575984380082</v>
+      </c>
+      <c r="C221">
+        <f t="shared" ref="C221:G221" si="35">C215/C214</f>
+        <v>7.7742279020234298E-2</v>
+      </c>
+      <c r="D221">
         <f t="shared" si="35"/>
-        <v>5.9165526675786596E-2</v>
-      </c>
-      <c r="E211">
+        <v>3.5904255319148939E-2</v>
+      </c>
+      <c r="E221">
         <f t="shared" si="35"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="F211">
+      <c r="F221">
         <f t="shared" si="35"/>
-        <v>0.74832214765100669</v>
-      </c>
-      <c r="G211">
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="G221">
         <f t="shared" si="35"/>
-        <v>0.43333333333333335</v>
+        <v>0.44067796610169491</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
-      <c r="A212" s="33" t="s">
+    <row r="222" spans="1:7" ht="21">
+      <c r="A222" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B212">
-        <f>B206/B204</f>
-        <v>2.6880733944954129E-2</v>
-      </c>
-      <c r="C212">
-        <f t="shared" ref="C212:G212" si="36">C206/C204</f>
-        <v>3.1207963411353241E-2</v>
-      </c>
-      <c r="D212">
+      <c r="B222">
+        <f>B216/B214</f>
+        <v>2.7416205662219331E-2</v>
+      </c>
+      <c r="C222">
+        <f t="shared" ref="C222:G222" si="36">C216/C214</f>
+        <v>2.6269080582179624E-2</v>
+      </c>
+      <c r="D222">
         <f t="shared" si="36"/>
-        <v>3.0095759233926128E-2</v>
-      </c>
-      <c r="E212">
+        <v>2.7925531914893616E-2</v>
+      </c>
+      <c r="E222">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F212">
+      <c r="F222">
         <f t="shared" si="36"/>
+        <v>1.020408163265306E-2</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="36"/>
+        <v>1.6949152542372881E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="21">
+      <c r="A223" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B223">
+        <f>B217/B214</f>
+        <v>0.38374552554506997</v>
+      </c>
+      <c r="C223">
+        <f t="shared" ref="C223:G223" si="37">C217/C214</f>
+        <v>0.48100816471423502</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="37"/>
+        <v>0.45478723404255317</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="37"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="37"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="G223">
+        <f t="shared" si="37"/>
+        <v>0.49152542372881358</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="21">
+      <c r="A224" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B224">
+        <f>B218/B214</f>
+        <v>0.11373250894890986</v>
+      </c>
+      <c r="C224">
+        <f t="shared" ref="C224:G224" si="38">C218/C214</f>
+        <v>0.41498047568335106</v>
+      </c>
+      <c r="D224">
+        <f t="shared" si="38"/>
+        <v>0.48138297872340424</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="38"/>
+        <v>1.3605442176870748E-2</v>
+      </c>
+      <c r="G224">
+        <f t="shared" si="38"/>
+        <v>5.0847457627118647E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="B227" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" t="s">
+        <v>35</v>
+      </c>
+      <c r="D227" t="s">
+        <v>14</v>
+      </c>
+      <c r="E227" t="s">
+        <v>36</v>
+      </c>
+      <c r="F227" t="s">
+        <v>37</v>
+      </c>
+      <c r="G227" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="18">
+      <c r="A228" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B228" s="26">
+        <v>10900</v>
+      </c>
+      <c r="C228" s="26">
+        <v>3717</v>
+      </c>
+      <c r="D228" s="26">
+        <v>2924</v>
+      </c>
+      <c r="E228" s="26">
+        <v>24</v>
+      </c>
+      <c r="F228" s="26">
+        <v>298</v>
+      </c>
+      <c r="G228" s="26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="18">
+      <c r="A229" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B229" s="26">
+        <v>5758</v>
+      </c>
+      <c r="C229" s="26">
+        <v>322</v>
+      </c>
+      <c r="D229" s="26">
+        <v>173</v>
+      </c>
+      <c r="E229" s="26">
+        <v>20</v>
+      </c>
+      <c r="F229" s="26">
+        <v>223</v>
+      </c>
+      <c r="G229" s="26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="18">
+      <c r="A230" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B230" s="26">
+        <v>293</v>
+      </c>
+      <c r="C230" s="26">
+        <v>116</v>
+      </c>
+      <c r="D230" s="26">
+        <v>88</v>
+      </c>
+      <c r="E230" s="26">
+        <v>0</v>
+      </c>
+      <c r="F230" s="26">
+        <v>4</v>
+      </c>
+      <c r="G230" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="18">
+      <c r="A231" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B231" s="26">
+        <v>4084</v>
+      </c>
+      <c r="C231" s="26">
+        <v>1811</v>
+      </c>
+      <c r="D231" s="26">
+        <v>1319</v>
+      </c>
+      <c r="E231" s="26">
+        <v>3</v>
+      </c>
+      <c r="F231" s="26">
+        <v>64</v>
+      </c>
+      <c r="G231" s="26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="18">
+      <c r="A232" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B232" s="26">
+        <v>765</v>
+      </c>
+      <c r="C232" s="26">
+        <v>1468</v>
+      </c>
+      <c r="D232" s="26">
+        <v>1344</v>
+      </c>
+      <c r="E232" s="26">
+        <v>1</v>
+      </c>
+      <c r="F232" s="26">
+        <v>7</v>
+      </c>
+      <c r="G232" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="B234" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" t="s">
+        <v>35</v>
+      </c>
+      <c r="D234" t="s">
+        <v>14</v>
+      </c>
+      <c r="E234" t="s">
+        <v>36</v>
+      </c>
+      <c r="F234" t="s">
+        <v>37</v>
+      </c>
+      <c r="G234" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B235">
+        <f>B229/B228</f>
+        <v>0.52825688073394494</v>
+      </c>
+      <c r="C235">
+        <f t="shared" ref="C235:G235" si="39">C229/C228</f>
+        <v>8.6629001883239173E-2</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="39"/>
+        <v>5.9165526675786596E-2</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="39"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F235">
+        <f t="shared" si="39"/>
+        <v>0.74832214765100669</v>
+      </c>
+      <c r="G235">
+        <f t="shared" si="39"/>
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B236">
+        <f>B230/B228</f>
+        <v>2.6880733944954129E-2</v>
+      </c>
+      <c r="C236">
+        <f t="shared" ref="C236:G236" si="40">C230/C228</f>
+        <v>3.1207963411353241E-2</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="40"/>
+        <v>3.0095759233926128E-2</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <f t="shared" si="40"/>
         <v>1.3422818791946308E-2</v>
       </c>
-      <c r="G212">
-        <f t="shared" si="36"/>
+      <c r="G236">
+        <f t="shared" si="40"/>
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
-      <c r="A213" s="33" t="s">
+    <row r="237" spans="1:7">
+      <c r="A237" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B213">
-        <f>B207/B204</f>
+      <c r="B237">
+        <f>B231/B228</f>
         <v>0.37467889908256879</v>
       </c>
-      <c r="C213">
-        <f t="shared" ref="C213:G213" si="37">C207/C204</f>
+      <c r="C237">
+        <f t="shared" ref="C237:G237" si="41">C231/C228</f>
         <v>0.4872208770513855</v>
       </c>
-      <c r="D213">
-        <f t="shared" si="37"/>
+      <c r="D237">
+        <f t="shared" si="41"/>
         <v>0.45109439124487005</v>
       </c>
-      <c r="E213">
-        <f t="shared" si="37"/>
+      <c r="E237">
+        <f t="shared" si="41"/>
         <v>0.125</v>
       </c>
-      <c r="F213">
-        <f t="shared" si="37"/>
+      <c r="F237">
+        <f t="shared" si="41"/>
         <v>0.21476510067114093</v>
       </c>
-      <c r="G213">
-        <f t="shared" si="37"/>
+      <c r="G237">
+        <f t="shared" si="41"/>
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
-      <c r="A214" s="33" t="s">
+    <row r="238" spans="1:7">
+      <c r="A238" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B214">
-        <f>B208/B204</f>
+      <c r="B238">
+        <f>B232/B228</f>
         <v>7.0183486238532114E-2</v>
       </c>
-      <c r="C214">
-        <f t="shared" ref="C214:G214" si="38">C208/C204</f>
+      <c r="C238">
+        <f t="shared" ref="C238:G238" si="42">C232/C228</f>
         <v>0.39494215765402207</v>
       </c>
-      <c r="D214">
-        <f t="shared" si="38"/>
+      <c r="D238">
+        <f t="shared" si="42"/>
         <v>0.45964432284541723</v>
       </c>
-      <c r="E214">
-        <f t="shared" si="38"/>
+      <c r="E238">
+        <f t="shared" si="42"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F214">
-        <f t="shared" si="38"/>
+      <c r="F238">
+        <f t="shared" si="42"/>
         <v>2.3489932885906041E-2</v>
       </c>
-      <c r="G214">
-        <f t="shared" si="38"/>
+      <c r="G238">
+        <f t="shared" si="42"/>
         <v>1.6666666666666666E-2</v>
       </c>
+    </row>
+    <row r="242" spans="3:6">
+      <c r="C242" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D242" s="29"/>
+      <c r="E242" s="29"/>
+      <c r="F242" s="29"/>
+    </row>
+    <row r="243" spans="3:6">
+      <c r="C243" s="29"/>
+      <c r="D243" s="29"/>
+      <c r="E243" s="29"/>
+      <c r="F243" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="C186:F187"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
+  <mergeCells count="75">
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="C242:F243"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="B162:E163"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
     <mergeCell ref="I72:I73"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C87:C88"/>
@@ -16946,11 +18407,22 @@
     <mergeCell ref="F80:F81"/>
     <mergeCell ref="F72:F73"/>
     <mergeCell ref="G72:G73"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="C210:F211"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
     <mergeCell ref="A126:F126"/>
     <mergeCell ref="B127:B128"/>
     <mergeCell ref="C127:C128"/>
@@ -16962,27 +18434,6 @@
     <mergeCell ref="D134:D135"/>
     <mergeCell ref="E134:E135"/>
     <mergeCell ref="F134:F135"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="B162:E163"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="A171:A172"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/output/figures/compare_toTG_figure.xlsx
+++ b/output/figures/compare_toTG_figure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wen-Juan/Dropbox (Amherst College)/Amherst_postdoc/github/Haploidselection_and_dosagecompensation_in_Microbotryum/output/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7471C4F-80DD-9F43-B55B-6385B50EC523}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5371805E-853F-AA49-B21A-B3293E4690B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="40060" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="42">
   <si>
     <t>category</t>
   </si>
@@ -149,12 +149,18 @@
   <si>
     <t>M. scabiosae</t>
   </si>
+  <si>
+    <t>Hemizygous (Fantin list)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemizygous </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,6 +291,13 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -360,7 +373,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -437,6 +450,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -4581,6 +4597,1439 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" i="1"/>
+              <a:t>M. scabiosae</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10070738382296576"/>
+          <c:y val="0.11756172839506175"/>
+          <c:w val="0.73770853365788713"/>
+          <c:h val="0.81392509964032278"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$253</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single-copy ortholog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$252:$E$252</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$253:$E$253</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.77625148593316606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64919354838709675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13592233009708737</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73469387755102045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BEED-9E45-819B-476D29E1335A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$254</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>orthologs with paralogs (with more than one copy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$252:$E$252</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$254:$E$254</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.7605336151102892E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4354838709677422E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8834951456310676E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0408163265306121E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BEED-9E45-819B-476D29E1335A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$255</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gene gain (only in M.caroliniana)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F06F07"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$252:$E$252</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$255:$E$255</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.12746004490820234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16935483870967741</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4563106796116505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24489795918367346</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BEED-9E45-819B-476D29E1335A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$256</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not listed in orthologs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$252:$E$252</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$256:$E$256</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.8683133007528735E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13709677419354838</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36893203883495146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BEED-9E45-819B-476D29E1335A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="524481455"/>
+        <c:axId val="557084527"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="524481455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557084527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="557084527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Percentage of each ortholog category</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="800">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3663535439795047E-2"/>
+              <c:y val="0.18724020608535044"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524481455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83329209169092977"/>
+          <c:y val="0.19921138329930982"/>
+          <c:w val="0.15646025672922401"/>
+          <c:h val="0.64815106445027693"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>M. scabiosae</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10448015977437268"/>
+          <c:y val="0.1276751592356688"/>
+          <c:w val="0.74042129695227688"/>
+          <c:h val="0.80799914739956868"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$270</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single-copy ortholog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$269:$E$269</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$270:$E$270</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.76269851686573042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73732718894009219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20481927710843373</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69655172413793098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-926D-2A4E-AA21-0D0B76DEE40E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$271</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>orthologs with paralogs (with more than one copy)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$269:$E$269</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$271:$E$271</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.5593909961937261E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6866359447004608E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0240963855421686E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0689655172413793E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-926D-2A4E-AA21-0D0B76DEE40E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$272</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gene gain (only in M.caroliniana)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F06F07"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$269:$E$269</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$272:$E$272</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1274445465284158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11981566820276497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46987951807228917</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17241379310344829</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-926D-2A4E-AA21-0D0B76DEE40E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$273</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not listed in orthologs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$269:$E$269</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Autosomal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NRR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hemizygous </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$273:$E$273</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.4263026643916522E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10599078341013825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26506024096385544</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1103448275862069</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-926D-2A4E-AA21-0D0B76DEE40E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="521546127"/>
+        <c:axId val="556220399"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="521546127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556220399"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="556220399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Percentage of each ortholog category</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.056555269922879E-2"/>
+              <c:y val="0.1804644164702342"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521546127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.84643105344479752"/>
+          <c:y val="0.18963212799037063"/>
+          <c:w val="0.14328617020558809"/>
+          <c:h val="0.67516224484678256"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -8896,6 +10345,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9722,6 +11251,1016 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14772,6 +17311,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84F57CCB-4B43-7847-8AE6-52D48B136140}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F45DFF3-F2B2-4743-BF29-4C93EDC8D7F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15072,10 +17683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S243"/>
+  <dimension ref="A1:S273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="Q242" sqref="Q242"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="G275" sqref="G275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -18343,7 +20954,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="242" spans="3:6">
+    <row r="242" spans="1:6">
       <c r="C242" s="28" t="s">
         <v>39</v>
       </c>
@@ -18351,11 +20962,405 @@
       <c r="E242" s="29"/>
       <c r="F242" s="29"/>
     </row>
-    <row r="243" spans="3:6">
+    <row r="243" spans="1:6">
       <c r="C243" s="29"/>
       <c r="D243" s="29"/>
       <c r="E243" s="29"/>
       <c r="F243" s="29"/>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="B245" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C245" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D245" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E245" s="35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B246" s="18">
+        <v>7571</v>
+      </c>
+      <c r="C246" s="18">
+        <v>248</v>
+      </c>
+      <c r="D246" s="18">
+        <v>103</v>
+      </c>
+      <c r="E246" s="18">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B247" s="18">
+        <v>5877</v>
+      </c>
+      <c r="C247" s="18">
+        <v>161</v>
+      </c>
+      <c r="D247" s="18">
+        <v>14</v>
+      </c>
+      <c r="E247" s="18">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B248" s="18">
+        <v>209</v>
+      </c>
+      <c r="C248" s="18">
+        <v>11</v>
+      </c>
+      <c r="D248" s="18">
+        <v>4</v>
+      </c>
+      <c r="E248" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B249" s="18">
+        <v>965</v>
+      </c>
+      <c r="C249" s="18">
+        <v>42</v>
+      </c>
+      <c r="D249" s="18">
+        <v>47</v>
+      </c>
+      <c r="E249" s="18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B250" s="18">
+        <v>520</v>
+      </c>
+      <c r="C250" s="18">
+        <v>34</v>
+      </c>
+      <c r="D250" s="18">
+        <v>38</v>
+      </c>
+      <c r="E250" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="B252" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C252" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D252" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E252" s="35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B253">
+        <f>B247/B246</f>
+        <v>0.77625148593316606</v>
+      </c>
+      <c r="C253">
+        <f t="shared" ref="C253:E253" si="43">C247/C246</f>
+        <v>0.64919354838709675</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="43"/>
+        <v>0.13592233009708737</v>
+      </c>
+      <c r="E253">
+        <f t="shared" si="43"/>
+        <v>0.73469387755102045</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B254">
+        <f>B248/B246</f>
+        <v>2.7605336151102892E-2</v>
+      </c>
+      <c r="C254">
+        <f t="shared" ref="C254:E254" si="44">C248/C246</f>
+        <v>4.4354838709677422E-2</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="44"/>
+        <v>3.8834951456310676E-2</v>
+      </c>
+      <c r="E254">
+        <f t="shared" si="44"/>
+        <v>2.0408163265306121E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B255">
+        <f>B249/B246</f>
+        <v>0.12746004490820234</v>
+      </c>
+      <c r="C255">
+        <f t="shared" ref="C255:E255" si="45">C249/C246</f>
+        <v>0.16935483870967741</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="45"/>
+        <v>0.4563106796116505</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="45"/>
+        <v>0.24489795918367346</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B256">
+        <f>B250/B246</f>
+        <v>6.8683133007528735E-2</v>
+      </c>
+      <c r="C256">
+        <f t="shared" ref="C256:E256" si="46">C250/C246</f>
+        <v>0.13709677419354838</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="46"/>
+        <v>0.36893203883495146</v>
+      </c>
+      <c r="E256">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="B262" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C262" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D262" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E262" s="35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="21">
+      <c r="A263" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B263" s="16">
+        <v>7619</v>
+      </c>
+      <c r="C263" s="16">
+        <v>217</v>
+      </c>
+      <c r="D263" s="16">
+        <v>83</v>
+      </c>
+      <c r="E263" s="16">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="21">
+      <c r="A264" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B264" s="16">
+        <v>5811</v>
+      </c>
+      <c r="C264" s="16">
+        <v>160</v>
+      </c>
+      <c r="D264" s="16">
+        <v>17</v>
+      </c>
+      <c r="E264" s="16">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="21">
+      <c r="A265" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B265" s="16">
+        <v>195</v>
+      </c>
+      <c r="C265" s="16">
+        <v>8</v>
+      </c>
+      <c r="D265" s="16">
+        <v>5</v>
+      </c>
+      <c r="E265" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="21">
+      <c r="A266" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B266" s="16">
+        <v>971</v>
+      </c>
+      <c r="C266" s="16">
+        <v>26</v>
+      </c>
+      <c r="D266" s="16">
+        <v>39</v>
+      </c>
+      <c r="E266" s="16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="21">
+      <c r="A267" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B267" s="16">
+        <v>642</v>
+      </c>
+      <c r="C267" s="16">
+        <v>23</v>
+      </c>
+      <c r="D267" s="16">
+        <v>22</v>
+      </c>
+      <c r="E267" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="B269" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C269" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D269" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E269" s="35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B270">
+        <f>B264/B263</f>
+        <v>0.76269851686573042</v>
+      </c>
+      <c r="C270">
+        <f t="shared" ref="C270:E270" si="47">C264/C263</f>
+        <v>0.73732718894009219</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="47"/>
+        <v>0.20481927710843373</v>
+      </c>
+      <c r="E270">
+        <f t="shared" si="47"/>
+        <v>0.69655172413793098</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B271">
+        <f>B265/B263</f>
+        <v>2.5593909961937261E-2</v>
+      </c>
+      <c r="C271">
+        <f t="shared" ref="C271:E271" si="48">C265/C263</f>
+        <v>3.6866359447004608E-2</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="48"/>
+        <v>6.0240963855421686E-2</v>
+      </c>
+      <c r="E271">
+        <f t="shared" si="48"/>
+        <v>2.0689655172413793E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B272">
+        <f>B266/B263</f>
+        <v>0.1274445465284158</v>
+      </c>
+      <c r="C272">
+        <f t="shared" ref="C272:E272" si="49">C266/C263</f>
+        <v>0.11981566820276497</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="49"/>
+        <v>0.46987951807228917</v>
+      </c>
+      <c r="E272">
+        <f t="shared" si="49"/>
+        <v>0.17241379310344829</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B273">
+        <f>B267/B263</f>
+        <v>8.4263026643916522E-2</v>
+      </c>
+      <c r="C273">
+        <f t="shared" ref="C273:E273" si="50">C267/C263</f>
+        <v>0.10599078341013825</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="50"/>
+        <v>0.26506024096385544</v>
+      </c>
+      <c r="E273">
+        <f t="shared" si="50"/>
+        <v>0.1103448275862069</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="75">

--- a/output/figures/compare_toTG_figure.xlsx
+++ b/output/figures/compare_toTG_figure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wen-Juan/Dropbox (Amherst College)/Amherst_postdoc/github/Haploidselection_and_dosagecompensation_in_Microbotryum/output/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5371805E-853F-AA49-B21A-B3293E4690B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFF1B20-191B-0846-B4A7-84244134AD09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="40060" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,6 +432,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -445,14 +451,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -4086,8 +4086,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10320590512084699"/>
-          <c:y val="0.11917682926829269"/>
+          <c:x val="0.11662874355470666"/>
+          <c:y val="0.12245540209113205"/>
           <c:w val="0.71284692194012012"/>
           <c:h val="0.81619430574227003"/>
         </c:manualLayout>
@@ -4469,6 +4469,132 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Percentage of each ortholog category</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="800">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9175455417066157E-2"/>
+              <c:y val="0.17553607848199304"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4518,9 +4644,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.82002502169850422"/>
-          <c:y val="0.25166002496639139"/>
-          <c:w val="0.17004449170765273"/>
+          <c:x val="0.82961279168962943"/>
+          <c:y val="0.25493868594294566"/>
+          <c:w val="0.16812692037656365"/>
           <c:h val="0.55183214903015188"/>
         </c:manualLayout>
       </c:layout>
@@ -5115,16 +5241,13 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr>
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:sysClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -5835,16 +5958,13 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr>
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:sysClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -17284,8 +17404,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17685,8 +17805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="G275" sqref="G275"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="R197" sqref="R197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -18380,41 +18500,41 @@
       <c r="A72" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="33" t="s">
+      <c r="D72" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="33" t="s">
+      <c r="E72" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="33" t="s">
+      <c r="F72" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G72" s="29" t="s">
+      <c r="G72" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H72" s="29" t="s">
+      <c r="H72" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I72" s="29"/>
+      <c r="I72" s="31"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="10" t="s">
@@ -18581,30 +18701,30 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="29"/>
-      <c r="B80" s="33" t="s">
+      <c r="A80" s="31"/>
+      <c r="B80" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="33" t="s">
+      <c r="D80" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E80" s="33" t="s">
+      <c r="E80" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F80" s="33" t="s">
+      <c r="F80" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="29"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
+      <c r="A81" s="31"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
     </row>
     <row r="82" spans="1:19" ht="24">
       <c r="A82" s="10" t="s">
@@ -18758,21 +18878,21 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="10"/>
-      <c r="B87" s="30" t="s">
+      <c r="B87" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="31" t="s">
+      <c r="C87" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="10"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="31"/>
-      <c r="E88" s="30" t="s">
+      <c r="B88" s="32"/>
+      <c r="C88" s="33"/>
+      <c r="E88" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F88" s="31" t="s">
+      <c r="F88" s="33" t="s">
         <v>25</v>
       </c>
     </row>
@@ -18787,8 +18907,8 @@
       <c r="C89" s="7">
         <v>1616</v>
       </c>
-      <c r="E89" s="30"/>
-      <c r="F89" s="31"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="33"/>
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="10" t="s">
@@ -18919,19 +19039,19 @@
       <c r="A98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="32" t="s">
+      <c r="B98" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="32" t="s">
+      <c r="C98" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="32" t="s">
+      <c r="D98" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E98" s="32" t="s">
+      <c r="E98" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F98" s="32" t="s">
+      <c r="F98" s="34" t="s">
         <v>1</v>
       </c>
     </row>
@@ -18939,11 +19059,11 @@
       <c r="A99" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="32"/>
-      <c r="F99" s="32"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="34"/>
       <c r="G99" t="s">
         <v>26</v>
       </c>
@@ -19110,28 +19230,28 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="8"/>
-      <c r="B106" s="32" t="s">
+      <c r="B106" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="32" t="s">
+      <c r="C106" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D106" s="32" t="s">
+      <c r="D106" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="E106" s="32" t="s">
+      <c r="E106" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F106" s="32" t="s">
+      <c r="F106" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="B107" s="32"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="32"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="34"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="10" t="s">
@@ -19260,21 +19380,21 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="10"/>
-      <c r="B114" s="30" t="s">
+      <c r="B114" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="31" t="s">
+      <c r="C114" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="10"/>
-      <c r="B115" s="30"/>
-      <c r="C115" s="31"/>
-      <c r="E115" s="30" t="s">
+      <c r="B115" s="32"/>
+      <c r="C115" s="33"/>
+      <c r="E115" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F115" s="31" t="s">
+      <c r="F115" s="33" t="s">
         <v>25</v>
       </c>
     </row>
@@ -19290,8 +19410,8 @@
         <f>1830+102</f>
         <v>1932</v>
       </c>
-      <c r="E116" s="30"/>
-      <c r="F116" s="31"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="33"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="10" t="s">
@@ -19404,38 +19524,38 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="26">
-      <c r="A126" s="34" t="s">
+      <c r="A126" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B126" s="34"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="34"/>
-      <c r="F126" s="34"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="35"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="35"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="B127" s="33" t="s">
+      <c r="B127" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="33" t="s">
+      <c r="C127" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D127" s="33" t="s">
+      <c r="D127" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E127" s="33" t="s">
+      <c r="E127" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F127" s="33" t="s">
+      <c r="F127" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="B128" s="33"/>
-      <c r="C128" s="33"/>
-      <c r="D128" s="33"/>
-      <c r="E128" s="33"/>
-      <c r="F128" s="33"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
     </row>
     <row r="129" spans="1:6" ht="21">
       <c r="A129" t="s">
@@ -19539,28 +19659,28 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="13"/>
-      <c r="B134" s="33" t="s">
+      <c r="B134" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C134" s="33" t="s">
+      <c r="C134" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D134" s="33" t="s">
+      <c r="D134" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E134" s="33" t="s">
+      <c r="E134" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F134" s="33" t="s">
+      <c r="F134" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="B135" s="33"/>
-      <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
-      <c r="F135" s="33"/>
+      <c r="B135" s="29"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="29"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="11" t="s">
@@ -19663,28 +19783,28 @@
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="B144" s="33" t="s">
+      <c r="B144" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C144" s="33" t="s">
+      <c r="C144" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D144" s="33" t="s">
+      <c r="D144" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E144" s="33" t="s">
+      <c r="E144" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F144" s="33" t="s">
+      <c r="F144" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="B145" s="33"/>
-      <c r="C145" s="33"/>
-      <c r="D145" s="33"/>
-      <c r="E145" s="33"/>
-      <c r="F145" s="33"/>
+      <c r="B145" s="29"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="29"/>
     </row>
     <row r="146" spans="1:6" ht="21">
       <c r="A146" t="s">
@@ -19787,30 +19907,30 @@
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="29"/>
-      <c r="B152" s="33" t="s">
+      <c r="A152" s="31"/>
+      <c r="B152" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C152" s="33" t="s">
+      <c r="C152" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D152" s="33" t="s">
+      <c r="D152" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E152" s="33" t="s">
+      <c r="E152" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F152" s="33" t="s">
+      <c r="F152" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="29"/>
-      <c r="B153" s="33"/>
-      <c r="C153" s="33"/>
-      <c r="D153" s="33"/>
-      <c r="E153" s="33"/>
-      <c r="F153" s="33"/>
+      <c r="A153" s="31"/>
+      <c r="B153" s="29"/>
+      <c r="C153" s="29"/>
+      <c r="D153" s="29"/>
+      <c r="E153" s="29"/>
+      <c r="F153" s="29"/>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="11" t="s">
@@ -19919,38 +20039,38 @@
       <c r="A159" s="11"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="B162" s="28" t="s">
+      <c r="B162" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C162" s="29"/>
-      <c r="D162" s="29"/>
-      <c r="E162" s="29"/>
+      <c r="C162" s="31"/>
+      <c r="D162" s="31"/>
+      <c r="E162" s="31"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="B163" s="29"/>
-      <c r="C163" s="29"/>
-      <c r="D163" s="29"/>
-      <c r="E163" s="29"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="31"/>
+      <c r="D163" s="31"/>
+      <c r="E163" s="31"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="B164" s="33" t="s">
+      <c r="B164" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C164" s="33" t="s">
+      <c r="C164" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D164" s="33" t="s">
+      <c r="D164" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E164" s="33" t="s">
+      <c r="E164" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:5">
-      <c r="B165" s="33"/>
-      <c r="C165" s="33"/>
-      <c r="D165" s="33"/>
-      <c r="E165" s="33"/>
+      <c r="B165" s="29"/>
+      <c r="C165" s="29"/>
+      <c r="D165" s="29"/>
+      <c r="E165" s="29"/>
     </row>
     <row r="166" spans="1:5" ht="18">
       <c r="A166" t="s">
@@ -20038,26 +20158,26 @@
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="29"/>
-      <c r="B171" s="33" t="s">
+      <c r="A171" s="31"/>
+      <c r="B171" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="33" t="s">
+      <c r="C171" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D171" s="33" t="s">
+      <c r="D171" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E171" s="33" t="s">
+      <c r="E171" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="29"/>
-      <c r="B172" s="33"/>
-      <c r="C172" s="33"/>
-      <c r="D172" s="33"/>
-      <c r="E172" s="33"/>
+      <c r="A172" s="31"/>
+      <c r="B172" s="29"/>
+      <c r="C172" s="29"/>
+      <c r="D172" s="29"/>
+      <c r="E172" s="29"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="11" t="s">
@@ -20154,25 +20274,25 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="22"/>
-      <c r="B180" s="33" t="s">
+      <c r="B180" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C180" s="33" t="s">
+      <c r="C180" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D180" s="33" t="s">
+      <c r="D180" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E180" s="33" t="s">
+      <c r="E180" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="22"/>
-      <c r="B181" s="33"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
+      <c r="B181" s="29"/>
+      <c r="C181" s="29"/>
+      <c r="D181" s="29"/>
+      <c r="E181" s="29"/>
     </row>
     <row r="182" spans="1:5" ht="18">
       <c r="A182" t="s">
@@ -20267,26 +20387,26 @@
       <c r="E187" s="17"/>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="33"/>
-      <c r="B188" s="33" t="s">
+      <c r="A188" s="29"/>
+      <c r="B188" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C188" s="33" t="s">
+      <c r="C188" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D188" s="33" t="s">
+      <c r="D188" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E188" s="33" t="s">
+      <c r="E188" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="33"/>
-      <c r="B189" s="33"/>
-      <c r="C189" s="33"/>
-      <c r="D189" s="33"/>
-      <c r="E189" s="33"/>
+      <c r="A189" s="29"/>
+      <c r="B189" s="29"/>
+      <c r="C189" s="29"/>
+      <c r="D189" s="29"/>
+      <c r="E189" s="29"/>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="22" t="s">
@@ -20399,18 +20519,18 @@
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="C210" s="28" t="s">
+      <c r="C210" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D210" s="29"/>
-      <c r="E210" s="29"/>
-      <c r="F210" s="29"/>
+      <c r="D210" s="31"/>
+      <c r="E210" s="31"/>
+      <c r="F210" s="31"/>
     </row>
     <row r="211" spans="1:7">
-      <c r="C211" s="29"/>
-      <c r="D211" s="29"/>
-      <c r="E211" s="29"/>
-      <c r="F211" s="29"/>
+      <c r="C211" s="31"/>
+      <c r="D211" s="31"/>
+      <c r="E211" s="31"/>
+      <c r="F211" s="31"/>
     </row>
     <row r="213" spans="1:7">
       <c r="B213" t="s">
@@ -20955,30 +21075,30 @@
       </c>
     </row>
     <row r="242" spans="1:6">
-      <c r="C242" s="28" t="s">
+      <c r="C242" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D242" s="29"/>
-      <c r="E242" s="29"/>
-      <c r="F242" s="29"/>
+      <c r="D242" s="31"/>
+      <c r="E242" s="31"/>
+      <c r="F242" s="31"/>
     </row>
     <row r="243" spans="1:6">
-      <c r="C243" s="29"/>
-      <c r="D243" s="29"/>
-      <c r="E243" s="29"/>
-      <c r="F243" s="29"/>
+      <c r="C243" s="31"/>
+      <c r="D243" s="31"/>
+      <c r="E243" s="31"/>
+      <c r="F243" s="31"/>
     </row>
     <row r="245" spans="1:6">
-      <c r="B245" s="35" t="s">
+      <c r="B245" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C245" s="35" t="s">
+      <c r="C245" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D245" s="35" t="s">
+      <c r="D245" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E245" s="35" t="s">
+      <c r="E245" s="28" t="s">
         <v>1</v>
       </c>
     </row>
@@ -21068,16 +21188,16 @@
       </c>
     </row>
     <row r="252" spans="1:6">
-      <c r="B252" s="35" t="s">
+      <c r="B252" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C252" s="35" t="s">
+      <c r="C252" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D252" s="35" t="s">
+      <c r="D252" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E252" s="35" t="s">
+      <c r="E252" s="28" t="s">
         <v>1</v>
       </c>
     </row>
@@ -21166,16 +21286,16 @@
       </c>
     </row>
     <row r="262" spans="1:5">
-      <c r="B262" s="35" t="s">
+      <c r="B262" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C262" s="35" t="s">
+      <c r="C262" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D262" s="35" t="s">
+      <c r="D262" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E262" s="35" t="s">
+      <c r="E262" s="28" t="s">
         <v>1</v>
       </c>
     </row>
@@ -21265,16 +21385,16 @@
       </c>
     </row>
     <row r="269" spans="1:5">
-      <c r="B269" s="35" t="s">
+      <c r="B269" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C269" s="35" t="s">
+      <c r="C269" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D269" s="35" t="s">
+      <c r="D269" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E269" s="35" t="s">
+      <c r="E269" s="28" t="s">
         <v>1</v>
       </c>
     </row>
@@ -21364,42 +21484,31 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="C242:F243"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="B162:E163"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
     <mergeCell ref="I72:I73"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C87:C88"/>
@@ -21412,33 +21521,44 @@
     <mergeCell ref="F80:F81"/>
     <mergeCell ref="F72:F73"/>
     <mergeCell ref="G72:G73"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
     <mergeCell ref="H72:H73"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="B162:E163"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="C242:F243"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
     <mergeCell ref="C210:F211"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/output/figures/compare_toTG_figure.xlsx
+++ b/output/figures/compare_toTG_figure.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wen-Juan/Dropbox (Amherst College)/Amherst_postdoc/github/Haploidselection_and_dosagecompensation_in_Microbotryum/output/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFF1B20-191B-0846-B4A7-84244134AD09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D234452-63E3-8946-879B-CE9D4A1A1333}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="40060" windowHeight="22580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -438,20 +439,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4528,16 +4529,13 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr>
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:sysClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -17805,7 +17803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R197" sqref="R197"/>
     </sheetView>
   </sheetViews>
@@ -18515,13 +18513,13 @@
       <c r="F72" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G72" s="31" t="s">
+      <c r="G72" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H72" s="31" t="s">
+      <c r="H72" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I72" s="31"/>
+      <c r="I72" s="34"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="10" t="s">
@@ -18532,9 +18530,9 @@
       <c r="D73" s="29"/>
       <c r="E73" s="29"/>
       <c r="F73" s="29"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="10" t="s">
@@ -18701,7 +18699,7 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="31"/>
+      <c r="A80" s="34"/>
       <c r="B80" s="29" t="s">
         <v>3</v>
       </c>
@@ -18719,7 +18717,7 @@
       </c>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="31"/>
+      <c r="A81" s="34"/>
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
       <c r="D81" s="29"/>
@@ -18878,21 +18876,21 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="10"/>
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="33" t="s">
+      <c r="C87" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="10"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="33"/>
-      <c r="E88" s="32" t="s">
+      <c r="B88" s="30"/>
+      <c r="C88" s="31"/>
+      <c r="E88" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F88" s="33" t="s">
+      <c r="F88" s="31" t="s">
         <v>25</v>
       </c>
     </row>
@@ -18907,8 +18905,8 @@
       <c r="C89" s="7">
         <v>1616</v>
       </c>
-      <c r="E89" s="32"/>
-      <c r="F89" s="33"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="31"/>
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="10" t="s">
@@ -19039,19 +19037,19 @@
       <c r="A98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="34" t="s">
+      <c r="B98" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="34" t="s">
+      <c r="C98" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D98" s="34" t="s">
+      <c r="D98" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E98" s="34" t="s">
+      <c r="E98" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F98" s="34" t="s">
+      <c r="F98" s="33" t="s">
         <v>1</v>
       </c>
     </row>
@@ -19059,11 +19057,11 @@
       <c r="A99" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B99" s="34"/>
-      <c r="C99" s="34"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="34"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
       <c r="G99" t="s">
         <v>26</v>
       </c>
@@ -19230,28 +19228,28 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="8"/>
-      <c r="B106" s="34" t="s">
+      <c r="B106" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="34" t="s">
+      <c r="C106" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D106" s="34" t="s">
+      <c r="D106" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E106" s="34" t="s">
+      <c r="E106" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F106" s="34" t="s">
+      <c r="F106" s="33" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="B107" s="34"/>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="34"/>
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="33"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="10" t="s">
@@ -19380,21 +19378,21 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="10"/>
-      <c r="B114" s="32" t="s">
+      <c r="B114" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="33" t="s">
+      <c r="C114" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="10"/>
-      <c r="B115" s="32"/>
-      <c r="C115" s="33"/>
-      <c r="E115" s="32" t="s">
+      <c r="B115" s="30"/>
+      <c r="C115" s="31"/>
+      <c r="E115" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F115" s="33" t="s">
+      <c r="F115" s="31" t="s">
         <v>25</v>
       </c>
     </row>
@@ -19410,8 +19408,8 @@
         <f>1830+102</f>
         <v>1932</v>
       </c>
-      <c r="E116" s="32"/>
-      <c r="F116" s="33"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="31"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="10" t="s">
@@ -19524,14 +19522,14 @@
       </c>
     </row>
     <row r="126" spans="1:6" ht="26">
-      <c r="A126" s="35" t="s">
+      <c r="A126" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B126" s="35"/>
-      <c r="C126" s="35"/>
-      <c r="D126" s="35"/>
-      <c r="E126" s="35"/>
-      <c r="F126" s="35"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="32"/>
     </row>
     <row r="127" spans="1:6">
       <c r="B127" s="29" t="s">
@@ -19907,7 +19905,7 @@
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="31"/>
+      <c r="A152" s="34"/>
       <c r="B152" s="29" t="s">
         <v>3</v>
       </c>
@@ -19925,7 +19923,7 @@
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="31"/>
+      <c r="A153" s="34"/>
       <c r="B153" s="29"/>
       <c r="C153" s="29"/>
       <c r="D153" s="29"/>
@@ -20039,18 +20037,18 @@
       <c r="A159" s="11"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="B162" s="30" t="s">
+      <c r="B162" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C162" s="31"/>
-      <c r="D162" s="31"/>
-      <c r="E162" s="31"/>
+      <c r="C162" s="34"/>
+      <c r="D162" s="34"/>
+      <c r="E162" s="34"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="B163" s="31"/>
-      <c r="C163" s="31"/>
-      <c r="D163" s="31"/>
-      <c r="E163" s="31"/>
+      <c r="B163" s="34"/>
+      <c r="C163" s="34"/>
+      <c r="D163" s="34"/>
+      <c r="E163" s="34"/>
     </row>
     <row r="164" spans="1:5">
       <c r="B164" s="29" t="s">
@@ -20158,7 +20156,7 @@
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="31"/>
+      <c r="A171" s="34"/>
       <c r="B171" s="29" t="s">
         <v>3</v>
       </c>
@@ -20173,7 +20171,7 @@
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="31"/>
+      <c r="A172" s="34"/>
       <c r="B172" s="29"/>
       <c r="C172" s="29"/>
       <c r="D172" s="29"/>
@@ -20519,18 +20517,18 @@
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="C210" s="30" t="s">
+      <c r="C210" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D210" s="31"/>
-      <c r="E210" s="31"/>
-      <c r="F210" s="31"/>
+      <c r="D210" s="34"/>
+      <c r="E210" s="34"/>
+      <c r="F210" s="34"/>
     </row>
     <row r="211" spans="1:7">
-      <c r="C211" s="31"/>
-      <c r="D211" s="31"/>
-      <c r="E211" s="31"/>
-      <c r="F211" s="31"/>
+      <c r="C211" s="34"/>
+      <c r="D211" s="34"/>
+      <c r="E211" s="34"/>
+      <c r="F211" s="34"/>
     </row>
     <row r="213" spans="1:7">
       <c r="B213" t="s">
@@ -21075,18 +21073,18 @@
       </c>
     </row>
     <row r="242" spans="1:6">
-      <c r="C242" s="30" t="s">
+      <c r="C242" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D242" s="31"/>
-      <c r="E242" s="31"/>
-      <c r="F242" s="31"/>
+      <c r="D242" s="34"/>
+      <c r="E242" s="34"/>
+      <c r="F242" s="34"/>
     </row>
     <row r="243" spans="1:6">
-      <c r="C243" s="31"/>
-      <c r="D243" s="31"/>
-      <c r="E243" s="31"/>
-      <c r="F243" s="31"/>
+      <c r="C243" s="34"/>
+      <c r="D243" s="34"/>
+      <c r="E243" s="34"/>
+      <c r="F243" s="34"/>
     </row>
     <row r="245" spans="1:6">
       <c r="B245" s="28" t="s">
@@ -21484,31 +21482,43 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="C242:F243"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="C210:F211"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="A171:A172"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="B162:E163"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
     <mergeCell ref="I72:I73"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C87:C88"/>
@@ -21522,43 +21532,31 @@
     <mergeCell ref="F72:F73"/>
     <mergeCell ref="G72:G73"/>
     <mergeCell ref="H72:H73"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="B162:E163"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="A171:A172"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="C242:F243"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="C210:F211"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:F135"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -21569,4 +21567,16 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86A6048-0996-8C4A-A876-0C3F8A708B42}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>